--- a/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
   <si>
     <t>Accident</t>
   </si>
@@ -175,103 +175,55 @@
     <t>Injuries</t>
   </si>
   <si>
+    <t>Unknown Injuries</t>
+  </si>
+  <si>
     <t>No Injuries</t>
   </si>
   <si>
-    <t>Unknown Injuries</t>
-  </si>
-  <si>
-    <t>2019-01-13</t>
-  </si>
-  <si>
-    <t>21:18:13</t>
-  </si>
-  <si>
-    <t>21:16:55</t>
-  </si>
-  <si>
-    <t>16:24:29</t>
-  </si>
-  <si>
-    <t>16:24:02</t>
-  </si>
-  <si>
-    <t>12:40:13</t>
-  </si>
-  <si>
-    <t>12:39:49</t>
-  </si>
-  <si>
-    <t>10:12:14</t>
-  </si>
-  <si>
-    <t>08:04:53</t>
-  </si>
-  <si>
-    <t>08:04:06</t>
-  </si>
-  <si>
-    <t>05:28:19</t>
-  </si>
-  <si>
-    <t>04:13:26</t>
-  </si>
-  <si>
-    <t>2106 Citico Ave</t>
-  </si>
-  <si>
-    <t>6800 - 6899 Highway 58</t>
-  </si>
-  <si>
-    <t>100 - 149 N Orchard Knob Ave</t>
-  </si>
-  <si>
-    <t>1900-1999 MCCALLIE AVE</t>
-  </si>
-  <si>
-    <t>130 INTERSTATE 75 NB</t>
-  </si>
-  <si>
-    <t>1 - 9 Exit Dayton Blvd Off Ramp Nb</t>
-  </si>
-  <si>
-    <t>1517 John Ross Rd</t>
-  </si>
-  <si>
-    <t>2904 5TH AVE</t>
+    <t>2019-01-14</t>
+  </si>
+  <si>
+    <t>13:18:26</t>
+  </si>
+  <si>
+    <t>11:03:48</t>
+  </si>
+  <si>
+    <t>08:53:40</t>
+  </si>
+  <si>
+    <t>07:43:18</t>
+  </si>
+  <si>
+    <t>648 Timberlinks Dr</t>
+  </si>
+  <si>
+    <t>W 4th St / Broad St</t>
+  </si>
+  <si>
+    <t>2500 Broad St</t>
+  </si>
+  <si>
+    <t>60 HIGHWAY 27 NB</t>
+  </si>
+  <si>
+    <t>SIGNAL MOUNTAIN</t>
   </si>
   <si>
     <t>CHATTANOOGA</t>
   </si>
   <si>
-    <t>HAMILTON COUNTY</t>
-  </si>
-  <si>
-    <t>RED BANK</t>
-  </si>
-  <si>
-    <t>EAST RIDGE</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>10</t>
+    <t>13</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>4</t>
+    <t>7</t>
   </si>
 </sst>
 </file>
@@ -629,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA12"/>
+  <dimension ref="A1:BA5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -795,16 +747,16 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
       </c>
       <c r="D2">
-        <v>35.04453</v>
+        <v>35.142795</v>
       </c>
       <c r="E2">
-        <v>-85.26631999999999</v>
+        <v>-85.35020400000001</v>
       </c>
       <c r="F2" t="s">
         <v>55</v>
@@ -813,13 +765,13 @@
         <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="K2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="P2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="Y2">
         <v>1</v>
@@ -827,16 +779,16 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D3">
-        <v>35.04453</v>
+        <v>35.052295</v>
       </c>
       <c r="E3">
-        <v>-85.26631999999999</v>
+        <v>-85.310664</v>
       </c>
       <c r="F3" t="s">
         <v>55</v>
@@ -845,13 +797,13 @@
         <v>57</v>
       </c>
       <c r="H3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" t="s">
+        <v>65</v>
+      </c>
+      <c r="P3" t="s">
         <v>67</v>
-      </c>
-      <c r="K3" t="s">
-        <v>75</v>
-      </c>
-      <c r="P3" t="s">
-        <v>79</v>
       </c>
       <c r="Y3">
         <v>1</v>
@@ -859,16 +811,16 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D4">
-        <v>35.139633</v>
+        <v>35.028496</v>
       </c>
       <c r="E4">
-        <v>-85.120863</v>
+        <v>-85.316259</v>
       </c>
       <c r="F4" t="s">
         <v>55</v>
@@ -877,13 +829,13 @@
         <v>58</v>
       </c>
       <c r="H4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" t="s">
         <v>68</v>
-      </c>
-      <c r="K4" t="s">
-        <v>76</v>
-      </c>
-      <c r="P4" t="s">
-        <v>80</v>
       </c>
       <c r="Y4">
         <v>1</v>
@@ -891,16 +843,16 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D5">
-        <v>35.139633</v>
+        <v>35.039377</v>
       </c>
       <c r="E5">
-        <v>-85.120863</v>
+        <v>-85.318217</v>
       </c>
       <c r="F5" t="s">
         <v>55</v>
@@ -909,239 +861,15 @@
         <v>59</v>
       </c>
       <c r="H5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="P5" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="Y5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:53">
-      <c r="A6" s="1">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6">
-        <v>35.035879</v>
-      </c>
-      <c r="E6">
-        <v>-85.274609</v>
-      </c>
-      <c r="F6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H6" t="s">
-        <v>69</v>
-      </c>
-      <c r="K6" t="s">
-        <v>75</v>
-      </c>
-      <c r="P6" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:53">
-      <c r="A7" s="1">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7">
-        <v>35.035869</v>
-      </c>
-      <c r="E7">
-        <v>-85.274584</v>
-      </c>
-      <c r="F7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K7" t="s">
-        <v>75</v>
-      </c>
-      <c r="P7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:53">
-      <c r="A8" s="1">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8">
-        <v>35.002679</v>
-      </c>
-      <c r="E8">
-        <v>-85.21117</v>
-      </c>
-      <c r="F8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" t="s">
-        <v>71</v>
-      </c>
-      <c r="K8" t="s">
-        <v>75</v>
-      </c>
-      <c r="P8" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:53">
-      <c r="A9" s="1">
-        <v>34</v>
-      </c>
-      <c r="C9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9">
-        <v>35.07549</v>
-      </c>
-      <c r="E9">
-        <v>-85.321467</v>
-      </c>
-      <c r="F9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" t="s">
-        <v>72</v>
-      </c>
-      <c r="K9" t="s">
-        <v>77</v>
-      </c>
-      <c r="P9" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:53">
-      <c r="A10" s="1">
-        <v>35</v>
-      </c>
-      <c r="C10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10">
-        <v>35.07549</v>
-      </c>
-      <c r="E10">
-        <v>-85.321467</v>
-      </c>
-      <c r="F10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" t="s">
-        <v>72</v>
-      </c>
-      <c r="K10" t="s">
-        <v>77</v>
-      </c>
-      <c r="P10" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:53">
-      <c r="A11" s="1">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11">
-        <v>34.990715</v>
-      </c>
-      <c r="E11">
-        <v>-85.266228</v>
-      </c>
-      <c r="F11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" t="s">
-        <v>73</v>
-      </c>
-      <c r="K11" t="s">
-        <v>78</v>
-      </c>
-      <c r="P11" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:53">
-      <c r="A12" s="1">
-        <v>42</v>
-      </c>
-      <c r="C12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12">
-        <v>35.009019</v>
-      </c>
-      <c r="E12">
-        <v>-85.283064</v>
-      </c>
-      <c r="F12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" t="s">
-        <v>74</v>
-      </c>
-      <c r="K12" t="s">
-        <v>75</v>
-      </c>
-      <c r="P12" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y12">
         <v>1</v>
       </c>
     </row>

--- a/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="79">
   <si>
     <t>Accident</t>
   </si>
@@ -181,49 +181,76 @@
     <t>No Injuries</t>
   </si>
   <si>
-    <t>2019-01-14</t>
-  </si>
-  <si>
-    <t>13:18:26</t>
-  </si>
-  <si>
-    <t>11:03:48</t>
-  </si>
-  <si>
-    <t>08:53:40</t>
-  </si>
-  <si>
-    <t>07:43:18</t>
-  </si>
-  <si>
-    <t>648 Timberlinks Dr</t>
-  </si>
-  <si>
-    <t>W 4th St / Broad St</t>
-  </si>
-  <si>
-    <t>2500 Broad St</t>
-  </si>
-  <si>
-    <t>60 HIGHWAY 27 NB</t>
-  </si>
-  <si>
-    <t>SIGNAL MOUNTAIN</t>
+    <t>2019-01-16</t>
+  </si>
+  <si>
+    <t>18:04:06</t>
+  </si>
+  <si>
+    <t>18:03:25</t>
+  </si>
+  <si>
+    <t>18:01:58</t>
+  </si>
+  <si>
+    <t>16:49:12</t>
+  </si>
+  <si>
+    <t>15:55:51</t>
+  </si>
+  <si>
+    <t>14:07:51</t>
+  </si>
+  <si>
+    <t>13:14:47</t>
+  </si>
+  <si>
+    <t>06:02:41</t>
+  </si>
+  <si>
+    <t>06:01:44</t>
+  </si>
+  <si>
+    <t>12 Dowlen Rd</t>
+  </si>
+  <si>
+    <t>6100 Dayton Blvd</t>
+  </si>
+  <si>
+    <t>18240 INTERSTATE 24 EB</t>
+  </si>
+  <si>
+    <t>E 23rd St / Dodds Ave</t>
+  </si>
+  <si>
+    <t>5110-5149 Highway 153</t>
+  </si>
+  <si>
+    <t>8101 E Brainerd Rd</t>
+  </si>
+  <si>
+    <t>S Orchard Knob Ave / Bailey Ave</t>
   </si>
   <si>
     <t>CHATTANOOGA</t>
   </si>
   <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>13</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>7</t>
+    <t>6</t>
   </si>
 </sst>
 </file>
@@ -581,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA5"/>
+  <dimension ref="A1:BA11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -747,16 +774,16 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
       </c>
       <c r="D2">
-        <v>35.142795</v>
+        <v>35.170132</v>
       </c>
       <c r="E2">
-        <v>-85.35020400000001</v>
+        <v>-85.256759</v>
       </c>
       <c r="F2" t="s">
         <v>55</v>
@@ -765,13 +792,13 @@
         <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="P2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="Y2">
         <v>1</v>
@@ -779,16 +806,16 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3">
-        <v>35.052295</v>
+        <v>35.170132</v>
       </c>
       <c r="E3">
-        <v>-85.310664</v>
+        <v>-85.256759</v>
       </c>
       <c r="F3" t="s">
         <v>55</v>
@@ -797,13 +824,13 @@
         <v>57</v>
       </c>
       <c r="H3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K3" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="P3" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="Y3">
         <v>1</v>
@@ -811,16 +838,16 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4">
-        <v>35.028496</v>
+        <v>35.170232</v>
       </c>
       <c r="E4">
-        <v>-85.316259</v>
+        <v>-85.25688</v>
       </c>
       <c r="F4" t="s">
         <v>55</v>
@@ -829,13 +856,13 @@
         <v>58</v>
       </c>
       <c r="H4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="P4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="Y4">
         <v>1</v>
@@ -843,16 +870,16 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5">
-        <v>35.039377</v>
+        <v>35.021032</v>
       </c>
       <c r="E5">
-        <v>-85.318217</v>
+        <v>-85.261306</v>
       </c>
       <c r="F5" t="s">
         <v>55</v>
@@ -861,15 +888,207 @@
         <v>59</v>
       </c>
       <c r="H5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53">
+      <c r="A6" s="1">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6">
+        <v>35.021032</v>
+      </c>
+      <c r="E6">
+        <v>-85.261306</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53">
+      <c r="A7" s="1">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7">
+        <v>35.01572</v>
+      </c>
+      <c r="E7">
+        <v>-85.273583</v>
+      </c>
+      <c r="F7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:53">
+      <c r="A8" s="1">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8">
+        <v>35.122915</v>
+      </c>
+      <c r="E8">
+        <v>-85.239367</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P8" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53">
+      <c r="A9" s="1">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9">
+        <v>35.005297</v>
+      </c>
+      <c r="E9">
+        <v>-85.149263</v>
+      </c>
+      <c r="F9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" t="s">
+        <v>72</v>
+      </c>
+      <c r="P9" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:53">
+      <c r="A10" s="1">
+        <v>81</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10">
+        <v>35.033431</v>
+      </c>
+      <c r="E10">
+        <v>-85.276054</v>
+      </c>
+      <c r="F10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" t="s">
         <v>63</v>
       </c>
-      <c r="K5" t="s">
-        <v>65</v>
-      </c>
-      <c r="P5" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y5">
+      <c r="H10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" t="s">
+        <v>72</v>
+      </c>
+      <c r="P10" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:53">
+      <c r="A11" s="1">
+        <v>82</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11">
+        <v>35.033431</v>
+      </c>
+      <c r="E11">
+        <v>-85.276054</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y11">
         <v>1</v>
       </c>
     </row>

--- a/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="93">
   <si>
     <t>Accident</t>
   </si>
@@ -175,67 +175,112 @@
     <t>Injuries</t>
   </si>
   <si>
-    <t>Unknown Injuries</t>
-  </si>
-  <si>
     <t>No Injuries</t>
   </si>
   <si>
-    <t>2019-01-16</t>
-  </si>
-  <si>
-    <t>18:04:06</t>
-  </si>
-  <si>
-    <t>18:03:25</t>
-  </si>
-  <si>
-    <t>18:01:58</t>
-  </si>
-  <si>
-    <t>16:49:12</t>
-  </si>
-  <si>
-    <t>15:55:51</t>
-  </si>
-  <si>
-    <t>14:07:51</t>
-  </si>
-  <si>
-    <t>13:14:47</t>
-  </si>
-  <si>
-    <t>06:02:41</t>
-  </si>
-  <si>
-    <t>06:01:44</t>
-  </si>
-  <si>
-    <t>12 Dowlen Rd</t>
-  </si>
-  <si>
-    <t>6100 Dayton Blvd</t>
-  </si>
-  <si>
-    <t>18240 INTERSTATE 24 EB</t>
-  </si>
-  <si>
-    <t>E 23rd St / Dodds Ave</t>
-  </si>
-  <si>
-    <t>5110-5149 Highway 153</t>
-  </si>
-  <si>
-    <t>8101 E Brainerd Rd</t>
-  </si>
-  <si>
-    <t>S Orchard Knob Ave / Bailey Ave</t>
+    <t>Entrapment</t>
+  </si>
+  <si>
+    <t>2019-01-17</t>
+  </si>
+  <si>
+    <t>20:21:51</t>
+  </si>
+  <si>
+    <t>20:20:05</t>
+  </si>
+  <si>
+    <t>19:25:24</t>
+  </si>
+  <si>
+    <t>17:38:22</t>
+  </si>
+  <si>
+    <t>17:37:56</t>
+  </si>
+  <si>
+    <t>17:21:52</t>
+  </si>
+  <si>
+    <t>17:21:03</t>
+  </si>
+  <si>
+    <t>17:18:21</t>
+  </si>
+  <si>
+    <t>17:12:01</t>
+  </si>
+  <si>
+    <t>17:11:01</t>
+  </si>
+  <si>
+    <t>16:57:18</t>
+  </si>
+  <si>
+    <t>16:37:51</t>
+  </si>
+  <si>
+    <t>16:36:07</t>
+  </si>
+  <si>
+    <t>15:34:26</t>
+  </si>
+  <si>
+    <t>11:58:28</t>
+  </si>
+  <si>
+    <t>08:25:30</t>
+  </si>
+  <si>
+    <t>1-99 W Manning St</t>
+  </si>
+  <si>
+    <t>W 25th St / Williams St</t>
+  </si>
+  <si>
+    <t>Bailey Ave / S Willow St</t>
+  </si>
+  <si>
+    <t>537 Gadd Rd</t>
+  </si>
+  <si>
+    <t>538 Gadd Rd</t>
+  </si>
+  <si>
+    <t>5621 Old Hunter Rd</t>
+  </si>
+  <si>
+    <t>N CHAMBERLAIN AVE / STUART ST</t>
+  </si>
+  <si>
+    <t>3506 - 3589 Brainerd Rd</t>
+  </si>
+  <si>
+    <t>755 OCHS HWY</t>
+  </si>
+  <si>
+    <t>HIXSON PIKE / LONGVIEW DR</t>
+  </si>
+  <si>
+    <t>5900-5999 Cassandra Smith Rd</t>
   </si>
   <si>
     <t>CHATTANOOGA</t>
   </si>
   <si>
-    <t>18</t>
+    <t>RED BANK</t>
+  </si>
+  <si>
+    <t>HAMILTON COUNTY</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>17</t>
   </si>
   <si>
     <t>16</t>
@@ -244,13 +289,10 @@
     <t>15</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>6</t>
+    <t>11</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
 </sst>
 </file>
@@ -608,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA11"/>
+  <dimension ref="A1:BA18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -774,16 +816,16 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
       </c>
       <c r="D2">
-        <v>35.170132</v>
+        <v>35.065671</v>
       </c>
       <c r="E2">
-        <v>-85.256759</v>
+        <v>-85.309827</v>
       </c>
       <c r="F2" t="s">
         <v>55</v>
@@ -792,13 +834,13 @@
         <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="K2" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="Y2">
         <v>1</v>
@@ -806,16 +848,16 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>52</v>
       </c>
       <c r="D3">
-        <v>35.170132</v>
+        <v>35.065671</v>
       </c>
       <c r="E3">
-        <v>-85.256759</v>
+        <v>-85.309827</v>
       </c>
       <c r="F3" t="s">
         <v>55</v>
@@ -824,13 +866,13 @@
         <v>57</v>
       </c>
       <c r="H3" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="K3" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="Y3">
         <v>1</v>
@@ -838,16 +880,16 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D4">
-        <v>35.170232</v>
+        <v>35.027764</v>
       </c>
       <c r="E4">
-        <v>-85.25688</v>
+        <v>-85.314283</v>
       </c>
       <c r="F4" t="s">
         <v>55</v>
@@ -856,13 +898,13 @@
         <v>58</v>
       </c>
       <c r="H4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="K4" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="Y4">
         <v>1</v>
@@ -870,16 +912,16 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5">
-        <v>35.021032</v>
+        <v>35.032371</v>
       </c>
       <c r="E5">
-        <v>-85.261306</v>
+        <v>-85.273219</v>
       </c>
       <c r="F5" t="s">
         <v>55</v>
@@ -888,13 +930,13 @@
         <v>59</v>
       </c>
       <c r="H5" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="Y5">
         <v>1</v>
@@ -902,31 +944,31 @@
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6">
-        <v>35.021032</v>
+        <v>35.032371</v>
       </c>
       <c r="E6">
-        <v>-85.261306</v>
+        <v>-85.273219</v>
       </c>
       <c r="F6" t="s">
         <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H6" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="K6" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="P6" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="Y6">
         <v>1</v>
@@ -934,31 +976,31 @@
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
         <v>52</v>
       </c>
       <c r="D7">
-        <v>35.01572</v>
+        <v>35.143045</v>
       </c>
       <c r="E7">
-        <v>-85.273583</v>
+        <v>-85.26351</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="K7" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="P7" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="Y7">
         <v>1</v>
@@ -966,31 +1008,31 @@
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
         <v>52</v>
       </c>
       <c r="D8">
-        <v>35.122915</v>
+        <v>35.143045</v>
       </c>
       <c r="E8">
-        <v>-85.239367</v>
+        <v>-85.26351</v>
       </c>
       <c r="F8" t="s">
         <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H8" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="K8" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="P8" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="Y8">
         <v>1</v>
@@ -998,31 +1040,31 @@
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D9">
-        <v>35.005297</v>
+        <v>35.141693</v>
       </c>
       <c r="E9">
-        <v>-85.149263</v>
+        <v>-85.263114</v>
       </c>
       <c r="F9" t="s">
         <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H9" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="K9" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="Y9">
         <v>1</v>
@@ -1030,31 +1072,31 @@
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D10">
-        <v>35.033431</v>
+        <v>35.105194</v>
       </c>
       <c r="E10">
-        <v>-85.276054</v>
+        <v>-85.08712300000001</v>
       </c>
       <c r="F10" t="s">
         <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H10" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="K10" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="Y10">
         <v>1</v>
@@ -1062,33 +1104,257 @@
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11">
+        <v>35.105194</v>
+      </c>
+      <c r="E11">
+        <v>-85.08712300000001</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" t="s">
+        <v>85</v>
+      </c>
+      <c r="P11" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:53">
+      <c r="A12" s="1">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12">
+        <v>35.070365</v>
+      </c>
+      <c r="E12">
+        <v>-85.246285</v>
+      </c>
+      <c r="F12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:53">
+      <c r="A13" s="1">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13">
+        <v>35.070365</v>
+      </c>
+      <c r="E13">
+        <v>-85.246285</v>
+      </c>
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13" t="s">
+        <v>83</v>
+      </c>
+      <c r="P13" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:53">
+      <c r="A14" s="1">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14">
+        <v>35.025212</v>
+      </c>
+      <c r="E14">
+        <v>-85.248006</v>
+      </c>
+      <c r="F14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:53">
+      <c r="A15" s="1">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15">
+        <v>35.025212</v>
+      </c>
+      <c r="E15">
+        <v>-85.248006</v>
+      </c>
+      <c r="F15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" t="s">
+        <v>79</v>
+      </c>
+      <c r="K15" t="s">
+        <v>83</v>
+      </c>
+      <c r="P15" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:53">
+      <c r="A16" s="1">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16">
+        <v>34.988415</v>
+      </c>
+      <c r="E16">
+        <v>-85.344449</v>
+      </c>
+      <c r="F16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" t="s">
+        <v>80</v>
+      </c>
+      <c r="K16" t="s">
+        <v>83</v>
+      </c>
+      <c r="P16" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
+      <c r="A17" s="1">
+        <v>85</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17">
+        <v>35.141052</v>
+      </c>
+      <c r="E17">
+        <v>-85.231685</v>
+      </c>
+      <c r="F17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" t="s">
+        <v>81</v>
+      </c>
+      <c r="K17" t="s">
+        <v>83</v>
+      </c>
+      <c r="P17" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="A18" s="1">
+        <v>102</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18">
+        <v>35.148748</v>
+      </c>
+      <c r="E18">
+        <v>-85.20568400000001</v>
+      </c>
+      <c r="F18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" t="s">
         <v>82</v>
       </c>
-      <c r="C11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11">
-        <v>35.033431</v>
-      </c>
-      <c r="E11">
-        <v>-85.276054</v>
-      </c>
-      <c r="F11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" t="s">
-        <v>71</v>
-      </c>
-      <c r="K11" t="s">
-        <v>72</v>
-      </c>
-      <c r="P11" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y11">
+      <c r="K18" t="s">
+        <v>83</v>
+      </c>
+      <c r="P18" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y18">
         <v>1</v>
       </c>
     </row>

--- a/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="90">
   <si>
     <t>Accident</t>
   </si>
@@ -175,124 +175,115 @@
     <t>Injuries</t>
   </si>
   <si>
+    <t>Unknown Injuries</t>
+  </si>
+  <si>
     <t>No Injuries</t>
   </si>
   <si>
-    <t>Entrapment</t>
-  </si>
-  <si>
-    <t>2019-01-17</t>
-  </si>
-  <si>
-    <t>20:21:51</t>
-  </si>
-  <si>
-    <t>20:20:05</t>
-  </si>
-  <si>
-    <t>19:25:24</t>
-  </si>
-  <si>
-    <t>17:38:22</t>
-  </si>
-  <si>
-    <t>17:37:56</t>
-  </si>
-  <si>
-    <t>17:21:52</t>
-  </si>
-  <si>
-    <t>17:21:03</t>
-  </si>
-  <si>
-    <t>17:18:21</t>
-  </si>
-  <si>
-    <t>17:12:01</t>
-  </si>
-  <si>
-    <t>17:11:01</t>
-  </si>
-  <si>
-    <t>16:57:18</t>
-  </si>
-  <si>
-    <t>16:37:51</t>
-  </si>
-  <si>
-    <t>16:36:07</t>
-  </si>
-  <si>
-    <t>15:34:26</t>
-  </si>
-  <si>
-    <t>11:58:28</t>
-  </si>
-  <si>
-    <t>08:25:30</t>
-  </si>
-  <si>
-    <t>1-99 W Manning St</t>
-  </si>
-  <si>
-    <t>W 25th St / Williams St</t>
-  </si>
-  <si>
-    <t>Bailey Ave / S Willow St</t>
-  </si>
-  <si>
-    <t>537 Gadd Rd</t>
-  </si>
-  <si>
-    <t>538 Gadd Rd</t>
-  </si>
-  <si>
-    <t>5621 Old Hunter Rd</t>
-  </si>
-  <si>
-    <t>N CHAMBERLAIN AVE / STUART ST</t>
-  </si>
-  <si>
-    <t>3506 - 3589 Brainerd Rd</t>
-  </si>
-  <si>
-    <t>755 OCHS HWY</t>
-  </si>
-  <si>
-    <t>HIXSON PIKE / LONGVIEW DR</t>
-  </si>
-  <si>
-    <t>5900-5999 Cassandra Smith Rd</t>
+    <t>2019-01-22</t>
+  </si>
+  <si>
+    <t>18:36:31</t>
+  </si>
+  <si>
+    <t>16:03:25</t>
+  </si>
+  <si>
+    <t>16:01:17</t>
+  </si>
+  <si>
+    <t>14:14:52</t>
+  </si>
+  <si>
+    <t>12:04:05</t>
+  </si>
+  <si>
+    <t>12:02:57</t>
+  </si>
+  <si>
+    <t>09:41:58</t>
+  </si>
+  <si>
+    <t>09:41:27</t>
+  </si>
+  <si>
+    <t>09:05:49</t>
+  </si>
+  <si>
+    <t>09:05:09</t>
+  </si>
+  <si>
+    <t>08:01:09</t>
+  </si>
+  <si>
+    <t>08:00:05</t>
+  </si>
+  <si>
+    <t>05:16:02</t>
+  </si>
+  <si>
+    <t>E Brainerd Rd / Banks Rd</t>
+  </si>
+  <si>
+    <t>5100 Brainerd Rd</t>
+  </si>
+  <si>
+    <t>6404 Ringgold Rd</t>
+  </si>
+  <si>
+    <t>Lee Hwy / Shallowford Rd</t>
+  </si>
+  <si>
+    <t>SHALLOWFORD RD / LEE HWY</t>
+  </si>
+  <si>
+    <t>3800 Lightfoot Mill Rd</t>
+  </si>
+  <si>
+    <t>2800-2839 Dayton Blvd</t>
+  </si>
+  <si>
+    <t>E 3rd St / Mabel St</t>
+  </si>
+  <si>
+    <t>300 MABEL ST</t>
+  </si>
+  <si>
+    <t>IGOU GAP RD / CLEARVIEW DR</t>
+  </si>
+  <si>
+    <t>HAMILTON COUNTY</t>
   </si>
   <si>
     <t>CHATTANOOGA</t>
   </si>
   <si>
+    <t>EAST RIDGE</t>
+  </si>
+  <si>
     <t>RED BANK</t>
   </si>
   <si>
-    <t>HAMILTON COUNTY</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>17</t>
+    <t>18</t>
   </si>
   <si>
     <t>16</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>11</t>
+    <t>14</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
   <si>
     <t>8</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -650,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA18"/>
+  <dimension ref="A1:BA15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -816,16 +807,16 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
       </c>
       <c r="D2">
-        <v>35.065671</v>
+        <v>35.006037</v>
       </c>
       <c r="E2">
-        <v>-85.309827</v>
+        <v>-85.12046599999999</v>
       </c>
       <c r="F2" t="s">
         <v>55</v>
@@ -834,13 +825,13 @@
         <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P2" t="s">
         <v>83</v>
-      </c>
-      <c r="P2" t="s">
-        <v>86</v>
       </c>
       <c r="Y2">
         <v>1</v>
@@ -848,16 +839,16 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
         <v>52</v>
       </c>
       <c r="D3">
-        <v>35.065671</v>
+        <v>35.011585</v>
       </c>
       <c r="E3">
-        <v>-85.309827</v>
+        <v>-85.225891</v>
       </c>
       <c r="F3" t="s">
         <v>55</v>
@@ -866,13 +857,13 @@
         <v>57</v>
       </c>
       <c r="H3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="P3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Y3">
         <v>1</v>
@@ -880,16 +871,16 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4">
-        <v>35.027764</v>
+        <v>35.011585</v>
       </c>
       <c r="E4">
-        <v>-85.314283</v>
+        <v>-85.225891</v>
       </c>
       <c r="F4" t="s">
         <v>55</v>
@@ -898,13 +889,13 @@
         <v>58</v>
       </c>
       <c r="H4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="P4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Y4">
         <v>1</v>
@@ -912,16 +903,16 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D5">
-        <v>35.032371</v>
+        <v>34.989184</v>
       </c>
       <c r="E5">
-        <v>-85.273219</v>
+        <v>-85.210455</v>
       </c>
       <c r="F5" t="s">
         <v>55</v>
@@ -930,13 +921,13 @@
         <v>59</v>
       </c>
       <c r="H5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Y5">
         <v>1</v>
@@ -944,16 +935,16 @@
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
         <v>52</v>
       </c>
       <c r="D6">
-        <v>35.032371</v>
+        <v>35.044885</v>
       </c>
       <c r="E6">
-        <v>-85.273219</v>
+        <v>-85.162464</v>
       </c>
       <c r="F6" t="s">
         <v>55</v>
@@ -962,13 +953,13 @@
         <v>60</v>
       </c>
       <c r="H6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Y6">
         <v>1</v>
@@ -976,16 +967,16 @@
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D7">
-        <v>35.143045</v>
+        <v>35.044885</v>
       </c>
       <c r="E7">
-        <v>-85.26351</v>
+        <v>-85.162464</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -994,13 +985,13 @@
         <v>61</v>
       </c>
       <c r="H7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="P7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Y7">
         <v>1</v>
@@ -1008,16 +999,16 @@
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
         <v>52</v>
       </c>
       <c r="D8">
-        <v>35.143045</v>
+        <v>35.067936</v>
       </c>
       <c r="E8">
-        <v>-85.26351</v>
+        <v>-85.21201000000001</v>
       </c>
       <c r="F8" t="s">
         <v>55</v>
@@ -1026,13 +1017,13 @@
         <v>62</v>
       </c>
       <c r="H8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="P8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y8">
         <v>1</v>
@@ -1040,31 +1031,31 @@
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
         <v>52</v>
       </c>
       <c r="D9">
-        <v>35.141693</v>
+        <v>35.067936</v>
       </c>
       <c r="E9">
-        <v>-85.263114</v>
+        <v>-85.21201000000001</v>
       </c>
       <c r="F9" t="s">
         <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="P9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y9">
         <v>1</v>
@@ -1072,31 +1063,31 @@
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
         <v>54</v>
       </c>
       <c r="D10">
-        <v>35.105194</v>
+        <v>35.067936</v>
       </c>
       <c r="E10">
-        <v>-85.08712300000001</v>
+        <v>-85.21201000000001</v>
       </c>
       <c r="F10" t="s">
         <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K10" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="P10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y10">
         <v>1</v>
@@ -1104,31 +1095,31 @@
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11">
-        <v>35.105194</v>
+        <v>35.10122</v>
       </c>
       <c r="E11">
-        <v>-85.08712300000001</v>
+        <v>-85.301671</v>
       </c>
       <c r="F11" t="s">
         <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="P11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y11">
         <v>1</v>
@@ -1136,31 +1127,31 @@
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
         <v>52</v>
       </c>
       <c r="D12">
-        <v>35.070365</v>
+        <v>35.10122</v>
       </c>
       <c r="E12">
-        <v>-85.246285</v>
+        <v>-85.301671</v>
       </c>
       <c r="F12" t="s">
         <v>55</v>
       </c>
       <c r="G12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Y12">
         <v>1</v>
@@ -1168,16 +1159,16 @@
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
         <v>52</v>
       </c>
       <c r="D13">
-        <v>35.070365</v>
+        <v>35.051299</v>
       </c>
       <c r="E13">
-        <v>-85.246285</v>
+        <v>-85.299453</v>
       </c>
       <c r="F13" t="s">
         <v>55</v>
@@ -1186,13 +1177,13 @@
         <v>66</v>
       </c>
       <c r="H13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="P13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Y13">
         <v>1</v>
@@ -1200,16 +1191,16 @@
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D14">
-        <v>35.025212</v>
+        <v>35.051299</v>
       </c>
       <c r="E14">
-        <v>-85.248006</v>
+        <v>-85.299453</v>
       </c>
       <c r="F14" t="s">
         <v>55</v>
@@ -1218,13 +1209,13 @@
         <v>67</v>
       </c>
       <c r="H14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="P14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Y14">
         <v>1</v>
@@ -1232,16 +1223,16 @@
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
         <v>52</v>
       </c>
       <c r="D15">
-        <v>35.025212</v>
+        <v>35.024977</v>
       </c>
       <c r="E15">
-        <v>-85.248006</v>
+        <v>-85.152233</v>
       </c>
       <c r="F15" t="s">
         <v>55</v>
@@ -1250,111 +1241,15 @@
         <v>68</v>
       </c>
       <c r="H15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K15" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="P15" t="s">
         <v>89</v>
       </c>
       <c r="Y15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:53">
-      <c r="A16" s="1">
-        <v>56</v>
-      </c>
-      <c r="C16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16">
-        <v>34.988415</v>
-      </c>
-      <c r="E16">
-        <v>-85.344449</v>
-      </c>
-      <c r="F16" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" t="s">
-        <v>69</v>
-      </c>
-      <c r="H16" t="s">
-        <v>80</v>
-      </c>
-      <c r="K16" t="s">
-        <v>83</v>
-      </c>
-      <c r="P16" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25">
-      <c r="A17" s="1">
-        <v>85</v>
-      </c>
-      <c r="C17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17">
-        <v>35.141052</v>
-      </c>
-      <c r="E17">
-        <v>-85.231685</v>
-      </c>
-      <c r="F17" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" t="s">
-        <v>70</v>
-      </c>
-      <c r="H17" t="s">
-        <v>81</v>
-      </c>
-      <c r="K17" t="s">
-        <v>83</v>
-      </c>
-      <c r="P17" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25">
-      <c r="A18" s="1">
-        <v>102</v>
-      </c>
-      <c r="C18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18">
-        <v>35.148748</v>
-      </c>
-      <c r="E18">
-        <v>-85.20568400000001</v>
-      </c>
-      <c r="F18" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" t="s">
-        <v>71</v>
-      </c>
-      <c r="H18" t="s">
-        <v>82</v>
-      </c>
-      <c r="K18" t="s">
-        <v>83</v>
-      </c>
-      <c r="P18" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y18">
         <v>1</v>
       </c>
     </row>

--- a/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="95">
   <si>
     <t>Accident</t>
   </si>
@@ -181,109 +181,124 @@
     <t>No Injuries</t>
   </si>
   <si>
-    <t>2019-01-22</t>
-  </si>
-  <si>
-    <t>18:36:31</t>
-  </si>
-  <si>
-    <t>16:03:25</t>
-  </si>
-  <si>
-    <t>16:01:17</t>
-  </si>
-  <si>
-    <t>14:14:52</t>
-  </si>
-  <si>
-    <t>12:04:05</t>
-  </si>
-  <si>
-    <t>12:02:57</t>
-  </si>
-  <si>
-    <t>09:41:58</t>
-  </si>
-  <si>
-    <t>09:41:27</t>
-  </si>
-  <si>
-    <t>09:05:49</t>
-  </si>
-  <si>
-    <t>09:05:09</t>
-  </si>
-  <si>
-    <t>08:01:09</t>
-  </si>
-  <si>
-    <t>08:00:05</t>
-  </si>
-  <si>
-    <t>05:16:02</t>
-  </si>
-  <si>
-    <t>E Brainerd Rd / Banks Rd</t>
-  </si>
-  <si>
-    <t>5100 Brainerd Rd</t>
-  </si>
-  <si>
-    <t>6404 Ringgold Rd</t>
-  </si>
-  <si>
-    <t>Lee Hwy / Shallowford Rd</t>
-  </si>
-  <si>
-    <t>SHALLOWFORD RD / LEE HWY</t>
-  </si>
-  <si>
-    <t>3800 Lightfoot Mill Rd</t>
-  </si>
-  <si>
-    <t>2800-2839 Dayton Blvd</t>
-  </si>
-  <si>
-    <t>E 3rd St / Mabel St</t>
-  </si>
-  <si>
-    <t>300 MABEL ST</t>
-  </si>
-  <si>
-    <t>IGOU GAP RD / CLEARVIEW DR</t>
+    <t>2019-01-23</t>
+  </si>
+  <si>
+    <t>21:46:50</t>
+  </si>
+  <si>
+    <t>21:46:31</t>
+  </si>
+  <si>
+    <t>21:32:54</t>
+  </si>
+  <si>
+    <t>21:31:31</t>
+  </si>
+  <si>
+    <t>20:29:01</t>
+  </si>
+  <si>
+    <t>19:21:20</t>
+  </si>
+  <si>
+    <t>18:53:12</t>
+  </si>
+  <si>
+    <t>18:50:58</t>
+  </si>
+  <si>
+    <t>17:58:24</t>
+  </si>
+  <si>
+    <t>17:56:49</t>
+  </si>
+  <si>
+    <t>17:30:38</t>
+  </si>
+  <si>
+    <t>15:47:33</t>
+  </si>
+  <si>
+    <t>15:21:19</t>
+  </si>
+  <si>
+    <t>15:19:53</t>
+  </si>
+  <si>
+    <t>12:23:53</t>
+  </si>
+  <si>
+    <t>12:23:06</t>
+  </si>
+  <si>
+    <t>09:54:57</t>
+  </si>
+  <si>
+    <t>1242 Hanover St</t>
+  </si>
+  <si>
+    <t>100 Interstate 75 Nb</t>
+  </si>
+  <si>
+    <t>18040 - 18079 Interstate 24 Eb</t>
+  </si>
+  <si>
+    <t>9628-9639 E Brainerd Rd</t>
+  </si>
+  <si>
+    <t>18500 Interstate 24 Eb</t>
+  </si>
+  <si>
+    <t>18320 INTERSTATE 24 EB</t>
+  </si>
+  <si>
+    <t>865 E 3RD ST</t>
+  </si>
+  <si>
+    <t>Boy Scout Rd / Hampton Wood Cir</t>
+  </si>
+  <si>
+    <t>1100 BOY SCOUT RD</t>
+  </si>
+  <si>
+    <t>6800 Highway 153</t>
+  </si>
+  <si>
+    <t>1200 Mccallie Ave</t>
+  </si>
+  <si>
+    <t>CHATTANOOGA</t>
   </si>
   <si>
     <t>HAMILTON COUNTY</t>
   </si>
   <si>
-    <t>CHATTANOOGA</t>
-  </si>
-  <si>
     <t>EAST RIDGE</t>
   </si>
   <si>
-    <t>RED BANK</t>
+    <t>21</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
   <si>
     <t>18</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>14</t>
+    <t>17</t>
+  </si>
+  <si>
+    <t>15</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
     <t>9</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>5</t>
   </si>
 </sst>
 </file>
@@ -641,7 +656,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA15"/>
+  <dimension ref="A1:BA18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -807,16 +822,16 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
       </c>
       <c r="D2">
-        <v>35.006037</v>
+        <v>35.068586</v>
       </c>
       <c r="E2">
-        <v>-85.12046599999999</v>
+        <v>-85.28988</v>
       </c>
       <c r="F2" t="s">
         <v>55</v>
@@ -825,13 +840,13 @@
         <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Y2">
         <v>1</v>
@@ -839,16 +854,16 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>52</v>
       </c>
       <c r="D3">
-        <v>35.011585</v>
+        <v>35.068586</v>
       </c>
       <c r="E3">
-        <v>-85.225891</v>
+        <v>-85.28988</v>
       </c>
       <c r="F3" t="s">
         <v>55</v>
@@ -857,13 +872,13 @@
         <v>57</v>
       </c>
       <c r="H3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Y3">
         <v>1</v>
@@ -871,16 +886,16 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>52</v>
       </c>
       <c r="D4">
-        <v>35.011585</v>
+        <v>34.996081</v>
       </c>
       <c r="E4">
-        <v>-85.225891</v>
+        <v>-85.206737</v>
       </c>
       <c r="F4" t="s">
         <v>55</v>
@@ -889,13 +904,10 @@
         <v>58</v>
       </c>
       <c r="H4" t="s">
-        <v>70</v>
-      </c>
-      <c r="K4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="P4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Y4">
         <v>1</v>
@@ -903,16 +915,16 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5">
-        <v>34.989184</v>
+        <v>34.996081</v>
       </c>
       <c r="E5">
-        <v>-85.210455</v>
+        <v>-85.206737</v>
       </c>
       <c r="F5" t="s">
         <v>55</v>
@@ -921,13 +933,10 @@
         <v>59</v>
       </c>
       <c r="H5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="P5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Y5">
         <v>1</v>
@@ -935,16 +944,16 @@
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>52</v>
       </c>
       <c r="D6">
-        <v>35.044885</v>
+        <v>35.018623</v>
       </c>
       <c r="E6">
-        <v>-85.162464</v>
+        <v>-85.289703</v>
       </c>
       <c r="F6" t="s">
         <v>55</v>
@@ -953,13 +962,13 @@
         <v>60</v>
       </c>
       <c r="H6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Y6">
         <v>1</v>
@@ -967,16 +976,16 @@
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D7">
-        <v>35.044885</v>
+        <v>35.000845</v>
       </c>
       <c r="E7">
-        <v>-85.162464</v>
+        <v>-85.098401</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -985,13 +994,13 @@
         <v>61</v>
       </c>
       <c r="H7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="Y7">
         <v>1</v>
@@ -999,16 +1008,16 @@
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D8">
-        <v>35.067936</v>
+        <v>35.004334</v>
       </c>
       <c r="E8">
-        <v>-85.21201000000001</v>
+        <v>-85.221655</v>
       </c>
       <c r="F8" t="s">
         <v>55</v>
@@ -1017,13 +1026,13 @@
         <v>62</v>
       </c>
       <c r="H8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="Y8">
         <v>1</v>
@@ -1031,31 +1040,31 @@
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D9">
-        <v>35.067936</v>
+        <v>35.013617</v>
       </c>
       <c r="E9">
-        <v>-85.21201000000001</v>
+        <v>-85.25076799999999</v>
       </c>
       <c r="F9" t="s">
         <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="Y9">
         <v>1</v>
@@ -1063,31 +1072,31 @@
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D10">
-        <v>35.067936</v>
+        <v>35.000845</v>
       </c>
       <c r="E10">
-        <v>-85.21201000000001</v>
+        <v>-85.098401</v>
       </c>
       <c r="F10" t="s">
         <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K10" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Y10">
         <v>1</v>
@@ -1095,31 +1104,31 @@
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
         <v>52</v>
       </c>
       <c r="D11">
-        <v>35.10122</v>
+        <v>35.000845</v>
       </c>
       <c r="E11">
-        <v>-85.301671</v>
+        <v>-85.098401</v>
       </c>
       <c r="F11" t="s">
         <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Y11">
         <v>1</v>
@@ -1127,31 +1136,31 @@
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D12">
-        <v>35.10122</v>
+        <v>34.996081</v>
       </c>
       <c r="E12">
-        <v>-85.301671</v>
+        <v>-85.206737</v>
       </c>
       <c r="F12" t="s">
         <v>55</v>
       </c>
       <c r="G12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K12" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Y12">
         <v>1</v>
@@ -1159,31 +1168,31 @@
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
         <v>52</v>
       </c>
       <c r="D13">
-        <v>35.051299</v>
+        <v>35.050422</v>
       </c>
       <c r="E13">
-        <v>-85.299453</v>
+        <v>-85.294787</v>
       </c>
       <c r="F13" t="s">
         <v>55</v>
       </c>
       <c r="G13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H13" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K13" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P13" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="Y13">
         <v>1</v>
@@ -1191,31 +1200,31 @@
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
+        <v>71</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14">
+        <v>35.174952</v>
+      </c>
+      <c r="E14">
+        <v>-85.222655</v>
+      </c>
+      <c r="F14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" t="s">
         <v>80</v>
       </c>
-      <c r="C14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14">
-        <v>35.051299</v>
-      </c>
-      <c r="E14">
-        <v>-85.299453</v>
-      </c>
-      <c r="F14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" t="s">
-        <v>77</v>
-      </c>
       <c r="K14" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P14" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="Y14">
         <v>1</v>
@@ -1223,33 +1232,129 @@
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
         <v>52</v>
       </c>
       <c r="D15">
-        <v>35.024977</v>
+        <v>35.174952</v>
       </c>
       <c r="E15">
-        <v>-85.152233</v>
+        <v>-85.222655</v>
       </c>
       <c r="F15" t="s">
         <v>55</v>
       </c>
       <c r="G15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H15" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K15" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P15" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="Y15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:53">
+      <c r="A16" s="1">
+        <v>82</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16">
+        <v>35.180857</v>
+      </c>
+      <c r="E16">
+        <v>-85.24705</v>
+      </c>
+      <c r="F16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" t="s">
+        <v>82</v>
+      </c>
+      <c r="K16" t="s">
+        <v>84</v>
+      </c>
+      <c r="P16" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
+      <c r="A17" s="1">
+        <v>85</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17">
+        <v>35.180857</v>
+      </c>
+      <c r="E17">
+        <v>-85.24705</v>
+      </c>
+      <c r="F17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" t="s">
+        <v>82</v>
+      </c>
+      <c r="K17" t="s">
+        <v>84</v>
+      </c>
+      <c r="P17" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="A18" s="1">
+        <v>96</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18">
+        <v>35.039086</v>
+      </c>
+      <c r="E18">
+        <v>-85.284036</v>
+      </c>
+      <c r="F18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" t="s">
+        <v>83</v>
+      </c>
+      <c r="K18" t="s">
+        <v>84</v>
+      </c>
+      <c r="P18" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y18">
         <v>1</v>
       </c>
     </row>

--- a/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="96">
   <si>
     <t>Accident</t>
   </si>
@@ -175,115 +175,112 @@
     <t>Injuries</t>
   </si>
   <si>
+    <t>No Injuries</t>
+  </si>
+  <si>
+    <t>Entrapment</t>
+  </si>
+  <si>
     <t>Unknown Injuries</t>
   </si>
   <si>
-    <t>No Injuries</t>
-  </si>
-  <si>
-    <t>2019-01-23</t>
-  </si>
-  <si>
-    <t>21:46:50</t>
-  </si>
-  <si>
-    <t>21:46:31</t>
-  </si>
-  <si>
-    <t>21:32:54</t>
-  </si>
-  <si>
-    <t>21:31:31</t>
-  </si>
-  <si>
-    <t>20:29:01</t>
-  </si>
-  <si>
-    <t>19:21:20</t>
-  </si>
-  <si>
-    <t>18:53:12</t>
-  </si>
-  <si>
-    <t>18:50:58</t>
-  </si>
-  <si>
-    <t>17:58:24</t>
-  </si>
-  <si>
-    <t>17:56:49</t>
-  </si>
-  <si>
-    <t>17:30:38</t>
-  </si>
-  <si>
-    <t>15:47:33</t>
-  </si>
-  <si>
-    <t>15:21:19</t>
-  </si>
-  <si>
-    <t>15:19:53</t>
-  </si>
-  <si>
-    <t>12:23:53</t>
-  </si>
-  <si>
-    <t>12:23:06</t>
-  </si>
-  <si>
-    <t>09:54:57</t>
-  </si>
-  <si>
-    <t>1242 Hanover St</t>
-  </si>
-  <si>
-    <t>100 Interstate 75 Nb</t>
-  </si>
-  <si>
-    <t>18040 - 18079 Interstate 24 Eb</t>
-  </si>
-  <si>
-    <t>9628-9639 E Brainerd Rd</t>
-  </si>
-  <si>
-    <t>18500 Interstate 24 Eb</t>
-  </si>
-  <si>
-    <t>18320 INTERSTATE 24 EB</t>
-  </si>
-  <si>
-    <t>865 E 3RD ST</t>
-  </si>
-  <si>
-    <t>Boy Scout Rd / Hampton Wood Cir</t>
-  </si>
-  <si>
-    <t>1100 BOY SCOUT RD</t>
-  </si>
-  <si>
-    <t>6800 Highway 153</t>
-  </si>
-  <si>
-    <t>1200 Mccallie Ave</t>
+    <t>2019-01-24</t>
+  </si>
+  <si>
+    <t>22:27:35</t>
+  </si>
+  <si>
+    <t>22:27:24</t>
+  </si>
+  <si>
+    <t>18:41:04</t>
+  </si>
+  <si>
+    <t>18:39:48</t>
+  </si>
+  <si>
+    <t>18:10:25</t>
+  </si>
+  <si>
+    <t>17:05:33</t>
+  </si>
+  <si>
+    <t>16:34:20</t>
+  </si>
+  <si>
+    <t>16:32:42</t>
+  </si>
+  <si>
+    <t>16:28:04</t>
+  </si>
+  <si>
+    <t>14:20:55</t>
+  </si>
+  <si>
+    <t>14:20:35</t>
+  </si>
+  <si>
+    <t>13:33:28</t>
+  </si>
+  <si>
+    <t>13:23:39</t>
+  </si>
+  <si>
+    <t>09:39:13</t>
+  </si>
+  <si>
+    <t>09:37:18</t>
+  </si>
+  <si>
+    <t>08:42:17</t>
+  </si>
+  <si>
+    <t>Bailey Ave / S Lyerly St</t>
+  </si>
+  <si>
+    <t>Clio Ave / E 32nd St</t>
+  </si>
+  <si>
+    <t>1815 MCCALLIE AVE</t>
+  </si>
+  <si>
+    <t>1300 HICKORY VALLEY RD</t>
+  </si>
+  <si>
+    <t>Apison Pike / Ooltewah Ringgold Rd</t>
+  </si>
+  <si>
+    <t>9500 - 9899 Apison Pike</t>
+  </si>
+  <si>
+    <t>2000 - 2007 Wilcox Blvd</t>
+  </si>
+  <si>
+    <t>Apison Pike / Tallant Rd</t>
+  </si>
+  <si>
+    <t>4200 N Access Rd</t>
+  </si>
+  <si>
+    <t>1626 Gunbarrel Rd</t>
+  </si>
+  <si>
+    <t>300 Highway 153 Nb</t>
+  </si>
+  <si>
+    <t>Green Pond Rd / Barbee Rd</t>
   </si>
   <si>
     <t>CHATTANOOGA</t>
   </si>
   <si>
-    <t>HAMILTON COUNTY</t>
-  </si>
-  <si>
-    <t>EAST RIDGE</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>19</t>
+    <t>COLLEGEDALE</t>
+  </si>
+  <si>
+    <t>SODDY DAISY</t>
+  </si>
+  <si>
+    <t>22</t>
   </si>
   <si>
     <t>18</t>
@@ -292,13 +289,19 @@
     <t>17</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>12</t>
+    <t>16</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>13</t>
   </si>
   <si>
     <t>9</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
 </sst>
 </file>
@@ -656,7 +659,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA18"/>
+  <dimension ref="A1:BA20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -822,31 +825,31 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
       </c>
       <c r="D2">
-        <v>35.068586</v>
+        <v>35.031245</v>
       </c>
       <c r="E2">
-        <v>-85.28988</v>
+        <v>-85.27019900000001</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H2" t="s">
         <v>73</v>
       </c>
       <c r="K2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Y2">
         <v>1</v>
@@ -854,31 +857,31 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>52</v>
       </c>
       <c r="D3">
-        <v>35.068586</v>
+        <v>35.031245</v>
       </c>
       <c r="E3">
-        <v>-85.28988</v>
+        <v>-85.27019900000001</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H3" t="s">
         <v>73</v>
       </c>
       <c r="K3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Y3">
         <v>1</v>
@@ -886,28 +889,31 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>52</v>
       </c>
       <c r="D4">
-        <v>34.996081</v>
+        <v>35.007748</v>
       </c>
       <c r="E4">
-        <v>-85.206737</v>
+        <v>-85.292197</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H4" t="s">
         <v>74</v>
       </c>
+      <c r="K4" t="s">
+        <v>85</v>
+      </c>
       <c r="P4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Y4">
         <v>1</v>
@@ -915,28 +921,31 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>52</v>
       </c>
       <c r="D5">
-        <v>34.996081</v>
+        <v>35.007748</v>
       </c>
       <c r="E5">
-        <v>-85.206737</v>
+        <v>-85.292197</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H5" t="s">
         <v>74</v>
       </c>
+      <c r="K5" t="s">
+        <v>85</v>
+      </c>
       <c r="P5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Y5">
         <v>1</v>
@@ -944,31 +953,31 @@
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>52</v>
       </c>
       <c r="D6">
-        <v>35.018623</v>
+        <v>35.036263</v>
       </c>
       <c r="E6">
-        <v>-85.289703</v>
+        <v>-85.274643</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H6" t="s">
         <v>75</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Y6">
         <v>1</v>
@@ -976,22 +985,22 @@
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D7">
-        <v>35.000845</v>
+        <v>35.016889</v>
       </c>
       <c r="E7">
-        <v>-85.098401</v>
+        <v>-85.181912</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H7" t="s">
         <v>76</v>
@@ -1000,7 +1009,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Y7">
         <v>1</v>
@@ -1008,31 +1017,31 @@
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8">
-        <v>35.004334</v>
+        <v>35.059606</v>
       </c>
       <c r="E8">
-        <v>-85.221655</v>
+        <v>-85.0667</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H8" t="s">
         <v>77</v>
       </c>
       <c r="K8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Y8">
         <v>1</v>
@@ -1040,31 +1049,31 @@
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9">
-        <v>35.013617</v>
+        <v>35.059606</v>
       </c>
       <c r="E9">
-        <v>-85.25076799999999</v>
+        <v>-85.0667</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H9" t="s">
         <v>78</v>
       </c>
       <c r="K9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Y9">
         <v>1</v>
@@ -1072,28 +1081,28 @@
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D10">
-        <v>35.000845</v>
+        <v>35.059606</v>
       </c>
       <c r="E10">
-        <v>-85.098401</v>
+        <v>-85.0667</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G10" t="s">
         <v>64</v>
       </c>
       <c r="H10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P10" t="s">
         <v>91</v>
@@ -1104,25 +1113,25 @@
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D11">
-        <v>35.000845</v>
+        <v>35.0535</v>
       </c>
       <c r="E11">
-        <v>-85.098401</v>
+        <v>-85.263158</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G11" t="s">
         <v>65</v>
       </c>
       <c r="H11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K11" t="s">
         <v>85</v>
@@ -1136,31 +1145,31 @@
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12">
-        <v>34.996081</v>
+        <v>35.053036</v>
       </c>
       <c r="E12">
-        <v>-85.206737</v>
+        <v>-85.045553</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G12" t="s">
         <v>66</v>
       </c>
       <c r="H12" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K12" t="s">
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Y12">
         <v>1</v>
@@ -1168,28 +1177,28 @@
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
         <v>52</v>
       </c>
       <c r="D13">
-        <v>35.050422</v>
+        <v>35.053036</v>
       </c>
       <c r="E13">
-        <v>-85.294787</v>
+        <v>-85.045553</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P13" t="s">
         <v>92</v>
@@ -1200,28 +1209,28 @@
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
         <v>52</v>
       </c>
       <c r="D14">
-        <v>35.174952</v>
+        <v>35.053036</v>
       </c>
       <c r="E14">
-        <v>-85.222655</v>
+        <v>-85.045553</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H14" t="s">
         <v>80</v>
       </c>
       <c r="K14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P14" t="s">
         <v>92</v>
@@ -1232,22 +1241,22 @@
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
         <v>52</v>
       </c>
       <c r="D15">
-        <v>35.174952</v>
+        <v>35.112749</v>
       </c>
       <c r="E15">
-        <v>-85.222655</v>
+        <v>-85.25449999999999</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H15" t="s">
         <v>81</v>
@@ -1256,7 +1265,7 @@
         <v>85</v>
       </c>
       <c r="P15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y15">
         <v>1</v>
@@ -1264,28 +1273,28 @@
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="1">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D16">
-        <v>35.180857</v>
+        <v>35.020591</v>
       </c>
       <c r="E16">
-        <v>-85.24705</v>
+        <v>-85.16039600000001</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
       </c>
       <c r="K16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P16" t="s">
         <v>93</v>
@@ -1296,31 +1305,31 @@
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="1">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
         <v>52</v>
       </c>
       <c r="D17">
-        <v>35.180857</v>
+        <v>35.06164</v>
       </c>
       <c r="E17">
-        <v>-85.24705</v>
+        <v>-85.193575</v>
       </c>
       <c r="F17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Y17">
         <v>1</v>
@@ -1328,33 +1337,97 @@
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="1">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
         <v>52</v>
       </c>
       <c r="D18">
-        <v>35.039086</v>
+        <v>35.06164</v>
       </c>
       <c r="E18">
-        <v>-85.284036</v>
+        <v>-85.193575</v>
       </c>
       <c r="F18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H18" t="s">
         <v>83</v>
       </c>
       <c r="K18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P18" t="s">
         <v>94</v>
       </c>
       <c r="Y18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="A19" s="1">
+        <v>67</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19">
+        <v>35.239152</v>
+      </c>
+      <c r="E19">
+        <v>-85.157578</v>
+      </c>
+      <c r="F19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19" t="s">
+        <v>84</v>
+      </c>
+      <c r="K19" t="s">
+        <v>87</v>
+      </c>
+      <c r="P19" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="A20" s="1">
+        <v>67</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20">
+        <v>35.239152</v>
+      </c>
+      <c r="E20">
+        <v>-85.157578</v>
+      </c>
+      <c r="F20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" t="s">
+        <v>84</v>
+      </c>
+      <c r="K20" t="s">
+        <v>87</v>
+      </c>
+      <c r="P20" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y20">
         <v>1</v>
       </c>
     </row>

--- a/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
   <si>
     <t>Accident</t>
   </si>
@@ -175,130 +175,28 @@
     <t>Injuries</t>
   </si>
   <si>
-    <t>No Injuries</t>
-  </si>
-  <si>
-    <t>Entrapment</t>
-  </si>
-  <si>
-    <t>Unknown Injuries</t>
-  </si>
-  <si>
-    <t>2019-01-24</t>
-  </si>
-  <si>
-    <t>22:27:35</t>
-  </si>
-  <si>
-    <t>22:27:24</t>
-  </si>
-  <si>
-    <t>18:41:04</t>
-  </si>
-  <si>
-    <t>18:39:48</t>
-  </si>
-  <si>
-    <t>18:10:25</t>
-  </si>
-  <si>
-    <t>17:05:33</t>
-  </si>
-  <si>
-    <t>16:34:20</t>
-  </si>
-  <si>
-    <t>16:32:42</t>
-  </si>
-  <si>
-    <t>16:28:04</t>
-  </si>
-  <si>
-    <t>14:20:55</t>
-  </si>
-  <si>
-    <t>14:20:35</t>
-  </si>
-  <si>
-    <t>13:33:28</t>
-  </si>
-  <si>
-    <t>13:23:39</t>
-  </si>
-  <si>
-    <t>09:39:13</t>
-  </si>
-  <si>
-    <t>09:37:18</t>
-  </si>
-  <si>
-    <t>08:42:17</t>
-  </si>
-  <si>
-    <t>Bailey Ave / S Lyerly St</t>
-  </si>
-  <si>
-    <t>Clio Ave / E 32nd St</t>
-  </si>
-  <si>
-    <t>1815 MCCALLIE AVE</t>
-  </si>
-  <si>
-    <t>1300 HICKORY VALLEY RD</t>
-  </si>
-  <si>
-    <t>Apison Pike / Ooltewah Ringgold Rd</t>
-  </si>
-  <si>
-    <t>9500 - 9899 Apison Pike</t>
-  </si>
-  <si>
-    <t>2000 - 2007 Wilcox Blvd</t>
-  </si>
-  <si>
-    <t>Apison Pike / Tallant Rd</t>
-  </si>
-  <si>
-    <t>4200 N Access Rd</t>
-  </si>
-  <si>
-    <t>1626 Gunbarrel Rd</t>
-  </si>
-  <si>
-    <t>300 Highway 153 Nb</t>
-  </si>
-  <si>
-    <t>Green Pond Rd / Barbee Rd</t>
+    <t>2019-01-27</t>
+  </si>
+  <si>
+    <t>13:42:37</t>
+  </si>
+  <si>
+    <t>08:52:52</t>
+  </si>
+  <si>
+    <t>4850 Highway 58</t>
+  </si>
+  <si>
+    <t>Pythian Rd / Holder Rd</t>
   </si>
   <si>
     <t>CHATTANOOGA</t>
   </si>
   <si>
-    <t>COLLEGEDALE</t>
-  </si>
-  <si>
-    <t>SODDY DAISY</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>14</t>
+    <t>HAMILTON COUNTY</t>
   </si>
   <si>
     <t>13</t>
-  </si>
-  <si>
-    <t>9</t>
   </si>
   <si>
     <t>8</t>
@@ -659,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA20"/>
+  <dimension ref="A1:BA3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -825,31 +723,31 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
       </c>
       <c r="D2">
-        <v>35.031245</v>
+        <v>35.091467</v>
       </c>
       <c r="E2">
-        <v>-85.27019900000001</v>
+        <v>-85.18129399999999</v>
       </c>
       <c r="F2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" t="s">
         <v>56</v>
       </c>
-      <c r="G2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" t="s">
-        <v>73</v>
-      </c>
       <c r="K2" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="P2" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="Y2">
         <v>1</v>
@@ -857,577 +755,33 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
         <v>52</v>
       </c>
       <c r="D3">
-        <v>35.031245</v>
+        <v>35.118046</v>
       </c>
       <c r="E3">
-        <v>-85.27019900000001</v>
+        <v>-85.13293899999999</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H3" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="P3" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="Y3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:53">
-      <c r="A4" s="1">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4">
-        <v>35.007748</v>
-      </c>
-      <c r="E4">
-        <v>-85.292197</v>
-      </c>
-      <c r="F4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" t="s">
-        <v>74</v>
-      </c>
-      <c r="K4" t="s">
-        <v>85</v>
-      </c>
-      <c r="P4" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:53">
-      <c r="A5" s="1">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5">
-        <v>35.007748</v>
-      </c>
-      <c r="E5">
-        <v>-85.292197</v>
-      </c>
-      <c r="F5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H5" t="s">
-        <v>74</v>
-      </c>
-      <c r="K5" t="s">
-        <v>85</v>
-      </c>
-      <c r="P5" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:53">
-      <c r="A6" s="1">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6">
-        <v>35.036263</v>
-      </c>
-      <c r="E6">
-        <v>-85.274643</v>
-      </c>
-      <c r="F6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" t="s">
-        <v>75</v>
-      </c>
-      <c r="K6" t="s">
-        <v>85</v>
-      </c>
-      <c r="P6" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:53">
-      <c r="A7" s="1">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7">
-        <v>35.016889</v>
-      </c>
-      <c r="E7">
-        <v>-85.181912</v>
-      </c>
-      <c r="F7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" t="s">
-        <v>76</v>
-      </c>
-      <c r="K7" t="s">
-        <v>85</v>
-      </c>
-      <c r="P7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:53">
-      <c r="A8" s="1">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8">
-        <v>35.059606</v>
-      </c>
-      <c r="E8">
-        <v>-85.0667</v>
-      </c>
-      <c r="F8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" t="s">
-        <v>77</v>
-      </c>
-      <c r="K8" t="s">
-        <v>86</v>
-      </c>
-      <c r="P8" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:53">
-      <c r="A9" s="1">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9">
-        <v>35.059606</v>
-      </c>
-      <c r="E9">
-        <v>-85.0667</v>
-      </c>
-      <c r="F9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" t="s">
-        <v>78</v>
-      </c>
-      <c r="K9" t="s">
-        <v>86</v>
-      </c>
-      <c r="P9" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:53">
-      <c r="A10" s="1">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10">
-        <v>35.059606</v>
-      </c>
-      <c r="E10">
-        <v>-85.0667</v>
-      </c>
-      <c r="F10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" t="s">
-        <v>78</v>
-      </c>
-      <c r="K10" t="s">
-        <v>86</v>
-      </c>
-      <c r="P10" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:53">
-      <c r="A11" s="1">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11">
-        <v>35.0535</v>
-      </c>
-      <c r="E11">
-        <v>-85.263158</v>
-      </c>
-      <c r="F11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" t="s">
-        <v>79</v>
-      </c>
-      <c r="K11" t="s">
-        <v>85</v>
-      </c>
-      <c r="P11" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:53">
-      <c r="A12" s="1">
-        <v>45</v>
-      </c>
-      <c r="C12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12">
-        <v>35.053036</v>
-      </c>
-      <c r="E12">
-        <v>-85.045553</v>
-      </c>
-      <c r="F12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" t="s">
-        <v>80</v>
-      </c>
-      <c r="K12" t="s">
-        <v>86</v>
-      </c>
-      <c r="P12" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:53">
-      <c r="A13" s="1">
-        <v>46</v>
-      </c>
-      <c r="C13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13">
-        <v>35.053036</v>
-      </c>
-      <c r="E13">
-        <v>-85.045553</v>
-      </c>
-      <c r="F13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" t="s">
-        <v>80</v>
-      </c>
-      <c r="K13" t="s">
-        <v>86</v>
-      </c>
-      <c r="P13" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:53">
-      <c r="A14" s="1">
-        <v>47</v>
-      </c>
-      <c r="C14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14">
-        <v>35.053036</v>
-      </c>
-      <c r="E14">
-        <v>-85.045553</v>
-      </c>
-      <c r="F14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" t="s">
-        <v>80</v>
-      </c>
-      <c r="K14" t="s">
-        <v>86</v>
-      </c>
-      <c r="P14" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:53">
-      <c r="A15" s="1">
-        <v>53</v>
-      </c>
-      <c r="C15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15">
-        <v>35.112749</v>
-      </c>
-      <c r="E15">
-        <v>-85.25449999999999</v>
-      </c>
-      <c r="F15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" t="s">
-        <v>68</v>
-      </c>
-      <c r="H15" t="s">
-        <v>81</v>
-      </c>
-      <c r="K15" t="s">
-        <v>85</v>
-      </c>
-      <c r="P15" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:53">
-      <c r="A16" s="1">
-        <v>56</v>
-      </c>
-      <c r="C16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16">
-        <v>35.020591</v>
-      </c>
-      <c r="E16">
-        <v>-85.16039600000001</v>
-      </c>
-      <c r="F16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" t="s">
-        <v>69</v>
-      </c>
-      <c r="H16" t="s">
-        <v>82</v>
-      </c>
-      <c r="K16" t="s">
-        <v>85</v>
-      </c>
-      <c r="P16" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25">
-      <c r="A17" s="1">
-        <v>63</v>
-      </c>
-      <c r="C17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17">
-        <v>35.06164</v>
-      </c>
-      <c r="E17">
-        <v>-85.193575</v>
-      </c>
-      <c r="F17" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" t="s">
-        <v>70</v>
-      </c>
-      <c r="H17" t="s">
-        <v>83</v>
-      </c>
-      <c r="K17" t="s">
-        <v>85</v>
-      </c>
-      <c r="P17" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25">
-      <c r="A18" s="1">
-        <v>64</v>
-      </c>
-      <c r="C18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18">
-        <v>35.06164</v>
-      </c>
-      <c r="E18">
-        <v>-85.193575</v>
-      </c>
-      <c r="F18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18" t="s">
-        <v>71</v>
-      </c>
-      <c r="H18" t="s">
-        <v>83</v>
-      </c>
-      <c r="K18" t="s">
-        <v>85</v>
-      </c>
-      <c r="P18" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25">
-      <c r="A19" s="1">
-        <v>67</v>
-      </c>
-      <c r="C19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19">
-        <v>35.239152</v>
-      </c>
-      <c r="E19">
-        <v>-85.157578</v>
-      </c>
-      <c r="F19" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" t="s">
-        <v>72</v>
-      </c>
-      <c r="H19" t="s">
-        <v>84</v>
-      </c>
-      <c r="K19" t="s">
-        <v>87</v>
-      </c>
-      <c r="P19" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25">
-      <c r="A20" s="1">
-        <v>67</v>
-      </c>
-      <c r="C20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20">
-        <v>35.239152</v>
-      </c>
-      <c r="E20">
-        <v>-85.157578</v>
-      </c>
-      <c r="F20" t="s">
-        <v>56</v>
-      </c>
-      <c r="G20" t="s">
-        <v>72</v>
-      </c>
-      <c r="H20" t="s">
-        <v>84</v>
-      </c>
-      <c r="K20" t="s">
-        <v>87</v>
-      </c>
-      <c r="P20" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y20">
         <v>1</v>
       </c>
     </row>

--- a/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="87">
   <si>
     <t>Accident</t>
   </si>
@@ -172,34 +172,109 @@
     <t>Pavement_Type</t>
   </si>
   <si>
+    <t>Entrapment</t>
+  </si>
+  <si>
     <t>Injuries</t>
   </si>
   <si>
-    <t>2019-01-27</t>
-  </si>
-  <si>
-    <t>13:42:37</t>
-  </si>
-  <si>
-    <t>08:52:52</t>
-  </si>
-  <si>
-    <t>4850 Highway 58</t>
-  </si>
-  <si>
-    <t>Pythian Rd / Holder Rd</t>
+    <t>No Injuries</t>
+  </si>
+  <si>
+    <t>Unknown Injuries</t>
+  </si>
+  <si>
+    <t>2019-01-30</t>
+  </si>
+  <si>
+    <t>15:25:39</t>
+  </si>
+  <si>
+    <t>15:25:03</t>
+  </si>
+  <si>
+    <t>14:44:19</t>
+  </si>
+  <si>
+    <t>14:00:31</t>
+  </si>
+  <si>
+    <t>14:00:13</t>
+  </si>
+  <si>
+    <t>13:59:09</t>
+  </si>
+  <si>
+    <t>10:27:07</t>
+  </si>
+  <si>
+    <t>08:49:49</t>
+  </si>
+  <si>
+    <t>08:20:42</t>
+  </si>
+  <si>
+    <t>08:19:52</t>
+  </si>
+  <si>
+    <t>07:53:54</t>
+  </si>
+  <si>
+    <t>03:25:08</t>
+  </si>
+  <si>
+    <t>400 S Moore Rd</t>
+  </si>
+  <si>
+    <t>5700 - 6099 Cornelison Rd</t>
+  </si>
+  <si>
+    <t>S Holtzclaw Ave / E Main St</t>
+  </si>
+  <si>
+    <t>1500 S Holtzclaw Ave</t>
+  </si>
+  <si>
+    <t>1650 - 1699 Dodson Ave</t>
+  </si>
+  <si>
+    <t>200 INTERSTATE 75 SB</t>
+  </si>
+  <si>
+    <t>1700-1711 E 28th St</t>
+  </si>
+  <si>
+    <t>Shallowford Rd / Jersey Pike</t>
+  </si>
+  <si>
+    <t>17280 INTERSTATE 24 EB</t>
+  </si>
+  <si>
+    <t>EAST RIDGE</t>
   </si>
   <si>
     <t>CHATTANOOGA</t>
   </si>
   <si>
-    <t>HAMILTON COUNTY</t>
+    <t>15</t>
+  </si>
+  <si>
+    <t>14</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>8</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -557,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA3"/>
+  <dimension ref="A1:BA13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -723,31 +798,31 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
       </c>
       <c r="D2">
-        <v>35.091467</v>
+        <v>35.005877</v>
       </c>
       <c r="E2">
-        <v>-85.18129399999999</v>
+        <v>-85.231722</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="K2" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="P2" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="Y2">
         <v>1</v>
@@ -755,33 +830,353 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
         <v>52</v>
       </c>
       <c r="D3">
-        <v>35.118046</v>
+        <v>35.005877</v>
       </c>
       <c r="E3">
-        <v>-85.13293899999999</v>
+        <v>-85.231722</v>
       </c>
       <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" t="s">
+        <v>78</v>
+      </c>
+      <c r="P3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53">
+      <c r="A4" s="1">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
         <v>53</v>
       </c>
-      <c r="G3" t="s">
+      <c r="D4">
+        <v>35.006837</v>
+      </c>
+      <c r="E4">
+        <v>-85.207131</v>
+      </c>
+      <c r="F4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" t="s">
+        <v>79</v>
+      </c>
+      <c r="P4" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53">
+      <c r="A5" s="1">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5">
+        <v>35.028961</v>
+      </c>
+      <c r="E5">
+        <v>-85.288147</v>
+      </c>
+      <c r="F5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
+      </c>
+      <c r="P5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53">
+      <c r="A6" s="1">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6">
+        <v>35.028961</v>
+      </c>
+      <c r="E6">
+        <v>-85.288147</v>
+      </c>
+      <c r="F6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53">
+      <c r="A7" s="1">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7">
+        <v>35.028961</v>
+      </c>
+      <c r="E7">
+        <v>-85.288147</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:53">
+      <c r="A8" s="1">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8">
+        <v>35.055386</v>
+      </c>
+      <c r="E8">
+        <v>-85.25930700000001</v>
+      </c>
+      <c r="F8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" t="s">
+        <v>79</v>
+      </c>
+      <c r="P8" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53">
+      <c r="A9" s="1">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
         <v>55</v>
       </c>
-      <c r="H3" t="s">
-        <v>57</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="D9">
+        <v>35.008246</v>
+      </c>
+      <c r="E9">
+        <v>-85.20027399999999</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" t="s">
+        <v>79</v>
+      </c>
+      <c r="P9" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:53">
+      <c r="A10" s="1">
         <v>61</v>
       </c>
-      <c r="Y3">
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10">
+        <v>35.013865</v>
+      </c>
+      <c r="E10">
+        <v>-85.29010100000001</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" t="s">
+        <v>79</v>
+      </c>
+      <c r="P10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:53">
+      <c r="A11" s="1">
+        <v>62</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11">
+        <v>35.013865</v>
+      </c>
+      <c r="E11">
+        <v>-85.29010100000001</v>
+      </c>
+      <c r="F11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" t="s">
+        <v>79</v>
+      </c>
+      <c r="P11" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:53">
+      <c r="A12" s="1">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12">
+        <v>35.055348</v>
+      </c>
+      <c r="E12">
+        <v>-85.20016099999999</v>
+      </c>
+      <c r="F12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" t="s">
+        <v>79</v>
+      </c>
+      <c r="P12" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:53">
+      <c r="A13" s="1">
+        <v>72</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13">
+        <v>35.006105</v>
+      </c>
+      <c r="E13">
+        <v>-85.39532699999999</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" t="s">
+        <v>77</v>
+      </c>
+      <c r="K13" t="s">
+        <v>79</v>
+      </c>
+      <c r="P13" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y13">
         <v>1</v>
       </c>
     </row>

--- a/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="87">
   <si>
     <t>Accident</t>
   </si>
@@ -172,109 +172,109 @@
     <t>Pavement_Type</t>
   </si>
   <si>
-    <t>Entrapment</t>
-  </si>
-  <si>
     <t>Injuries</t>
   </si>
   <si>
     <t>No Injuries</t>
   </si>
   <si>
-    <t>Unknown Injuries</t>
-  </si>
-  <si>
-    <t>2019-01-30</t>
-  </si>
-  <si>
-    <t>15:25:39</t>
-  </si>
-  <si>
-    <t>15:25:03</t>
-  </si>
-  <si>
-    <t>14:44:19</t>
-  </si>
-  <si>
-    <t>14:00:31</t>
-  </si>
-  <si>
-    <t>14:00:13</t>
-  </si>
-  <si>
-    <t>13:59:09</t>
-  </si>
-  <si>
-    <t>10:27:07</t>
-  </si>
-  <si>
-    <t>08:49:49</t>
-  </si>
-  <si>
-    <t>08:20:42</t>
-  </si>
-  <si>
-    <t>08:19:52</t>
-  </si>
-  <si>
-    <t>07:53:54</t>
-  </si>
-  <si>
-    <t>03:25:08</t>
-  </si>
-  <si>
-    <t>400 S Moore Rd</t>
-  </si>
-  <si>
-    <t>5700 - 6099 Cornelison Rd</t>
-  </si>
-  <si>
-    <t>S Holtzclaw Ave / E Main St</t>
-  </si>
-  <si>
-    <t>1500 S Holtzclaw Ave</t>
-  </si>
-  <si>
-    <t>1650 - 1699 Dodson Ave</t>
-  </si>
-  <si>
-    <t>200 INTERSTATE 75 SB</t>
-  </si>
-  <si>
-    <t>1700-1711 E 28th St</t>
-  </si>
-  <si>
-    <t>Shallowford Rd / Jersey Pike</t>
-  </si>
-  <si>
-    <t>17280 INTERSTATE 24 EB</t>
-  </si>
-  <si>
-    <t>EAST RIDGE</t>
+    <t>2019-01-31</t>
+  </si>
+  <si>
+    <t>20:12:39</t>
+  </si>
+  <si>
+    <t>18:07:09</t>
+  </si>
+  <si>
+    <t>18:02:09</t>
+  </si>
+  <si>
+    <t>17:22:11</t>
+  </si>
+  <si>
+    <t>17:20:19</t>
+  </si>
+  <si>
+    <t>17:19:01</t>
+  </si>
+  <si>
+    <t>16:37:56</t>
+  </si>
+  <si>
+    <t>16:37:24</t>
+  </si>
+  <si>
+    <t>14:40:35</t>
+  </si>
+  <si>
+    <t>14:37:53</t>
+  </si>
+  <si>
+    <t>10:55:16</t>
+  </si>
+  <si>
+    <t>10:54:18</t>
+  </si>
+  <si>
+    <t>10:54:14</t>
+  </si>
+  <si>
+    <t>10408 Dayton Pike</t>
+  </si>
+  <si>
+    <t>E Brainerd Rd / Bill Jones Rd</t>
+  </si>
+  <si>
+    <t>3800 Dayton Blvd</t>
+  </si>
+  <si>
+    <t>Bill Jones Rd / E Brainerd Rd</t>
+  </si>
+  <si>
+    <t>5958 Snow Hill Rd</t>
+  </si>
+  <si>
+    <t>2801 E 48th St</t>
+  </si>
+  <si>
+    <t>1740-1858 HIGHWAY 27 SB</t>
+  </si>
+  <si>
+    <t>Lee Hwy / Hunter Rd</t>
+  </si>
+  <si>
+    <t>Mountain View Rd / Hunter Rd</t>
+  </si>
+  <si>
+    <t>SODDY DAISY</t>
+  </si>
+  <si>
+    <t>HAMILTON COUNTY</t>
+  </si>
+  <si>
+    <t>RED BANK</t>
   </si>
   <si>
     <t>CHATTANOOGA</t>
   </si>
   <si>
-    <t>15</t>
+    <t>20</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>16</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>10</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
 </sst>
 </file>
@@ -632,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA13"/>
+  <dimension ref="A1:BA15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -798,31 +798,31 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
       </c>
       <c r="D2">
-        <v>35.005877</v>
+        <v>35.259171</v>
       </c>
       <c r="E2">
-        <v>-85.231722</v>
+        <v>-85.176079</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y2">
         <v>1</v>
@@ -830,22 +830,22 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>52</v>
       </c>
       <c r="D3">
-        <v>35.005877</v>
+        <v>35.016102</v>
       </c>
       <c r="E3">
-        <v>-85.231722</v>
+        <v>-85.02770200000001</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
         <v>56</v>
-      </c>
-      <c r="G3" t="s">
-        <v>58</v>
       </c>
       <c r="H3" t="s">
         <v>69</v>
@@ -854,7 +854,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y3">
         <v>1</v>
@@ -862,22 +862,22 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4">
-        <v>35.006837</v>
+        <v>35.117263</v>
       </c>
       <c r="E4">
-        <v>-85.207131</v>
+        <v>-85.28999399999999</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H4" t="s">
         <v>70</v>
@@ -886,7 +886,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y4">
         <v>1</v>
@@ -894,31 +894,31 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
         <v>53</v>
       </c>
       <c r="D5">
-        <v>35.028961</v>
+        <v>35.016102</v>
       </c>
       <c r="E5">
-        <v>-85.288147</v>
+        <v>-85.02770200000001</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H5" t="s">
         <v>71</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Y5">
         <v>1</v>
@@ -926,31 +926,31 @@
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6">
-        <v>35.028961</v>
+        <v>35.090553</v>
       </c>
       <c r="E6">
-        <v>-85.288147</v>
+        <v>-85.06431600000001</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Y6">
         <v>1</v>
@@ -958,31 +958,31 @@
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D7">
-        <v>35.028961</v>
+        <v>35.090553</v>
       </c>
       <c r="E7">
-        <v>-85.288147</v>
+        <v>-85.06431600000001</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H7" t="s">
         <v>72</v>
       </c>
       <c r="K7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y7">
         <v>1</v>
@@ -990,28 +990,28 @@
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
         <v>52</v>
       </c>
-      <c r="C8" t="s">
-        <v>53</v>
-      </c>
       <c r="D8">
-        <v>35.055386</v>
+        <v>35.090553</v>
       </c>
       <c r="E8">
-        <v>-85.25930700000001</v>
+        <v>-85.06431600000001</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P8" t="s">
         <v>83</v>
@@ -1022,28 +1022,28 @@
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D9">
-        <v>35.008246</v>
+        <v>34.987878</v>
       </c>
       <c r="E9">
-        <v>-85.20027399999999</v>
+        <v>-85.287548</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P9" t="s">
         <v>84</v>
@@ -1054,28 +1054,28 @@
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10">
-        <v>35.013865</v>
+        <v>34.987878</v>
       </c>
       <c r="E10">
-        <v>-85.29010100000001</v>
+        <v>-85.287548</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P10" t="s">
         <v>84</v>
@@ -1086,31 +1086,31 @@
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11">
-        <v>35.013865</v>
+        <v>35.24342</v>
       </c>
       <c r="E11">
-        <v>-85.29010100000001</v>
+        <v>-85.18262</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="P11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Y11">
         <v>1</v>
@@ -1118,28 +1118,28 @@
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12">
-        <v>35.055348</v>
+        <v>35.24342</v>
       </c>
       <c r="E12">
-        <v>-85.20016099999999</v>
+        <v>-85.18262</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="P12" t="s">
         <v>85</v>
@@ -1150,33 +1150,97 @@
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13">
-        <v>35.006105</v>
+        <v>35.087713</v>
       </c>
       <c r="E13">
-        <v>-85.39532699999999</v>
+        <v>-85.071062</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P13" t="s">
         <v>86</v>
       </c>
       <c r="Y13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:53">
+      <c r="A14" s="1">
+        <v>67</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14">
+        <v>35.087713</v>
+      </c>
+      <c r="E14">
+        <v>-85.071062</v>
+      </c>
+      <c r="F14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" t="s">
+        <v>80</v>
+      </c>
+      <c r="P14" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:53">
+      <c r="A15" s="1">
+        <v>68</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15">
+        <v>35.087713</v>
+      </c>
+      <c r="E15">
+        <v>-85.071062</v>
+      </c>
+      <c r="F15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" t="s">
+        <v>76</v>
+      </c>
+      <c r="K15" t="s">
+        <v>78</v>
+      </c>
+      <c r="P15" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y15">
         <v>1</v>
       </c>
     </row>

--- a/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="67">
   <si>
     <t>Accident</t>
   </si>
@@ -178,103 +178,43 @@
     <t>No Injuries</t>
   </si>
   <si>
-    <t>2019-01-31</t>
-  </si>
-  <si>
-    <t>20:12:39</t>
-  </si>
-  <si>
-    <t>18:07:09</t>
-  </si>
-  <si>
-    <t>18:02:09</t>
-  </si>
-  <si>
-    <t>17:22:11</t>
-  </si>
-  <si>
-    <t>17:20:19</t>
-  </si>
-  <si>
-    <t>17:19:01</t>
-  </si>
-  <si>
-    <t>16:37:56</t>
-  </si>
-  <si>
-    <t>16:37:24</t>
-  </si>
-  <si>
-    <t>14:40:35</t>
-  </si>
-  <si>
-    <t>14:37:53</t>
-  </si>
-  <si>
-    <t>10:55:16</t>
-  </si>
-  <si>
-    <t>10:54:18</t>
-  </si>
-  <si>
-    <t>10:54:14</t>
-  </si>
-  <si>
-    <t>10408 Dayton Pike</t>
-  </si>
-  <si>
-    <t>E Brainerd Rd / Bill Jones Rd</t>
-  </si>
-  <si>
-    <t>3800 Dayton Blvd</t>
-  </si>
-  <si>
-    <t>Bill Jones Rd / E Brainerd Rd</t>
-  </si>
-  <si>
-    <t>5958 Snow Hill Rd</t>
-  </si>
-  <si>
-    <t>2801 E 48th St</t>
-  </si>
-  <si>
-    <t>1740-1858 HIGHWAY 27 SB</t>
-  </si>
-  <si>
-    <t>Lee Hwy / Hunter Rd</t>
-  </si>
-  <si>
-    <t>Mountain View Rd / Hunter Rd</t>
-  </si>
-  <si>
-    <t>SODDY DAISY</t>
-  </si>
-  <si>
-    <t>HAMILTON COUNTY</t>
-  </si>
-  <si>
-    <t>RED BANK</t>
+    <t>2019-02-03</t>
+  </si>
+  <si>
+    <t>18:33:07</t>
+  </si>
+  <si>
+    <t>12:47:48</t>
+  </si>
+  <si>
+    <t>11:27:39</t>
+  </si>
+  <si>
+    <t>11:27:20</t>
+  </si>
+  <si>
+    <t>11:25:47</t>
+  </si>
+  <si>
+    <t>Old Mission Rd / N Moore Rd</t>
+  </si>
+  <si>
+    <t>5188 HIGHWAY 153</t>
+  </si>
+  <si>
+    <t>4355 Highway 58</t>
   </si>
   <si>
     <t>CHATTANOOGA</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>18</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>10</t>
+    <t>12</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
 </sst>
 </file>
@@ -632,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA15"/>
+  <dimension ref="A1:BA6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -798,16 +738,16 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
       </c>
       <c r="D2">
-        <v>35.259171</v>
+        <v>35.016665</v>
       </c>
       <c r="E2">
-        <v>-85.176079</v>
+        <v>-85.22623</v>
       </c>
       <c r="F2" t="s">
         <v>54</v>
@@ -816,30 +756,30 @@
         <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="K2" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="P2" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="Y2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
         <v>52</v>
       </c>
       <c r="D3">
-        <v>35.016102</v>
+        <v>35.123547</v>
       </c>
       <c r="E3">
-        <v>-85.02770200000001</v>
+        <v>-85.239192</v>
       </c>
       <c r="F3" t="s">
         <v>54</v>
@@ -848,30 +788,30 @@
         <v>56</v>
       </c>
       <c r="H3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="P3" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
         <v>52</v>
       </c>
       <c r="D4">
-        <v>35.117263</v>
+        <v>35.084696</v>
       </c>
       <c r="E4">
-        <v>-85.28999399999999</v>
+        <v>-85.203333</v>
       </c>
       <c r="F4" t="s">
         <v>54</v>
@@ -880,30 +820,30 @@
         <v>57</v>
       </c>
       <c r="H4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="K4" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="P4" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5">
-        <v>35.016102</v>
+        <v>35.084696</v>
       </c>
       <c r="E5">
-        <v>-85.02770200000001</v>
+        <v>-85.203333</v>
       </c>
       <c r="F5" t="s">
         <v>54</v>
@@ -912,30 +852,30 @@
         <v>58</v>
       </c>
       <c r="H5" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="P5" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="Y5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D6">
-        <v>35.090553</v>
+        <v>35.084696</v>
       </c>
       <c r="E6">
-        <v>-85.06431600000001</v>
+        <v>-85.203333</v>
       </c>
       <c r="F6" t="s">
         <v>54</v>
@@ -944,304 +884,16 @@
         <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="P6" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="Y6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:53">
-      <c r="A7" s="1">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7">
-        <v>35.090553</v>
-      </c>
-      <c r="E7">
-        <v>-85.06431600000001</v>
-      </c>
-      <c r="F7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" t="s">
-        <v>72</v>
-      </c>
-      <c r="K7" t="s">
-        <v>80</v>
-      </c>
-      <c r="P7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:53">
-      <c r="A8" s="1">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8">
-        <v>35.090553</v>
-      </c>
-      <c r="E8">
-        <v>-85.06431600000001</v>
-      </c>
-      <c r="F8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" t="s">
-        <v>60</v>
-      </c>
-      <c r="H8" t="s">
-        <v>72</v>
-      </c>
-      <c r="K8" t="s">
-        <v>80</v>
-      </c>
-      <c r="P8" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:53">
-      <c r="A9" s="1">
-        <v>36</v>
-      </c>
-      <c r="C9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9">
-        <v>34.987878</v>
-      </c>
-      <c r="E9">
-        <v>-85.287548</v>
-      </c>
-      <c r="F9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" t="s">
-        <v>73</v>
-      </c>
-      <c r="K9" t="s">
-        <v>80</v>
-      </c>
-      <c r="P9" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:53">
-      <c r="A10" s="1">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10">
-        <v>34.987878</v>
-      </c>
-      <c r="E10">
-        <v>-85.287548</v>
-      </c>
-      <c r="F10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" t="s">
-        <v>73</v>
-      </c>
-      <c r="K10" t="s">
-        <v>80</v>
-      </c>
-      <c r="P10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:53">
-      <c r="A11" s="1">
-        <v>49</v>
-      </c>
-      <c r="C11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11">
-        <v>35.24342</v>
-      </c>
-      <c r="E11">
-        <v>-85.18262</v>
-      </c>
-      <c r="F11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" t="s">
-        <v>74</v>
-      </c>
-      <c r="K11" t="s">
-        <v>77</v>
-      </c>
-      <c r="P11" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:53">
-      <c r="A12" s="1">
-        <v>50</v>
-      </c>
-      <c r="C12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12">
-        <v>35.24342</v>
-      </c>
-      <c r="E12">
-        <v>-85.18262</v>
-      </c>
-      <c r="F12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" t="s">
-        <v>74</v>
-      </c>
-      <c r="K12" t="s">
-        <v>77</v>
-      </c>
-      <c r="P12" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:53">
-      <c r="A13" s="1">
-        <v>66</v>
-      </c>
-      <c r="C13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13">
-        <v>35.087713</v>
-      </c>
-      <c r="E13">
-        <v>-85.071062</v>
-      </c>
-      <c r="F13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13" t="s">
-        <v>75</v>
-      </c>
-      <c r="K13" t="s">
-        <v>80</v>
-      </c>
-      <c r="P13" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:53">
-      <c r="A14" s="1">
-        <v>67</v>
-      </c>
-      <c r="C14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14">
-        <v>35.087713</v>
-      </c>
-      <c r="E14">
-        <v>-85.071062</v>
-      </c>
-      <c r="F14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" t="s">
-        <v>66</v>
-      </c>
-      <c r="H14" t="s">
-        <v>75</v>
-      </c>
-      <c r="K14" t="s">
-        <v>80</v>
-      </c>
-      <c r="P14" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:53">
-      <c r="A15" s="1">
-        <v>68</v>
-      </c>
-      <c r="C15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15">
-        <v>35.087713</v>
-      </c>
-      <c r="E15">
-        <v>-85.071062</v>
-      </c>
-      <c r="F15" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" t="s">
-        <v>76</v>
-      </c>
-      <c r="K15" t="s">
-        <v>78</v>
-      </c>
-      <c r="P15" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="99">
   <si>
     <t>Accident</t>
   </si>
@@ -172,49 +172,145 @@
     <t>Pavement_Type</t>
   </si>
   <si>
+    <t>Unknown Injuries</t>
+  </si>
+  <si>
     <t>Injuries</t>
   </si>
   <si>
     <t>No Injuries</t>
   </si>
   <si>
-    <t>2019-02-03</t>
-  </si>
-  <si>
-    <t>18:33:07</t>
-  </si>
-  <si>
-    <t>12:47:48</t>
-  </si>
-  <si>
-    <t>11:27:39</t>
-  </si>
-  <si>
-    <t>11:27:20</t>
-  </si>
-  <si>
-    <t>11:25:47</t>
-  </si>
-  <si>
-    <t>Old Mission Rd / N Moore Rd</t>
-  </si>
-  <si>
-    <t>5188 HIGHWAY 153</t>
-  </si>
-  <si>
-    <t>4355 Highway 58</t>
+    <t>Entrapment</t>
+  </si>
+  <si>
+    <t>2019-02-04</t>
+  </si>
+  <si>
+    <t>22:56:52</t>
+  </si>
+  <si>
+    <t>19:02:08</t>
+  </si>
+  <si>
+    <t>18:46:11</t>
+  </si>
+  <si>
+    <t>18:43:49</t>
+  </si>
+  <si>
+    <t>18:09:49</t>
+  </si>
+  <si>
+    <t>18:08:44</t>
+  </si>
+  <si>
+    <t>16:18:02</t>
+  </si>
+  <si>
+    <t>16:17:36</t>
+  </si>
+  <si>
+    <t>16:17:22</t>
+  </si>
+  <si>
+    <t>16:17:01</t>
+  </si>
+  <si>
+    <t>15:56:54</t>
+  </si>
+  <si>
+    <t>13:13:36</t>
+  </si>
+  <si>
+    <t>12:23:12</t>
+  </si>
+  <si>
+    <t>07:38:41</t>
+  </si>
+  <si>
+    <t>03:03:15</t>
+  </si>
+  <si>
+    <t>00:11:22</t>
+  </si>
+  <si>
+    <t>236 Montlake Rd</t>
+  </si>
+  <si>
+    <t>3948 ROSSVILLE BLVD</t>
+  </si>
+  <si>
+    <t>4015 Rossville Blvd</t>
+  </si>
+  <si>
+    <t>7320 - 7399 Mccutcheon Rd</t>
+  </si>
+  <si>
+    <t>300 Sequoyah Rd</t>
+  </si>
+  <si>
+    <t>1900 - 2059 Highway 27 Sb</t>
+  </si>
+  <si>
+    <t>2100 Highway 27 Sb</t>
+  </si>
+  <si>
+    <t>18000 INTERSTATE 24 EB</t>
+  </si>
+  <si>
+    <t>5575 HIXSON PIKE</t>
+  </si>
+  <si>
+    <t>Bonny Oaks Dr / Hickory Valley Rd</t>
+  </si>
+  <si>
+    <t>8010 - 8979 Volkswagen Dr</t>
+  </si>
+  <si>
+    <t>18250 INTERSTATE 24 EB</t>
+  </si>
+  <si>
+    <t>704 S Seminole Dr</t>
+  </si>
+  <si>
+    <t>SODDY DAISY</t>
   </si>
   <si>
     <t>CHATTANOOGA</t>
   </si>
   <si>
+    <t>EAST RIDGE</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>18</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>12</t>
   </si>
   <si>
-    <t>11</t>
+    <t>7</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -572,7 +668,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA6"/>
+  <dimension ref="A1:BA17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -738,31 +834,31 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
       </c>
       <c r="D2">
-        <v>35.016665</v>
+        <v>35.22789</v>
       </c>
       <c r="E2">
-        <v>-85.22623</v>
+        <v>-85.226823</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H2" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="K2" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="Y2">
         <v>2</v>
@@ -770,31 +866,31 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D3">
-        <v>35.123547</v>
+        <v>34.998306</v>
       </c>
       <c r="E3">
-        <v>-85.239192</v>
+        <v>-85.291556</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H3" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="K3" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="Y3">
         <v>2</v>
@@ -802,31 +898,31 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D4">
-        <v>35.084696</v>
+        <v>34.996503</v>
       </c>
       <c r="E4">
-        <v>-85.203333</v>
+        <v>-85.291622</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H4" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="Y4">
         <v>2</v>
@@ -834,31 +930,31 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D5">
-        <v>35.084696</v>
+        <v>34.996503</v>
       </c>
       <c r="E5">
-        <v>-85.203333</v>
+        <v>-85.291622</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H5" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="P5" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="Y5">
         <v>2</v>
@@ -866,33 +962,385 @@
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
         <v>53</v>
       </c>
       <c r="D6">
-        <v>35.084696</v>
+        <v>35.044398</v>
       </c>
       <c r="E6">
-        <v>-85.203333</v>
+        <v>-85.150217</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>87</v>
+      </c>
+      <c r="P6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53">
+      <c r="A7" s="1">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7">
+        <v>35.044398</v>
+      </c>
+      <c r="E7">
+        <v>-85.150217</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" t="s">
         <v>62</v>
       </c>
-      <c r="K6" t="s">
+      <c r="H7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:53">
+      <c r="A8" s="1">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8">
+        <v>35.246389</v>
+      </c>
+      <c r="E8">
+        <v>-85.1781</v>
+      </c>
+      <c r="F8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" t="s">
         <v>63</v>
       </c>
-      <c r="P6" t="s">
+      <c r="H8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" t="s">
+        <v>86</v>
+      </c>
+      <c r="P8" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53">
+      <c r="A9" s="1">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9">
+        <v>35.246389</v>
+      </c>
+      <c r="E9">
+        <v>-85.1781</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" t="s">
+        <v>77</v>
+      </c>
+      <c r="K9" t="s">
+        <v>86</v>
+      </c>
+      <c r="P9" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:53">
+      <c r="A10" s="1">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10">
+        <v>35.254169</v>
+      </c>
+      <c r="E10">
+        <v>-85.17528900000001</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" t="s">
+        <v>78</v>
+      </c>
+      <c r="K10" t="s">
+        <v>86</v>
+      </c>
+      <c r="P10" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:53">
+      <c r="A11" s="1">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11">
+        <v>35.277715</v>
+      </c>
+      <c r="E11">
+        <v>-85.15537</v>
+      </c>
+      <c r="F11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" t="s">
         <v>66</v>
       </c>
-      <c r="Y6">
+      <c r="H11" t="s">
+        <v>79</v>
+      </c>
+      <c r="K11" t="s">
+        <v>86</v>
+      </c>
+      <c r="P11" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:53">
+      <c r="A12" s="1">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12">
+        <v>35.021809</v>
+      </c>
+      <c r="E12">
+        <v>-85.297892</v>
+      </c>
+      <c r="F12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" t="s">
+        <v>87</v>
+      </c>
+      <c r="P12" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:53">
+      <c r="A13" s="1">
+        <v>65</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13">
+        <v>35.146414</v>
+      </c>
+      <c r="E13">
+        <v>-85.222112</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" t="s">
+        <v>87</v>
+      </c>
+      <c r="P13" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:53">
+      <c r="A14" s="1">
+        <v>72</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14">
+        <v>35.071531</v>
+      </c>
+      <c r="E14">
+        <v>-85.156379</v>
+      </c>
+      <c r="F14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" t="s">
+        <v>82</v>
+      </c>
+      <c r="K14" t="s">
+        <v>87</v>
+      </c>
+      <c r="P14" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:53">
+      <c r="A15" s="1">
+        <v>89</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15">
+        <v>35.072824</v>
+      </c>
+      <c r="E15">
+        <v>-85.12366</v>
+      </c>
+      <c r="F15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" t="s">
+        <v>83</v>
+      </c>
+      <c r="K15" t="s">
+        <v>87</v>
+      </c>
+      <c r="P15" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:53">
+      <c r="A16" s="1">
+        <v>99</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16">
+        <v>35.020465</v>
+      </c>
+      <c r="E16">
+        <v>-85.260097</v>
+      </c>
+      <c r="F16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" t="s">
+        <v>84</v>
+      </c>
+      <c r="K16" t="s">
+        <v>88</v>
+      </c>
+      <c r="P16" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
+      <c r="A17" s="1">
+        <v>102</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17">
+        <v>35.014129</v>
+      </c>
+      <c r="E17">
+        <v>-85.262991</v>
+      </c>
+      <c r="F17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" t="s">
+        <v>85</v>
+      </c>
+      <c r="K17" t="s">
+        <v>88</v>
+      </c>
+      <c r="P17" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y17">
         <v>2</v>
       </c>
     </row>

--- a/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="99">
   <si>
     <t>Accident</t>
   </si>
@@ -172,109 +172,115 @@
     <t>Pavement_Type</t>
   </si>
   <si>
+    <t>Injuries</t>
+  </si>
+  <si>
     <t>Unknown Injuries</t>
   </si>
   <si>
-    <t>Injuries</t>
-  </si>
-  <si>
-    <t>No Injuries</t>
-  </si>
-  <si>
-    <t>Entrapment</t>
-  </si>
-  <si>
-    <t>2019-02-04</t>
-  </si>
-  <si>
-    <t>22:56:52</t>
-  </si>
-  <si>
-    <t>19:02:08</t>
-  </si>
-  <si>
-    <t>18:46:11</t>
-  </si>
-  <si>
-    <t>18:43:49</t>
-  </si>
-  <si>
-    <t>18:09:49</t>
-  </si>
-  <si>
-    <t>18:08:44</t>
-  </si>
-  <si>
-    <t>16:18:02</t>
-  </si>
-  <si>
-    <t>16:17:36</t>
-  </si>
-  <si>
-    <t>16:17:22</t>
-  </si>
-  <si>
-    <t>16:17:01</t>
-  </si>
-  <si>
-    <t>15:56:54</t>
-  </si>
-  <si>
-    <t>13:13:36</t>
-  </si>
-  <si>
-    <t>12:23:12</t>
-  </si>
-  <si>
-    <t>07:38:41</t>
-  </si>
-  <si>
-    <t>03:03:15</t>
-  </si>
-  <si>
-    <t>00:11:22</t>
-  </si>
-  <si>
-    <t>236 Montlake Rd</t>
-  </si>
-  <si>
-    <t>3948 ROSSVILLE BLVD</t>
-  </si>
-  <si>
-    <t>4015 Rossville Blvd</t>
-  </si>
-  <si>
-    <t>7320 - 7399 Mccutcheon Rd</t>
-  </si>
-  <si>
-    <t>300 Sequoyah Rd</t>
-  </si>
-  <si>
-    <t>1900 - 2059 Highway 27 Sb</t>
-  </si>
-  <si>
-    <t>2100 Highway 27 Sb</t>
-  </si>
-  <si>
-    <t>18000 INTERSTATE 24 EB</t>
-  </si>
-  <si>
-    <t>5575 HIXSON PIKE</t>
-  </si>
-  <si>
-    <t>Bonny Oaks Dr / Hickory Valley Rd</t>
-  </si>
-  <si>
-    <t>8010 - 8979 Volkswagen Dr</t>
-  </si>
-  <si>
-    <t>18250 INTERSTATE 24 EB</t>
-  </si>
-  <si>
-    <t>704 S Seminole Dr</t>
-  </si>
-  <si>
-    <t>SODDY DAISY</t>
+    <t>2019-02-05</t>
+  </si>
+  <si>
+    <t>18:51:00</t>
+  </si>
+  <si>
+    <t>16:07:35</t>
+  </si>
+  <si>
+    <t>16:04:22</t>
+  </si>
+  <si>
+    <t>15:37:11</t>
+  </si>
+  <si>
+    <t>15:36:25</t>
+  </si>
+  <si>
+    <t>11:09:07</t>
+  </si>
+  <si>
+    <t>11:08:59</t>
+  </si>
+  <si>
+    <t>09:43:59</t>
+  </si>
+  <si>
+    <t>09:27:05</t>
+  </si>
+  <si>
+    <t>09:25:23</t>
+  </si>
+  <si>
+    <t>08:56:51</t>
+  </si>
+  <si>
+    <t>08:01:18</t>
+  </si>
+  <si>
+    <t>08:01:00</t>
+  </si>
+  <si>
+    <t>07:25:21</t>
+  </si>
+  <si>
+    <t>06:58:47</t>
+  </si>
+  <si>
+    <t>06:57:54</t>
+  </si>
+  <si>
+    <t>06:55:55</t>
+  </si>
+  <si>
+    <t>06:55:14</t>
+  </si>
+  <si>
+    <t>06:54:08</t>
+  </si>
+  <si>
+    <t>06:53:20</t>
+  </si>
+  <si>
+    <t>Hurricane Creek Rd / E Brainerd Rd</t>
+  </si>
+  <si>
+    <t>CUMMINGS HWY / BROWNS FERRY RD</t>
+  </si>
+  <si>
+    <t>3000 CUMMINGS HWY</t>
+  </si>
+  <si>
+    <t>4300-4324 N Access Rd</t>
+  </si>
+  <si>
+    <t>2130 Amnicola Hwy</t>
+  </si>
+  <si>
+    <t>6735 Ringgold Rd</t>
+  </si>
+  <si>
+    <t>400 Palmetto St</t>
+  </si>
+  <si>
+    <t>Dodds Ave / E 24th St</t>
+  </si>
+  <si>
+    <t>1500 Dodds Ave</t>
+  </si>
+  <si>
+    <t>1500 DODDS AVE</t>
+  </si>
+  <si>
+    <t>18000 Interstate 24 Eb</t>
+  </si>
+  <si>
+    <t>San Hsi Dr / Ringgold Rd</t>
+  </si>
+  <si>
+    <t>E Main St / Dodds Ave</t>
+  </si>
+  <si>
+    <t>2600 E MAIN ST</t>
   </si>
   <si>
     <t>CHATTANOOGA</t>
@@ -283,12 +289,6 @@
     <t>EAST RIDGE</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>18</t>
   </si>
   <si>
@@ -298,19 +298,19 @@
     <t>15</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>12</t>
+    <t>11</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>6</t>
   </si>
 </sst>
 </file>
@@ -668,7 +668,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA17"/>
+  <dimension ref="A1:BA24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -834,31 +834,31 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
       </c>
       <c r="D2">
-        <v>35.22789</v>
+        <v>35.000853</v>
       </c>
       <c r="E2">
-        <v>-85.226823</v>
+        <v>-85.132549</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Y2">
         <v>2</v>
@@ -866,31 +866,31 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3">
-        <v>34.998306</v>
+        <v>35.000853</v>
       </c>
       <c r="E3">
-        <v>-85.291556</v>
+        <v>-85.132549</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Y3">
         <v>2</v>
@@ -898,31 +898,31 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4">
-        <v>34.996503</v>
+        <v>35.020313</v>
       </c>
       <c r="E4">
-        <v>-85.291622</v>
+        <v>-85.365756</v>
       </c>
       <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" t="s">
         <v>56</v>
       </c>
-      <c r="G4" t="s">
-        <v>59</v>
-      </c>
       <c r="H4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Y4">
         <v>2</v>
@@ -930,31 +930,31 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D5">
-        <v>34.996503</v>
+        <v>35.020313</v>
       </c>
       <c r="E5">
-        <v>-85.291622</v>
+        <v>-85.365756</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Y5">
         <v>2</v>
@@ -962,31 +962,31 @@
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6">
-        <v>35.044398</v>
+        <v>35.112321</v>
       </c>
       <c r="E6">
-        <v>-85.150217</v>
+        <v>-85.252163</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Y6">
         <v>2</v>
@@ -994,31 +994,31 @@
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7">
-        <v>35.044398</v>
+        <v>35.112321</v>
       </c>
       <c r="E7">
-        <v>-85.150217</v>
+        <v>-85.252163</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Y7">
         <v>2</v>
@@ -1026,31 +1026,31 @@
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8">
-        <v>35.246389</v>
+        <v>35.065062</v>
       </c>
       <c r="E8">
-        <v>-85.1781</v>
+        <v>-85.272718</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Y8">
         <v>2</v>
@@ -1058,31 +1058,31 @@
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9">
-        <v>35.246389</v>
+        <v>35.065062</v>
       </c>
       <c r="E9">
-        <v>-85.1781</v>
+        <v>-85.272718</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K9" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Y9">
         <v>2</v>
@@ -1090,31 +1090,31 @@
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
         <v>53</v>
       </c>
       <c r="D10">
-        <v>35.254169</v>
+        <v>34.989228</v>
       </c>
       <c r="E10">
-        <v>-85.17528900000001</v>
+        <v>-85.19351899999999</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K10" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Y10">
         <v>2</v>
@@ -1122,31 +1122,31 @@
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11">
-        <v>35.277715</v>
+        <v>35.046723</v>
       </c>
       <c r="E11">
-        <v>-85.15537</v>
+        <v>-85.293772</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K11" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Y11">
         <v>2</v>
@@ -1154,31 +1154,31 @@
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D12">
-        <v>35.021809</v>
+        <v>35.046723</v>
       </c>
       <c r="E12">
-        <v>-85.297892</v>
+        <v>-85.293772</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Y12">
         <v>2</v>
@@ -1186,31 +1186,31 @@
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13">
+        <v>35.01406</v>
+      </c>
+      <c r="E13">
+        <v>-85.27455399999999</v>
+      </c>
+      <c r="F13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" t="s">
         <v>65</v>
       </c>
-      <c r="C13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13">
-        <v>35.146414</v>
-      </c>
-      <c r="E13">
-        <v>-85.222112</v>
-      </c>
-      <c r="F13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" t="s">
-        <v>68</v>
-      </c>
       <c r="H13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Y13">
         <v>2</v>
@@ -1218,31 +1218,31 @@
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
         <v>52</v>
       </c>
       <c r="D14">
-        <v>35.071531</v>
+        <v>35.01406</v>
       </c>
       <c r="E14">
-        <v>-85.156379</v>
+        <v>-85.27455399999999</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G14" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
       </c>
       <c r="K14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Y14">
         <v>2</v>
@@ -1250,28 +1250,28 @@
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15">
-        <v>35.072824</v>
+        <v>35.02197</v>
       </c>
       <c r="E15">
-        <v>-85.12366</v>
+        <v>-85.26953</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G15" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H15" t="s">
         <v>83</v>
       </c>
       <c r="K15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P15" t="s">
         <v>96</v>
@@ -1282,31 +1282,31 @@
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="1">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D16">
-        <v>35.020465</v>
+        <v>35.022043</v>
       </c>
       <c r="E16">
-        <v>-85.260097</v>
+        <v>-85.269408</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H16" t="s">
         <v>84</v>
       </c>
       <c r="K16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y16">
         <v>2</v>
@@ -1314,33 +1314,257 @@
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="1">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17">
-        <v>35.014129</v>
+        <v>35.021809</v>
       </c>
       <c r="E17">
-        <v>-85.262991</v>
+        <v>-85.297892</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H17" t="s">
         <v>85</v>
       </c>
       <c r="K17" t="s">
+        <v>89</v>
+      </c>
+      <c r="P17" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="A18" s="1">
+        <v>76</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18">
+        <v>34.990498</v>
+      </c>
+      <c r="E18">
+        <v>-85.22026200000001</v>
+      </c>
+      <c r="F18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" t="s">
+        <v>86</v>
+      </c>
+      <c r="K18" t="s">
+        <v>90</v>
+      </c>
+      <c r="P18" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="A19" s="1">
+        <v>77</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19">
+        <v>34.990498</v>
+      </c>
+      <c r="E19">
+        <v>-85.22026200000001</v>
+      </c>
+      <c r="F19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" t="s">
+        <v>86</v>
+      </c>
+      <c r="K19" t="s">
+        <v>90</v>
+      </c>
+      <c r="P19" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="A20" s="1">
+        <v>79</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20">
+        <v>35.022196</v>
+      </c>
+      <c r="E20">
+        <v>-85.269492</v>
+      </c>
+      <c r="F20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20" t="s">
+        <v>87</v>
+      </c>
+      <c r="K20" t="s">
+        <v>89</v>
+      </c>
+      <c r="P20" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
+      <c r="A21" s="1">
+        <v>80</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21">
+        <v>35.022196</v>
+      </c>
+      <c r="E21">
+        <v>-85.269492</v>
+      </c>
+      <c r="F21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21" t="s">
+        <v>87</v>
+      </c>
+      <c r="K21" t="s">
+        <v>89</v>
+      </c>
+      <c r="P21" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
+      <c r="A22" s="1">
+        <v>81</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22">
+        <v>35.022196</v>
+      </c>
+      <c r="E22">
+        <v>-85.269492</v>
+      </c>
+      <c r="F22" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" t="s">
+        <v>87</v>
+      </c>
+      <c r="K22" t="s">
+        <v>89</v>
+      </c>
+      <c r="P22" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
+      <c r="A23" s="1">
+        <v>82</v>
+      </c>
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23">
+        <v>35.022196</v>
+      </c>
+      <c r="E23">
+        <v>-85.269492</v>
+      </c>
+      <c r="F23" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" t="s">
+        <v>87</v>
+      </c>
+      <c r="K23" t="s">
+        <v>89</v>
+      </c>
+      <c r="P23" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
+      <c r="A24" s="1">
+        <v>83</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24">
+        <v>35.022196</v>
+      </c>
+      <c r="E24">
+        <v>-85.269492</v>
+      </c>
+      <c r="F24" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" t="s">
         <v>88</v>
       </c>
-      <c r="P17" t="s">
+      <c r="K24" t="s">
+        <v>89</v>
+      </c>
+      <c r="P24" t="s">
         <v>98</v>
       </c>
-      <c r="Y17">
+      <c r="Y24">
         <v>2</v>
       </c>
     </row>

--- a/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="95">
   <si>
     <t>Accident</t>
   </si>
@@ -175,142 +175,130 @@
     <t>Injuries</t>
   </si>
   <si>
+    <t>No Injuries</t>
+  </si>
+  <si>
     <t>Unknown Injuries</t>
   </si>
   <si>
-    <t>2019-02-05</t>
-  </si>
-  <si>
-    <t>18:51:00</t>
-  </si>
-  <si>
-    <t>16:07:35</t>
-  </si>
-  <si>
-    <t>16:04:22</t>
-  </si>
-  <si>
-    <t>15:37:11</t>
-  </si>
-  <si>
-    <t>15:36:25</t>
-  </si>
-  <si>
-    <t>11:09:07</t>
-  </si>
-  <si>
-    <t>11:08:59</t>
-  </si>
-  <si>
-    <t>09:43:59</t>
-  </si>
-  <si>
-    <t>09:27:05</t>
-  </si>
-  <si>
-    <t>09:25:23</t>
-  </si>
-  <si>
-    <t>08:56:51</t>
-  </si>
-  <si>
-    <t>08:01:18</t>
-  </si>
-  <si>
-    <t>08:01:00</t>
-  </si>
-  <si>
-    <t>07:25:21</t>
-  </si>
-  <si>
-    <t>06:58:47</t>
-  </si>
-  <si>
-    <t>06:57:54</t>
-  </si>
-  <si>
-    <t>06:55:55</t>
-  </si>
-  <si>
-    <t>06:55:14</t>
-  </si>
-  <si>
-    <t>06:54:08</t>
-  </si>
-  <si>
-    <t>06:53:20</t>
-  </si>
-  <si>
-    <t>Hurricane Creek Rd / E Brainerd Rd</t>
-  </si>
-  <si>
-    <t>CUMMINGS HWY / BROWNS FERRY RD</t>
-  </si>
-  <si>
-    <t>3000 CUMMINGS HWY</t>
-  </si>
-  <si>
-    <t>4300-4324 N Access Rd</t>
-  </si>
-  <si>
-    <t>2130 Amnicola Hwy</t>
-  </si>
-  <si>
-    <t>6735 Ringgold Rd</t>
-  </si>
-  <si>
-    <t>400 Palmetto St</t>
-  </si>
-  <si>
-    <t>Dodds Ave / E 24th St</t>
-  </si>
-  <si>
-    <t>1500 Dodds Ave</t>
-  </si>
-  <si>
-    <t>1500 DODDS AVE</t>
-  </si>
-  <si>
-    <t>18000 Interstate 24 Eb</t>
-  </si>
-  <si>
-    <t>San Hsi Dr / Ringgold Rd</t>
-  </si>
-  <si>
-    <t>E Main St / Dodds Ave</t>
-  </si>
-  <si>
-    <t>2600 E MAIN ST</t>
+    <t>2019-02-10</t>
+  </si>
+  <si>
+    <t>21:11:14</t>
+  </si>
+  <si>
+    <t>20:59:19</t>
+  </si>
+  <si>
+    <t>19:40:22</t>
+  </si>
+  <si>
+    <t>19:34:19</t>
+  </si>
+  <si>
+    <t>19:32:33</t>
+  </si>
+  <si>
+    <t>17:47:04</t>
+  </si>
+  <si>
+    <t>17:46:21</t>
+  </si>
+  <si>
+    <t>15:17:13</t>
+  </si>
+  <si>
+    <t>15:16:58</t>
+  </si>
+  <si>
+    <t>14:52:14</t>
+  </si>
+  <si>
+    <t>14:51:45</t>
+  </si>
+  <si>
+    <t>13:31:24</t>
+  </si>
+  <si>
+    <t>13:30:47</t>
+  </si>
+  <si>
+    <t>12:57:25</t>
+  </si>
+  <si>
+    <t>12:14:31</t>
+  </si>
+  <si>
+    <t>10:30:34</t>
+  </si>
+  <si>
+    <t>780 - 899 Glenwood Dr</t>
+  </si>
+  <si>
+    <t>780-898 Glenwood Dr</t>
+  </si>
+  <si>
+    <t>BILL REED RD / GREEN SHANTY RD</t>
+  </si>
+  <si>
+    <t>3871 Hixson Pike</t>
+  </si>
+  <si>
+    <t>Roberts Mill Rd / Hixson Springs Rd</t>
+  </si>
+  <si>
+    <t>18000 Interstate 24 Wb</t>
+  </si>
+  <si>
+    <t>5440 Highway 153</t>
+  </si>
+  <si>
+    <t>Old Dayton Pike / Lynnolen Ln</t>
+  </si>
+  <si>
+    <t>4 LYNNOLEN LN</t>
+  </si>
+  <si>
+    <t>160 INTERSTATE 75 NB</t>
+  </si>
+  <si>
+    <t>9000 Lee Hwy</t>
+  </si>
+  <si>
+    <t>5426 - 5499 School St</t>
   </si>
   <si>
     <t>CHATTANOOGA</t>
   </si>
   <si>
-    <t>EAST RIDGE</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>16</t>
+    <t>HAMILTON COUNTY</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>17</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>6</t>
+    <t>14</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
 </sst>
 </file>
@@ -668,7 +656,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA24"/>
+  <dimension ref="A1:BA19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -834,31 +822,31 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
       </c>
       <c r="D2">
-        <v>35.000853</v>
+        <v>35.04172</v>
       </c>
       <c r="E2">
-        <v>-85.132549</v>
+        <v>-85.25831599999999</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="Y2">
         <v>2</v>
@@ -866,31 +854,31 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>52</v>
       </c>
       <c r="D3">
-        <v>35.000853</v>
+        <v>35.04212</v>
       </c>
       <c r="E3">
-        <v>-85.132549</v>
+        <v>-85.25808499999999</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="P3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Y3">
         <v>2</v>
@@ -898,31 +886,31 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D4">
-        <v>35.020313</v>
+        <v>35.045636</v>
       </c>
       <c r="E4">
-        <v>-85.365756</v>
+        <v>-85.110522</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Y4">
         <v>2</v>
@@ -930,31 +918,31 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>52</v>
       </c>
       <c r="D5">
-        <v>35.020313</v>
+        <v>35.112743</v>
       </c>
       <c r="E5">
-        <v>-85.365756</v>
+        <v>-85.266201</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Y5">
         <v>2</v>
@@ -962,31 +950,31 @@
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>52</v>
       </c>
       <c r="D6">
-        <v>35.112321</v>
+        <v>35.112743</v>
       </c>
       <c r="E6">
-        <v>-85.252163</v>
+        <v>-85.266201</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="Y6">
         <v>2</v>
@@ -994,31 +982,31 @@
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
         <v>52</v>
       </c>
       <c r="D7">
-        <v>35.112321</v>
+        <v>35.218503</v>
       </c>
       <c r="E7">
-        <v>-85.252163</v>
+        <v>-85.27296800000001</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P7" t="s">
         <v>89</v>
-      </c>
-      <c r="P7" t="s">
-        <v>93</v>
       </c>
       <c r="Y7">
         <v>2</v>
@@ -1026,31 +1014,31 @@
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
         <v>52</v>
       </c>
       <c r="D8">
-        <v>35.065062</v>
+        <v>35.218503</v>
       </c>
       <c r="E8">
-        <v>-85.272718</v>
+        <v>-85.27296800000001</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K8" t="s">
+        <v>85</v>
+      </c>
+      <c r="P8" t="s">
         <v>89</v>
-      </c>
-      <c r="P8" t="s">
-        <v>94</v>
       </c>
       <c r="Y8">
         <v>2</v>
@@ -1058,31 +1046,31 @@
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
         <v>52</v>
       </c>
       <c r="D9">
-        <v>35.065062</v>
+        <v>35.02156</v>
       </c>
       <c r="E9">
-        <v>-85.272718</v>
+        <v>-85.297411</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K9" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Y9">
         <v>2</v>
@@ -1090,31 +1078,31 @@
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10">
-        <v>34.989228</v>
+        <v>35.02156</v>
       </c>
       <c r="E10">
-        <v>-85.19351899999999</v>
+        <v>-85.297411</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K10" t="s">
+        <v>84</v>
+      </c>
+      <c r="P10" t="s">
         <v>90</v>
-      </c>
-      <c r="P10" t="s">
-        <v>95</v>
       </c>
       <c r="Y10">
         <v>2</v>
@@ -1122,31 +1110,31 @@
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
         <v>52</v>
       </c>
       <c r="D11">
-        <v>35.046723</v>
+        <v>35.138778</v>
       </c>
       <c r="E11">
-        <v>-85.293772</v>
+        <v>-85.24719399999999</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K11" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y11">
         <v>2</v>
@@ -1154,31 +1142,31 @@
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
         <v>52</v>
       </c>
       <c r="D12">
-        <v>35.046723</v>
+        <v>35.138778</v>
       </c>
       <c r="E12">
-        <v>-85.293772</v>
+        <v>-85.24719399999999</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K12" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Y12">
         <v>2</v>
@@ -1186,31 +1174,31 @@
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
         <v>52</v>
       </c>
       <c r="D13">
-        <v>35.01406</v>
+        <v>35.148021</v>
       </c>
       <c r="E13">
-        <v>-85.27455399999999</v>
+        <v>-85.273262</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K13" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="P13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y13">
         <v>2</v>
@@ -1218,31 +1206,31 @@
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
         <v>52</v>
       </c>
       <c r="D14">
-        <v>35.01406</v>
+        <v>35.148035</v>
       </c>
       <c r="E14">
-        <v>-85.27455399999999</v>
+        <v>-85.27331</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G14" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K14" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="P14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y14">
         <v>2</v>
@@ -1253,28 +1241,28 @@
         <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D15">
-        <v>35.02197</v>
+        <v>35.005828</v>
       </c>
       <c r="E15">
-        <v>-85.26953</v>
+        <v>-85.207205</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G15" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K15" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="P15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="Y15">
         <v>2</v>
@@ -1282,31 +1270,31 @@
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="1">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
         <v>53</v>
       </c>
       <c r="D16">
-        <v>35.022043</v>
+        <v>35.085686</v>
       </c>
       <c r="E16">
-        <v>-85.269408</v>
+        <v>-85.066688</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G16" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H16" t="s">
+        <v>82</v>
+      </c>
+      <c r="K16" t="s">
         <v>84</v>
       </c>
-      <c r="K16" t="s">
-        <v>89</v>
-      </c>
       <c r="P16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="Y16">
         <v>2</v>
@@ -1314,31 +1302,31 @@
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="1">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
         <v>52</v>
       </c>
       <c r="D17">
-        <v>35.021809</v>
+        <v>35.071818</v>
       </c>
       <c r="E17">
-        <v>-85.297892</v>
+        <v>-85.101742</v>
       </c>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G17" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K17" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="P17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Y17">
         <v>2</v>
@@ -1346,31 +1334,31 @@
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
         <v>52</v>
       </c>
       <c r="D18">
-        <v>34.990498</v>
+        <v>35.071818</v>
       </c>
       <c r="E18">
-        <v>-85.22026200000001</v>
+        <v>-85.101742</v>
       </c>
       <c r="F18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H18" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K18" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="P18" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="Y18">
         <v>2</v>
@@ -1378,193 +1366,33 @@
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="1">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s">
         <v>52</v>
       </c>
       <c r="D19">
-        <v>34.990498</v>
+        <v>35.071818</v>
       </c>
       <c r="E19">
-        <v>-85.22026200000001</v>
+        <v>-85.101742</v>
       </c>
       <c r="F19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H19" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K19" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="Y19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25">
-      <c r="A20" s="1">
-        <v>79</v>
-      </c>
-      <c r="C20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20">
-        <v>35.022196</v>
-      </c>
-      <c r="E20">
-        <v>-85.269492</v>
-      </c>
-      <c r="F20" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" t="s">
-        <v>71</v>
-      </c>
-      <c r="H20" t="s">
-        <v>87</v>
-      </c>
-      <c r="K20" t="s">
-        <v>89</v>
-      </c>
-      <c r="P20" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25">
-      <c r="A21" s="1">
-        <v>80</v>
-      </c>
-      <c r="C21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21">
-        <v>35.022196</v>
-      </c>
-      <c r="E21">
-        <v>-85.269492</v>
-      </c>
-      <c r="F21" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21" t="s">
-        <v>72</v>
-      </c>
-      <c r="H21" t="s">
-        <v>87</v>
-      </c>
-      <c r="K21" t="s">
-        <v>89</v>
-      </c>
-      <c r="P21" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25">
-      <c r="A22" s="1">
-        <v>81</v>
-      </c>
-      <c r="C22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22">
-        <v>35.022196</v>
-      </c>
-      <c r="E22">
-        <v>-85.269492</v>
-      </c>
-      <c r="F22" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22" t="s">
-        <v>73</v>
-      </c>
-      <c r="H22" t="s">
-        <v>87</v>
-      </c>
-      <c r="K22" t="s">
-        <v>89</v>
-      </c>
-      <c r="P22" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25">
-      <c r="A23" s="1">
-        <v>82</v>
-      </c>
-      <c r="C23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23">
-        <v>35.022196</v>
-      </c>
-      <c r="E23">
-        <v>-85.269492</v>
-      </c>
-      <c r="F23" t="s">
-        <v>54</v>
-      </c>
-      <c r="G23" t="s">
-        <v>73</v>
-      </c>
-      <c r="H23" t="s">
-        <v>87</v>
-      </c>
-      <c r="K23" t="s">
-        <v>89</v>
-      </c>
-      <c r="P23" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25">
-      <c r="A24" s="1">
-        <v>83</v>
-      </c>
-      <c r="C24" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24">
-        <v>35.022196</v>
-      </c>
-      <c r="E24">
-        <v>-85.269492</v>
-      </c>
-      <c r="F24" t="s">
-        <v>54</v>
-      </c>
-      <c r="G24" t="s">
-        <v>74</v>
-      </c>
-      <c r="H24" t="s">
-        <v>88</v>
-      </c>
-      <c r="K24" t="s">
-        <v>89</v>
-      </c>
-      <c r="P24" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y24">
         <v>2</v>
       </c>
     </row>

--- a/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="97">
   <si>
     <t>Accident</t>
   </si>
@@ -175,106 +175,115 @@
     <t>Injuries</t>
   </si>
   <si>
+    <t>Unknown Injuries</t>
+  </si>
+  <si>
     <t>No Injuries</t>
   </si>
   <si>
-    <t>Unknown Injuries</t>
-  </si>
-  <si>
-    <t>2019-02-10</t>
-  </si>
-  <si>
-    <t>21:11:14</t>
-  </si>
-  <si>
-    <t>20:59:19</t>
-  </si>
-  <si>
-    <t>19:40:22</t>
-  </si>
-  <si>
-    <t>19:34:19</t>
-  </si>
-  <si>
-    <t>19:32:33</t>
-  </si>
-  <si>
-    <t>17:47:04</t>
-  </si>
-  <si>
-    <t>17:46:21</t>
-  </si>
-  <si>
-    <t>15:17:13</t>
-  </si>
-  <si>
-    <t>15:16:58</t>
-  </si>
-  <si>
-    <t>14:52:14</t>
-  </si>
-  <si>
-    <t>14:51:45</t>
-  </si>
-  <si>
-    <t>13:31:24</t>
-  </si>
-  <si>
-    <t>13:30:47</t>
-  </si>
-  <si>
-    <t>12:57:25</t>
-  </si>
-  <si>
-    <t>12:14:31</t>
-  </si>
-  <si>
-    <t>10:30:34</t>
-  </si>
-  <si>
-    <t>780 - 899 Glenwood Dr</t>
-  </si>
-  <si>
-    <t>780-898 Glenwood Dr</t>
-  </si>
-  <si>
-    <t>BILL REED RD / GREEN SHANTY RD</t>
-  </si>
-  <si>
-    <t>3871 Hixson Pike</t>
-  </si>
-  <si>
-    <t>Roberts Mill Rd / Hixson Springs Rd</t>
-  </si>
-  <si>
-    <t>18000 Interstate 24 Wb</t>
-  </si>
-  <si>
-    <t>5440 Highway 153</t>
-  </si>
-  <si>
-    <t>Old Dayton Pike / Lynnolen Ln</t>
-  </si>
-  <si>
-    <t>4 LYNNOLEN LN</t>
-  </si>
-  <si>
-    <t>160 INTERSTATE 75 NB</t>
-  </si>
-  <si>
-    <t>9000 Lee Hwy</t>
-  </si>
-  <si>
-    <t>5426 - 5499 School St</t>
+    <t>Entrapment</t>
+  </si>
+  <si>
+    <t>2019-02-13</t>
+  </si>
+  <si>
+    <t>22:43:56</t>
+  </si>
+  <si>
+    <t>22:42:19</t>
+  </si>
+  <si>
+    <t>20:07:31</t>
+  </si>
+  <si>
+    <t>20:07:22</t>
+  </si>
+  <si>
+    <t>20:04:03</t>
+  </si>
+  <si>
+    <t>20:04:04</t>
+  </si>
+  <si>
+    <t>19:53:55</t>
+  </si>
+  <si>
+    <t>19:53:27</t>
+  </si>
+  <si>
+    <t>18:56:28</t>
+  </si>
+  <si>
+    <t>18:56:08</t>
+  </si>
+  <si>
+    <t>18:45:35</t>
+  </si>
+  <si>
+    <t>17:05:16</t>
+  </si>
+  <si>
+    <t>17:04:58</t>
+  </si>
+  <si>
+    <t>16:01:53</t>
+  </si>
+  <si>
+    <t>12:19:34</t>
+  </si>
+  <si>
+    <t>07:29:45</t>
+  </si>
+  <si>
+    <t>07:28:23</t>
+  </si>
+  <si>
+    <t>07:04:20</t>
+  </si>
+  <si>
+    <t>2501 Broad St</t>
+  </si>
+  <si>
+    <t>5700 Highway 153</t>
+  </si>
+  <si>
+    <t>5764 Highway 153</t>
+  </si>
+  <si>
+    <t>Hickory Valley Rd / Shallowford Rd</t>
+  </si>
+  <si>
+    <t>5610 Ringgold Rd</t>
+  </si>
+  <si>
+    <t>Jenkins Rd / Standifer Gap Rd</t>
+  </si>
+  <si>
+    <t>6300 Lee Hwy</t>
+  </si>
+  <si>
+    <t>101 GLENWOOD DR</t>
+  </si>
+  <si>
+    <t>1500 Dodds Ave</t>
+  </si>
+  <si>
+    <t>2347 Rossville Blvd</t>
+  </si>
+  <si>
+    <t>4190 - 4199 Jenkins Rd</t>
   </si>
   <si>
     <t>CHATTANOOGA</t>
   </si>
   <si>
+    <t>EAST RIDGE</t>
+  </si>
+  <si>
     <t>HAMILTON COUNTY</t>
   </si>
   <si>
-    <t>21</t>
+    <t>22</t>
   </si>
   <si>
     <t>20</t>
@@ -283,22 +292,19 @@
     <t>19</t>
   </si>
   <si>
+    <t>18</t>
+  </si>
+  <si>
     <t>17</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>13</t>
+    <t>16</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
-    <t>10</t>
+    <t>7</t>
   </si>
 </sst>
 </file>
@@ -656,7 +662,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA19"/>
+  <dimension ref="A1:BA20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -828,25 +834,25 @@
         <v>52</v>
       </c>
       <c r="D2">
-        <v>35.04172</v>
+        <v>35.028422</v>
       </c>
       <c r="E2">
-        <v>-85.25831599999999</v>
+        <v>-85.3168</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="Y2">
         <v>2</v>
@@ -854,31 +860,31 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>52</v>
       </c>
       <c r="D3">
-        <v>35.04212</v>
+        <v>35.028422</v>
       </c>
       <c r="E3">
-        <v>-85.25808499999999</v>
+        <v>-85.3168</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Y3">
         <v>2</v>
@@ -886,31 +892,31 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4">
-        <v>35.045636</v>
+        <v>35.151779</v>
       </c>
       <c r="E4">
-        <v>-85.110522</v>
+        <v>-85.248981</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Y4">
         <v>2</v>
@@ -918,31 +924,31 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>52</v>
       </c>
       <c r="D5">
-        <v>35.112743</v>
+        <v>35.151779</v>
       </c>
       <c r="E5">
-        <v>-85.266201</v>
+        <v>-85.248981</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Y5">
         <v>2</v>
@@ -950,31 +956,31 @@
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>52</v>
       </c>
       <c r="D6">
-        <v>35.112743</v>
+        <v>35.152975</v>
       </c>
       <c r="E6">
-        <v>-85.266201</v>
+        <v>-85.24562</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Y6">
         <v>2</v>
@@ -982,31 +988,31 @@
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D7">
-        <v>35.218503</v>
+        <v>35.152975</v>
       </c>
       <c r="E7">
-        <v>-85.27296800000001</v>
+        <v>-85.24562</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Y7">
         <v>2</v>
@@ -1014,31 +1020,31 @@
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D8">
-        <v>35.218503</v>
+        <v>35.152975</v>
       </c>
       <c r="E8">
-        <v>-85.27296800000001</v>
+        <v>-85.24562</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G8" t="s">
         <v>62</v>
       </c>
       <c r="H8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Y8">
         <v>2</v>
@@ -1046,31 +1052,31 @@
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>52</v>
       </c>
       <c r="D9">
-        <v>35.02156</v>
+        <v>35.046274</v>
       </c>
       <c r="E9">
-        <v>-85.297411</v>
+        <v>-85.166282</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G9" t="s">
         <v>63</v>
       </c>
       <c r="H9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Y9">
         <v>2</v>
@@ -1078,31 +1084,31 @@
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>52</v>
       </c>
       <c r="D10">
-        <v>35.02156</v>
+        <v>35.046274</v>
       </c>
       <c r="E10">
-        <v>-85.297411</v>
+        <v>-85.166282</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G10" t="s">
         <v>64</v>
       </c>
       <c r="H10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Y10">
         <v>2</v>
@@ -1110,31 +1116,31 @@
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
         <v>52</v>
       </c>
       <c r="D11">
-        <v>35.138778</v>
+        <v>34.991752</v>
       </c>
       <c r="E11">
-        <v>-85.24719399999999</v>
+        <v>-85.22643100000001</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G11" t="s">
         <v>65</v>
       </c>
       <c r="H11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Y11">
         <v>2</v>
@@ -1142,31 +1148,31 @@
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
         <v>52</v>
       </c>
       <c r="D12">
-        <v>35.138778</v>
+        <v>34.991752</v>
       </c>
       <c r="E12">
-        <v>-85.24719399999999</v>
+        <v>-85.22643100000001</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G12" t="s">
         <v>66</v>
       </c>
       <c r="H12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K12" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Y12">
         <v>2</v>
@@ -1174,28 +1180,28 @@
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D13">
-        <v>35.148021</v>
+        <v>35.044349</v>
       </c>
       <c r="E13">
-        <v>-85.273262</v>
+        <v>-85.128355</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G13" t="s">
         <v>67</v>
       </c>
       <c r="H13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K13" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="P13" t="s">
         <v>92</v>
@@ -1206,31 +1212,31 @@
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
         <v>52</v>
       </c>
       <c r="D14">
-        <v>35.148035</v>
+        <v>35.031699</v>
       </c>
       <c r="E14">
-        <v>-85.27331</v>
+        <v>-85.183432</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G14" t="s">
         <v>68</v>
       </c>
       <c r="H14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y14">
         <v>2</v>
@@ -1238,19 +1244,19 @@
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D15">
-        <v>35.005828</v>
+        <v>35.031699</v>
       </c>
       <c r="E15">
-        <v>-85.207205</v>
+        <v>-85.183432</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G15" t="s">
         <v>69</v>
@@ -1259,7 +1265,7 @@
         <v>81</v>
       </c>
       <c r="K15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P15" t="s">
         <v>93</v>
@@ -1270,19 +1276,19 @@
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="1">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D16">
-        <v>35.085686</v>
+        <v>35.032474</v>
       </c>
       <c r="E16">
-        <v>-85.066688</v>
+        <v>-85.263942</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G16" t="s">
         <v>70</v>
@@ -1291,10 +1297,10 @@
         <v>82</v>
       </c>
       <c r="K16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Y16">
         <v>2</v>
@@ -1302,19 +1308,19 @@
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C17" t="s">
         <v>52</v>
       </c>
       <c r="D17">
-        <v>35.071818</v>
+        <v>35.021984</v>
       </c>
       <c r="E17">
-        <v>-85.101742</v>
+        <v>-85.269446</v>
       </c>
       <c r="F17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G17" t="s">
         <v>71</v>
@@ -1323,10 +1329,10 @@
         <v>83</v>
       </c>
       <c r="K17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y17">
         <v>2</v>
@@ -1334,31 +1340,31 @@
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="1">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="C18" t="s">
         <v>52</v>
       </c>
       <c r="D18">
-        <v>35.071818</v>
+        <v>35.023103</v>
       </c>
       <c r="E18">
-        <v>-85.101742</v>
+        <v>-85.297218</v>
       </c>
       <c r="F18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K18" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P18" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Y18">
         <v>2</v>
@@ -1366,33 +1372,65 @@
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="1">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="C19" t="s">
         <v>52</v>
       </c>
       <c r="D19">
-        <v>35.071818</v>
+        <v>35.023103</v>
       </c>
       <c r="E19">
-        <v>-85.101742</v>
+        <v>-85.297218</v>
       </c>
       <c r="F19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" t="s">
+        <v>84</v>
+      </c>
+      <c r="K19" t="s">
+        <v>86</v>
+      </c>
+      <c r="P19" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="A20" s="1">
+        <v>98</v>
+      </c>
+      <c r="C20" t="s">
         <v>55</v>
       </c>
-      <c r="G19" t="s">
-        <v>71</v>
-      </c>
-      <c r="H19" t="s">
-        <v>83</v>
-      </c>
-      <c r="K19" t="s">
-        <v>84</v>
-      </c>
-      <c r="P19" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y19">
+      <c r="D20">
+        <v>35.05811</v>
+      </c>
+      <c r="E20">
+        <v>-85.127109</v>
+      </c>
+      <c r="F20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" t="s">
+        <v>85</v>
+      </c>
+      <c r="K20" t="s">
+        <v>86</v>
+      </c>
+      <c r="P20" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y20">
         <v>2</v>
       </c>
     </row>

--- a/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="99">
   <si>
     <t>Accident</t>
   </si>
@@ -172,106 +172,109 @@
     <t>Pavement_Type</t>
   </si>
   <si>
+    <t>Entrapment</t>
+  </si>
+  <si>
+    <t>No Injuries</t>
+  </si>
+  <si>
     <t>Injuries</t>
   </si>
   <si>
     <t>Unknown Injuries</t>
   </si>
   <si>
-    <t>No Injuries</t>
-  </si>
-  <si>
-    <t>Entrapment</t>
-  </si>
-  <si>
-    <t>2019-02-13</t>
-  </si>
-  <si>
-    <t>22:43:56</t>
-  </si>
-  <si>
-    <t>22:42:19</t>
-  </si>
-  <si>
-    <t>20:07:31</t>
-  </si>
-  <si>
-    <t>20:07:22</t>
-  </si>
-  <si>
-    <t>20:04:03</t>
-  </si>
-  <si>
-    <t>20:04:04</t>
-  </si>
-  <si>
-    <t>19:53:55</t>
-  </si>
-  <si>
-    <t>19:53:27</t>
-  </si>
-  <si>
-    <t>18:56:28</t>
-  </si>
-  <si>
-    <t>18:56:08</t>
-  </si>
-  <si>
-    <t>18:45:35</t>
-  </si>
-  <si>
-    <t>17:05:16</t>
-  </si>
-  <si>
-    <t>17:04:58</t>
-  </si>
-  <si>
-    <t>16:01:53</t>
-  </si>
-  <si>
-    <t>12:19:34</t>
-  </si>
-  <si>
-    <t>07:29:45</t>
-  </si>
-  <si>
-    <t>07:28:23</t>
-  </si>
-  <si>
-    <t>07:04:20</t>
-  </si>
-  <si>
-    <t>2501 Broad St</t>
-  </si>
-  <si>
-    <t>5700 Highway 153</t>
-  </si>
-  <si>
-    <t>5764 Highway 153</t>
-  </si>
-  <si>
-    <t>Hickory Valley Rd / Shallowford Rd</t>
-  </si>
-  <si>
-    <t>5610 Ringgold Rd</t>
-  </si>
-  <si>
-    <t>Jenkins Rd / Standifer Gap Rd</t>
-  </si>
-  <si>
-    <t>6300 Lee Hwy</t>
-  </si>
-  <si>
-    <t>101 GLENWOOD DR</t>
-  </si>
-  <si>
-    <t>1500 Dodds Ave</t>
-  </si>
-  <si>
-    <t>2347 Rossville Blvd</t>
-  </si>
-  <si>
-    <t>4190 - 4199 Jenkins Rd</t>
+    <t>2019-02-14</t>
+  </si>
+  <si>
+    <t>18:22:45</t>
+  </si>
+  <si>
+    <t>18:14:47</t>
+  </si>
+  <si>
+    <t>18:14:20</t>
+  </si>
+  <si>
+    <t>18:12:37</t>
+  </si>
+  <si>
+    <t>17:08:45</t>
+  </si>
+  <si>
+    <t>16:36:01</t>
+  </si>
+  <si>
+    <t>14:29:09</t>
+  </si>
+  <si>
+    <t>14:28:55</t>
+  </si>
+  <si>
+    <t>13:58:24</t>
+  </si>
+  <si>
+    <t>13:57:46</t>
+  </si>
+  <si>
+    <t>12:59:24</t>
+  </si>
+  <si>
+    <t>12:58:22</t>
+  </si>
+  <si>
+    <t>11:38:57</t>
+  </si>
+  <si>
+    <t>09:14:13</t>
+  </si>
+  <si>
+    <t>09:13:47</t>
+  </si>
+  <si>
+    <t>09:13:20</t>
+  </si>
+  <si>
+    <t>07:51:01</t>
+  </si>
+  <si>
+    <t>07:49:03</t>
+  </si>
+  <si>
+    <t>Bailey Ave / S Holly St</t>
+  </si>
+  <si>
+    <t>4800 - 4828 S Terrace</t>
+  </si>
+  <si>
+    <t>1600 BAILEY AVE</t>
+  </si>
+  <si>
+    <t>6111 Shallowford Rd</t>
+  </si>
+  <si>
+    <t>3700 JENKINS RD</t>
+  </si>
+  <si>
+    <t>Hunter Rd / Highway 58</t>
+  </si>
+  <si>
+    <t>18298 Interstate 24 Eb</t>
+  </si>
+  <si>
+    <t>6397 Lee Hwy</t>
+  </si>
+  <si>
+    <t>18480 Interstate 24 Eb</t>
+  </si>
+  <si>
+    <t>2007 Broad St</t>
+  </si>
+  <si>
+    <t>2000 Broad St</t>
+  </si>
+  <si>
+    <t>2130 Amnicola Hwy</t>
   </si>
   <si>
     <t>CHATTANOOGA</t>
@@ -283,15 +286,6 @@
     <t>HAMILTON COUNTY</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>18</t>
   </si>
   <si>
@@ -301,7 +295,19 @@
     <t>16</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>12</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
   <si>
     <t>7</t>
@@ -662,7 +668,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA20"/>
+  <dimension ref="A1:BA19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -828,16 +834,16 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
       </c>
       <c r="D2">
-        <v>35.028422</v>
+        <v>35.034967</v>
       </c>
       <c r="E2">
-        <v>-85.3168</v>
+        <v>-85.280202</v>
       </c>
       <c r="F2" t="s">
         <v>56</v>
@@ -849,10 +855,10 @@
         <v>75</v>
       </c>
       <c r="K2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Y2">
         <v>2</v>
@@ -860,16 +866,16 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D3">
-        <v>35.028422</v>
+        <v>35.006205</v>
       </c>
       <c r="E3">
-        <v>-85.3168</v>
+        <v>-85.231908</v>
       </c>
       <c r="F3" t="s">
         <v>56</v>
@@ -878,13 +884,13 @@
         <v>58</v>
       </c>
       <c r="H3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Y3">
         <v>2</v>
@@ -892,16 +898,16 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>52</v>
       </c>
       <c r="D4">
-        <v>35.151779</v>
+        <v>35.034967</v>
       </c>
       <c r="E4">
-        <v>-85.248981</v>
+        <v>-85.280202</v>
       </c>
       <c r="F4" t="s">
         <v>56</v>
@@ -910,10 +916,10 @@
         <v>59</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P4" t="s">
         <v>90</v>
@@ -924,16 +930,16 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>52</v>
       </c>
       <c r="D5">
-        <v>35.151779</v>
+        <v>35.034967</v>
       </c>
       <c r="E5">
-        <v>-85.248981</v>
+        <v>-85.280202</v>
       </c>
       <c r="F5" t="s">
         <v>56</v>
@@ -942,10 +948,10 @@
         <v>60</v>
       </c>
       <c r="H5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P5" t="s">
         <v>90</v>
@@ -956,16 +962,16 @@
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D6">
-        <v>35.152975</v>
+        <v>35.053256</v>
       </c>
       <c r="E6">
-        <v>-85.24562</v>
+        <v>-85.182688</v>
       </c>
       <c r="F6" t="s">
         <v>56</v>
@@ -974,13 +980,13 @@
         <v>61</v>
       </c>
       <c r="H6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Y6">
         <v>2</v>
@@ -988,16 +994,16 @@
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D7">
-        <v>35.152975</v>
+        <v>35.054946</v>
       </c>
       <c r="E7">
-        <v>-85.24562</v>
+        <v>-85.126885</v>
       </c>
       <c r="F7" t="s">
         <v>56</v>
@@ -1006,13 +1012,13 @@
         <v>62</v>
       </c>
       <c r="H7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Y7">
         <v>2</v>
@@ -1020,31 +1026,31 @@
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D8">
-        <v>35.152975</v>
+        <v>35.139633</v>
       </c>
       <c r="E8">
-        <v>-85.24562</v>
+        <v>-85.120863</v>
       </c>
       <c r="F8" t="s">
         <v>56</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Y8">
         <v>2</v>
@@ -1052,31 +1058,31 @@
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D9">
-        <v>35.046274</v>
+        <v>35.139633</v>
       </c>
       <c r="E9">
-        <v>-85.166282</v>
+        <v>-85.120863</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>
       </c>
       <c r="G9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K9" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Y9">
         <v>2</v>
@@ -1084,31 +1090,31 @@
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D10">
-        <v>35.046274</v>
+        <v>35.015909</v>
       </c>
       <c r="E10">
-        <v>-85.166282</v>
+        <v>-85.254306</v>
       </c>
       <c r="F10" t="s">
         <v>56</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H10" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Y10">
         <v>2</v>
@@ -1116,31 +1122,31 @@
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D11">
-        <v>34.991752</v>
+        <v>35.015909</v>
       </c>
       <c r="E11">
-        <v>-85.22643100000001</v>
+        <v>-85.254306</v>
       </c>
       <c r="F11" t="s">
         <v>56</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Y11">
         <v>2</v>
@@ -1148,31 +1154,31 @@
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D12">
-        <v>34.991752</v>
+        <v>35.034262</v>
       </c>
       <c r="E12">
-        <v>-85.22643100000001</v>
+        <v>-85.181836</v>
       </c>
       <c r="F12" t="s">
         <v>56</v>
       </c>
       <c r="G12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H12" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K12" t="s">
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Y12">
         <v>2</v>
@@ -1180,31 +1186,31 @@
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
         <v>53</v>
       </c>
       <c r="D13">
-        <v>35.044349</v>
+        <v>35.034262</v>
       </c>
       <c r="E13">
-        <v>-85.128355</v>
+        <v>-85.181836</v>
       </c>
       <c r="F13" t="s">
         <v>56</v>
       </c>
       <c r="G13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Y13">
         <v>2</v>
@@ -1212,31 +1218,31 @@
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D14">
-        <v>35.031699</v>
+        <v>35.004639</v>
       </c>
       <c r="E14">
-        <v>-85.183432</v>
+        <v>-85.225263</v>
       </c>
       <c r="F14" t="s">
         <v>56</v>
       </c>
       <c r="G14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Y14">
         <v>2</v>
@@ -1244,31 +1250,31 @@
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D15">
-        <v>35.031699</v>
+        <v>35.033134</v>
       </c>
       <c r="E15">
-        <v>-85.183432</v>
+        <v>-85.314111</v>
       </c>
       <c r="F15" t="s">
         <v>56</v>
       </c>
       <c r="G15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H15" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="Y15">
         <v>2</v>
@@ -1276,31 +1282,31 @@
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="1">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
         <v>54</v>
       </c>
       <c r="D16">
-        <v>35.032474</v>
+        <v>35.033352</v>
       </c>
       <c r="E16">
-        <v>-85.263942</v>
+        <v>-85.313586</v>
       </c>
       <c r="F16" t="s">
         <v>56</v>
       </c>
       <c r="G16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H16" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Y16">
         <v>2</v>
@@ -1308,31 +1314,31 @@
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="1">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D17">
-        <v>35.021984</v>
+        <v>35.033352</v>
       </c>
       <c r="E17">
-        <v>-85.269446</v>
+        <v>-85.313586</v>
       </c>
       <c r="F17" t="s">
         <v>56</v>
       </c>
       <c r="G17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P17" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Y17">
         <v>2</v>
@@ -1340,31 +1346,31 @@
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="1">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D18">
-        <v>35.023103</v>
+        <v>35.065062</v>
       </c>
       <c r="E18">
-        <v>-85.297218</v>
+        <v>-85.272718</v>
       </c>
       <c r="F18" t="s">
         <v>56</v>
       </c>
       <c r="G18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H18" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Y18">
         <v>2</v>
@@ -1372,65 +1378,33 @@
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="1">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D19">
-        <v>35.023103</v>
+        <v>35.065062</v>
       </c>
       <c r="E19">
-        <v>-85.297218</v>
+        <v>-85.272718</v>
       </c>
       <c r="F19" t="s">
         <v>56</v>
       </c>
       <c r="G19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H19" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Y19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25">
-      <c r="A20" s="1">
-        <v>98</v>
-      </c>
-      <c r="C20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20">
-        <v>35.05811</v>
-      </c>
-      <c r="E20">
-        <v>-85.127109</v>
-      </c>
-      <c r="F20" t="s">
-        <v>56</v>
-      </c>
-      <c r="G20" t="s">
-        <v>74</v>
-      </c>
-      <c r="H20" t="s">
-        <v>85</v>
-      </c>
-      <c r="K20" t="s">
-        <v>86</v>
-      </c>
-      <c r="P20" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y20">
         <v>2</v>
       </c>
     </row>

--- a/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="97">
   <si>
     <t>Accident</t>
   </si>
@@ -175,106 +175,106 @@
     <t>Entrapment</t>
   </si>
   <si>
+    <t>Injuries</t>
+  </si>
+  <si>
     <t>No Injuries</t>
   </si>
   <si>
-    <t>Injuries</t>
-  </si>
-  <si>
     <t>Unknown Injuries</t>
   </si>
   <si>
-    <t>2019-02-14</t>
-  </si>
-  <si>
-    <t>18:22:45</t>
-  </si>
-  <si>
-    <t>18:14:47</t>
-  </si>
-  <si>
-    <t>18:14:20</t>
-  </si>
-  <si>
-    <t>18:12:37</t>
-  </si>
-  <si>
-    <t>17:08:45</t>
-  </si>
-  <si>
-    <t>16:36:01</t>
-  </si>
-  <si>
-    <t>14:29:09</t>
-  </si>
-  <si>
-    <t>14:28:55</t>
-  </si>
-  <si>
-    <t>13:58:24</t>
-  </si>
-  <si>
-    <t>13:57:46</t>
-  </si>
-  <si>
-    <t>12:59:24</t>
-  </si>
-  <si>
-    <t>12:58:22</t>
-  </si>
-  <si>
-    <t>11:38:57</t>
-  </si>
-  <si>
-    <t>09:14:13</t>
-  </si>
-  <si>
-    <t>09:13:47</t>
-  </si>
-  <si>
-    <t>09:13:20</t>
-  </si>
-  <si>
-    <t>07:51:01</t>
-  </si>
-  <si>
-    <t>07:49:03</t>
-  </si>
-  <si>
-    <t>Bailey Ave / S Holly St</t>
-  </si>
-  <si>
-    <t>4800 - 4828 S Terrace</t>
-  </si>
-  <si>
-    <t>1600 BAILEY AVE</t>
-  </si>
-  <si>
-    <t>6111 Shallowford Rd</t>
-  </si>
-  <si>
-    <t>3700 JENKINS RD</t>
-  </si>
-  <si>
-    <t>Hunter Rd / Highway 58</t>
-  </si>
-  <si>
-    <t>18298 Interstate 24 Eb</t>
-  </si>
-  <si>
-    <t>6397 Lee Hwy</t>
-  </si>
-  <si>
-    <t>18480 Interstate 24 Eb</t>
-  </si>
-  <si>
-    <t>2007 Broad St</t>
-  </si>
-  <si>
-    <t>2000 Broad St</t>
-  </si>
-  <si>
-    <t>2130 Amnicola Hwy</t>
+    <t>2019-02-25</t>
+  </si>
+  <si>
+    <t>21:14:02</t>
+  </si>
+  <si>
+    <t>21:13:30</t>
+  </si>
+  <si>
+    <t>17:58:59</t>
+  </si>
+  <si>
+    <t>17:58:22</t>
+  </si>
+  <si>
+    <t>17:46:59</t>
+  </si>
+  <si>
+    <t>17:38:18</t>
+  </si>
+  <si>
+    <t>16:02:58</t>
+  </si>
+  <si>
+    <t>13:51:21</t>
+  </si>
+  <si>
+    <t>13:38:58</t>
+  </si>
+  <si>
+    <t>13:35:42</t>
+  </si>
+  <si>
+    <t>11:52:41</t>
+  </si>
+  <si>
+    <t>11:48:54</t>
+  </si>
+  <si>
+    <t>07:32:35</t>
+  </si>
+  <si>
+    <t>07:24:05</t>
+  </si>
+  <si>
+    <t>07:23:50</t>
+  </si>
+  <si>
+    <t>07:22:12</t>
+  </si>
+  <si>
+    <t>07:20:11</t>
+  </si>
+  <si>
+    <t>03:17:44</t>
+  </si>
+  <si>
+    <t>15600 - 16899 Dayton Pike</t>
+  </si>
+  <si>
+    <t>810-898 Signal Mountain Rd</t>
+  </si>
+  <si>
+    <t>Charger Dr / Broad St</t>
+  </si>
+  <si>
+    <t>Mccallie Ave / S Holtzclaw Ave</t>
+  </si>
+  <si>
+    <t>2333 Mccallie Ave</t>
+  </si>
+  <si>
+    <t>880 Highway 27 Sb</t>
+  </si>
+  <si>
+    <t>4021 Hixson Pike</t>
+  </si>
+  <si>
+    <t>40 Interstate 75 Nb</t>
+  </si>
+  <si>
+    <t>121 Harrison Ln</t>
+  </si>
+  <si>
+    <t>5601 Old Hixson Pike</t>
+  </si>
+  <si>
+    <t>12000 Highway 111 Sb</t>
+  </si>
+  <si>
+    <t>HAMILTON COUNTY</t>
   </si>
   <si>
     <t>CHATTANOOGA</t>
@@ -283,10 +283,10 @@
     <t>EAST RIDGE</t>
   </si>
   <si>
-    <t>HAMILTON COUNTY</t>
-  </si>
-  <si>
-    <t>18</t>
+    <t>SODDY DAISY</t>
+  </si>
+  <si>
+    <t>21</t>
   </si>
   <si>
     <t>17</t>
@@ -295,22 +295,16 @@
     <t>16</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>7</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -834,16 +828,16 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
       </c>
       <c r="D2">
-        <v>35.034967</v>
+        <v>35.39637</v>
       </c>
       <c r="E2">
-        <v>-85.280202</v>
+        <v>-85.10568000000001</v>
       </c>
       <c r="F2" t="s">
         <v>56</v>
@@ -855,7 +849,7 @@
         <v>75</v>
       </c>
       <c r="K2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P2" t="s">
         <v>90</v>
@@ -866,16 +860,16 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3">
-        <v>35.006205</v>
+        <v>35.39637</v>
       </c>
       <c r="E3">
-        <v>-85.231908</v>
+        <v>-85.10568000000001</v>
       </c>
       <c r="F3" t="s">
         <v>56</v>
@@ -884,10 +878,10 @@
         <v>58</v>
       </c>
       <c r="H3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P3" t="s">
         <v>90</v>
@@ -898,16 +892,16 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D4">
-        <v>35.034967</v>
+        <v>35.10086</v>
       </c>
       <c r="E4">
-        <v>-85.280202</v>
+        <v>-85.32922000000001</v>
       </c>
       <c r="F4" t="s">
         <v>56</v>
@@ -916,13 +910,13 @@
         <v>59</v>
       </c>
       <c r="H4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K4" t="s">
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Y4">
         <v>2</v>
@@ -930,16 +924,16 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D5">
-        <v>35.034967</v>
+        <v>35.10086</v>
       </c>
       <c r="E5">
-        <v>-85.280202</v>
+        <v>-85.32922000000001</v>
       </c>
       <c r="F5" t="s">
         <v>56</v>
@@ -948,13 +942,13 @@
         <v>60</v>
       </c>
       <c r="H5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
         <v>87</v>
       </c>
       <c r="P5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Y5">
         <v>2</v>
@@ -962,16 +956,16 @@
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6">
-        <v>35.053256</v>
+        <v>35.015457</v>
       </c>
       <c r="E6">
-        <v>-85.182688</v>
+        <v>-85.323612</v>
       </c>
       <c r="F6" t="s">
         <v>56</v>
@@ -980,7 +974,7 @@
         <v>61</v>
       </c>
       <c r="H6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s">
         <v>87</v>
@@ -994,16 +988,16 @@
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7">
-        <v>35.054946</v>
+        <v>35.038935</v>
       </c>
       <c r="E7">
-        <v>-85.126885</v>
+        <v>-85.28286199999999</v>
       </c>
       <c r="F7" t="s">
         <v>56</v>
@@ -1012,13 +1006,13 @@
         <v>62</v>
       </c>
       <c r="H7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y7">
         <v>2</v>
@@ -1026,16 +1020,16 @@
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8">
-        <v>35.139633</v>
+        <v>35.034727</v>
       </c>
       <c r="E8">
-        <v>-85.120863</v>
+        <v>-85.26761</v>
       </c>
       <c r="F8" t="s">
         <v>56</v>
@@ -1044,13 +1038,13 @@
         <v>63</v>
       </c>
       <c r="H8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y8">
         <v>2</v>
@@ -1058,16 +1052,16 @@
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D9">
-        <v>35.139633</v>
+        <v>35.147048</v>
       </c>
       <c r="E9">
-        <v>-85.120863</v>
+        <v>-85.290778</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>
@@ -1079,7 +1073,7 @@
         <v>80</v>
       </c>
       <c r="K9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P9" t="s">
         <v>93</v>
@@ -1090,16 +1084,16 @@
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D10">
-        <v>35.015909</v>
+        <v>35.147048</v>
       </c>
       <c r="E10">
-        <v>-85.254306</v>
+        <v>-85.290778</v>
       </c>
       <c r="F10" t="s">
         <v>56</v>
@@ -1108,13 +1102,13 @@
         <v>65</v>
       </c>
       <c r="H10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Y10">
         <v>2</v>
@@ -1122,16 +1116,16 @@
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D11">
-        <v>35.015909</v>
+        <v>35.147048</v>
       </c>
       <c r="E11">
-        <v>-85.254306</v>
+        <v>-85.290778</v>
       </c>
       <c r="F11" t="s">
         <v>56</v>
@@ -1140,13 +1134,13 @@
         <v>66</v>
       </c>
       <c r="H11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Y11">
         <v>2</v>
@@ -1154,16 +1148,16 @@
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12">
-        <v>35.034262</v>
+        <v>35.114416</v>
       </c>
       <c r="E12">
-        <v>-85.181836</v>
+        <v>-85.259286</v>
       </c>
       <c r="F12" t="s">
         <v>56</v>
@@ -1172,13 +1166,13 @@
         <v>67</v>
       </c>
       <c r="H12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K12" t="s">
         <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y12">
         <v>2</v>
@@ -1186,16 +1180,16 @@
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
         <v>53</v>
       </c>
       <c r="D13">
-        <v>35.034262</v>
+        <v>35.114416</v>
       </c>
       <c r="E13">
-        <v>-85.181836</v>
+        <v>-85.259286</v>
       </c>
       <c r="F13" t="s">
         <v>56</v>
@@ -1204,13 +1198,13 @@
         <v>68</v>
       </c>
       <c r="H13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K13" t="s">
         <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y13">
         <v>2</v>
@@ -1218,16 +1212,16 @@
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D14">
-        <v>35.004639</v>
+        <v>34.991548</v>
       </c>
       <c r="E14">
-        <v>-85.225263</v>
+        <v>-85.204761</v>
       </c>
       <c r="F14" t="s">
         <v>56</v>
@@ -1236,13 +1230,13 @@
         <v>69</v>
       </c>
       <c r="H14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Y14">
         <v>2</v>
@@ -1250,16 +1244,16 @@
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15">
-        <v>35.033134</v>
+        <v>35.237133</v>
       </c>
       <c r="E15">
-        <v>-85.314111</v>
+        <v>-85.198302</v>
       </c>
       <c r="F15" t="s">
         <v>56</v>
@@ -1268,13 +1262,13 @@
         <v>70</v>
       </c>
       <c r="H15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Y15">
         <v>2</v>
@@ -1282,16 +1276,16 @@
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="1">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D16">
-        <v>35.033352</v>
+        <v>35.237133</v>
       </c>
       <c r="E16">
-        <v>-85.313586</v>
+        <v>-85.198302</v>
       </c>
       <c r="F16" t="s">
         <v>56</v>
@@ -1300,13 +1294,13 @@
         <v>71</v>
       </c>
       <c r="H16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Y16">
         <v>2</v>
@@ -1314,16 +1308,16 @@
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="1">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D17">
-        <v>35.033352</v>
+        <v>35.150081</v>
       </c>
       <c r="E17">
-        <v>-85.313586</v>
+        <v>-85.226829</v>
       </c>
       <c r="F17" t="s">
         <v>56</v>
@@ -1332,13 +1326,13 @@
         <v>72</v>
       </c>
       <c r="H17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K17" t="s">
         <v>87</v>
       </c>
       <c r="P17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Y17">
         <v>2</v>
@@ -1346,16 +1340,16 @@
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="1">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D18">
-        <v>35.065062</v>
+        <v>35.150081</v>
       </c>
       <c r="E18">
-        <v>-85.272718</v>
+        <v>-85.226829</v>
       </c>
       <c r="F18" t="s">
         <v>56</v>
@@ -1364,13 +1358,13 @@
         <v>73</v>
       </c>
       <c r="H18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K18" t="s">
         <v>87</v>
       </c>
       <c r="P18" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="Y18">
         <v>2</v>
@@ -1378,16 +1372,16 @@
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="1">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="C19" t="s">
         <v>53</v>
       </c>
       <c r="D19">
-        <v>35.065062</v>
+        <v>35.309592</v>
       </c>
       <c r="E19">
-        <v>-85.272718</v>
+        <v>-85.16372699999999</v>
       </c>
       <c r="F19" t="s">
         <v>56</v>
@@ -1396,13 +1390,13 @@
         <v>74</v>
       </c>
       <c r="H19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Y19">
         <v>2</v>

--- a/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
   <si>
     <t>Accident</t>
   </si>
@@ -172,106 +172,34 @@
     <t>Pavement_Type</t>
   </si>
   <si>
-    <t>Entrapment</t>
-  </si>
-  <si>
     <t>Injuries</t>
   </si>
   <si>
     <t>No Injuries</t>
   </si>
   <si>
-    <t>Unknown Injuries</t>
-  </si>
-  <si>
-    <t>2019-02-25</t>
-  </si>
-  <si>
-    <t>21:14:02</t>
-  </si>
-  <si>
-    <t>21:13:30</t>
-  </si>
-  <si>
-    <t>17:58:59</t>
-  </si>
-  <si>
-    <t>17:58:22</t>
-  </si>
-  <si>
-    <t>17:46:59</t>
-  </si>
-  <si>
-    <t>17:38:18</t>
-  </si>
-  <si>
-    <t>16:02:58</t>
-  </si>
-  <si>
-    <t>13:51:21</t>
-  </si>
-  <si>
-    <t>13:38:58</t>
-  </si>
-  <si>
-    <t>13:35:42</t>
-  </si>
-  <si>
-    <t>11:52:41</t>
-  </si>
-  <si>
-    <t>11:48:54</t>
-  </si>
-  <si>
-    <t>07:32:35</t>
-  </si>
-  <si>
-    <t>07:24:05</t>
-  </si>
-  <si>
-    <t>07:23:50</t>
-  </si>
-  <si>
-    <t>07:22:12</t>
-  </si>
-  <si>
-    <t>07:20:11</t>
-  </si>
-  <si>
-    <t>03:17:44</t>
-  </si>
-  <si>
-    <t>15600 - 16899 Dayton Pike</t>
-  </si>
-  <si>
-    <t>810-898 Signal Mountain Rd</t>
-  </si>
-  <si>
-    <t>Charger Dr / Broad St</t>
-  </si>
-  <si>
-    <t>Mccallie Ave / S Holtzclaw Ave</t>
-  </si>
-  <si>
-    <t>2333 Mccallie Ave</t>
-  </si>
-  <si>
-    <t>880 Highway 27 Sb</t>
-  </si>
-  <si>
-    <t>4021 Hixson Pike</t>
-  </si>
-  <si>
-    <t>40 Interstate 75 Nb</t>
-  </si>
-  <si>
-    <t>121 Harrison Ln</t>
-  </si>
-  <si>
-    <t>5601 Old Hixson Pike</t>
-  </si>
-  <si>
-    <t>12000 Highway 111 Sb</t>
+    <t>2019-02-26</t>
+  </si>
+  <si>
+    <t>22:41:42</t>
+  </si>
+  <si>
+    <t>16:51:43</t>
+  </si>
+  <si>
+    <t>16:51:24</t>
+  </si>
+  <si>
+    <t>09:47:48</t>
+  </si>
+  <si>
+    <t>7901 MIDDLE VALLEY RD</t>
+  </si>
+  <si>
+    <t>1600 Parkway Dr</t>
+  </si>
+  <si>
+    <t>6000 LEE HWY</t>
   </si>
   <si>
     <t>HAMILTON COUNTY</t>
@@ -280,31 +208,13 @@
     <t>CHATTANOOGA</t>
   </si>
   <si>
-    <t>EAST RIDGE</t>
-  </si>
-  <si>
-    <t>SODDY DAISY</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>17</t>
+    <t>22</t>
   </si>
   <si>
     <t>16</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>9</t>
   </si>
 </sst>
 </file>
@@ -662,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA19"/>
+  <dimension ref="A1:BA5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -828,31 +738,31 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
       </c>
       <c r="D2">
-        <v>35.39637</v>
+        <v>35.196423</v>
       </c>
       <c r="E2">
-        <v>-85.10568000000001</v>
+        <v>-85.183808</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="K2" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="P2" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="Y2">
         <v>2</v>
@@ -860,31 +770,31 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>52</v>
       </c>
       <c r="D3">
-        <v>35.39637</v>
+        <v>35.047159</v>
       </c>
       <c r="E3">
-        <v>-85.10568000000001</v>
+        <v>-85.23576199999999</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>58</v>
-      </c>
       <c r="H3" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="P3" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="Y3">
         <v>2</v>
@@ -892,31 +802,31 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4">
-        <v>35.10086</v>
+        <v>35.047159</v>
       </c>
       <c r="E4">
-        <v>-85.32922000000001</v>
+        <v>-85.23576199999999</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="K4" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="P4" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="Y4">
         <v>2</v>
@@ -924,481 +834,33 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
         <v>53</v>
       </c>
       <c r="D5">
-        <v>35.10086</v>
+        <v>35.024879</v>
       </c>
       <c r="E5">
-        <v>-85.32922000000001</v>
+        <v>-85.194439</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H5" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="K5" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="P5" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="Y5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:53">
-      <c r="A6" s="1">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6">
-        <v>35.015457</v>
-      </c>
-      <c r="E6">
-        <v>-85.323612</v>
-      </c>
-      <c r="F6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" t="s">
-        <v>77</v>
-      </c>
-      <c r="K6" t="s">
-        <v>87</v>
-      </c>
-      <c r="P6" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:53">
-      <c r="A7" s="1">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7">
-        <v>35.038935</v>
-      </c>
-      <c r="E7">
-        <v>-85.28286199999999</v>
-      </c>
-      <c r="F7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K7" t="s">
-        <v>87</v>
-      </c>
-      <c r="P7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:53">
-      <c r="A8" s="1">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8">
-        <v>35.034727</v>
-      </c>
-      <c r="E8">
-        <v>-85.26761</v>
-      </c>
-      <c r="F8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K8" t="s">
-        <v>87</v>
-      </c>
-      <c r="P8" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:53">
-      <c r="A9" s="1">
-        <v>52</v>
-      </c>
-      <c r="C9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9">
-        <v>35.147048</v>
-      </c>
-      <c r="E9">
-        <v>-85.290778</v>
-      </c>
-      <c r="F9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" t="s">
-        <v>80</v>
-      </c>
-      <c r="K9" t="s">
-        <v>87</v>
-      </c>
-      <c r="P9" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:53">
-      <c r="A10" s="1">
-        <v>54</v>
-      </c>
-      <c r="C10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10">
-        <v>35.147048</v>
-      </c>
-      <c r="E10">
-        <v>-85.290778</v>
-      </c>
-      <c r="F10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" t="s">
-        <v>80</v>
-      </c>
-      <c r="K10" t="s">
-        <v>87</v>
-      </c>
-      <c r="P10" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:53">
-      <c r="A11" s="1">
-        <v>55</v>
-      </c>
-      <c r="C11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11">
-        <v>35.147048</v>
-      </c>
-      <c r="E11">
-        <v>-85.290778</v>
-      </c>
-      <c r="F11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" t="s">
-        <v>80</v>
-      </c>
-      <c r="K11" t="s">
-        <v>87</v>
-      </c>
-      <c r="P11" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:53">
-      <c r="A12" s="1">
-        <v>68</v>
-      </c>
-      <c r="C12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12">
-        <v>35.114416</v>
-      </c>
-      <c r="E12">
-        <v>-85.259286</v>
-      </c>
-      <c r="F12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" t="s">
-        <v>81</v>
-      </c>
-      <c r="K12" t="s">
-        <v>87</v>
-      </c>
-      <c r="P12" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:53">
-      <c r="A13" s="1">
-        <v>69</v>
-      </c>
-      <c r="C13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13">
-        <v>35.114416</v>
-      </c>
-      <c r="E13">
-        <v>-85.259286</v>
-      </c>
-      <c r="F13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" t="s">
-        <v>81</v>
-      </c>
-      <c r="K13" t="s">
-        <v>87</v>
-      </c>
-      <c r="P13" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:53">
-      <c r="A14" s="1">
-        <v>94</v>
-      </c>
-      <c r="C14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14">
-        <v>34.991548</v>
-      </c>
-      <c r="E14">
-        <v>-85.204761</v>
-      </c>
-      <c r="F14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H14" t="s">
-        <v>82</v>
-      </c>
-      <c r="K14" t="s">
-        <v>88</v>
-      </c>
-      <c r="P14" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:53">
-      <c r="A15" s="1">
-        <v>97</v>
-      </c>
-      <c r="C15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15">
-        <v>35.237133</v>
-      </c>
-      <c r="E15">
-        <v>-85.198302</v>
-      </c>
-      <c r="F15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" t="s">
-        <v>83</v>
-      </c>
-      <c r="K15" t="s">
-        <v>89</v>
-      </c>
-      <c r="P15" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:53">
-      <c r="A16" s="1">
-        <v>98</v>
-      </c>
-      <c r="C16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16">
-        <v>35.237133</v>
-      </c>
-      <c r="E16">
-        <v>-85.198302</v>
-      </c>
-      <c r="F16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" t="s">
-        <v>71</v>
-      </c>
-      <c r="H16" t="s">
-        <v>83</v>
-      </c>
-      <c r="K16" t="s">
-        <v>89</v>
-      </c>
-      <c r="P16" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25">
-      <c r="A17" s="1">
-        <v>100</v>
-      </c>
-      <c r="C17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17">
-        <v>35.150081</v>
-      </c>
-      <c r="E17">
-        <v>-85.226829</v>
-      </c>
-      <c r="F17" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" t="s">
-        <v>72</v>
-      </c>
-      <c r="H17" t="s">
-        <v>84</v>
-      </c>
-      <c r="K17" t="s">
-        <v>87</v>
-      </c>
-      <c r="P17" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25">
-      <c r="A18" s="1">
-        <v>101</v>
-      </c>
-      <c r="C18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18">
-        <v>35.150081</v>
-      </c>
-      <c r="E18">
-        <v>-85.226829</v>
-      </c>
-      <c r="F18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18" t="s">
-        <v>73</v>
-      </c>
-      <c r="H18" t="s">
-        <v>84</v>
-      </c>
-      <c r="K18" t="s">
-        <v>87</v>
-      </c>
-      <c r="P18" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25">
-      <c r="A19" s="1">
-        <v>108</v>
-      </c>
-      <c r="C19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19">
-        <v>35.309592</v>
-      </c>
-      <c r="E19">
-        <v>-85.16372699999999</v>
-      </c>
-      <c r="F19" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" t="s">
-        <v>74</v>
-      </c>
-      <c r="H19" t="s">
-        <v>85</v>
-      </c>
-      <c r="K19" t="s">
-        <v>89</v>
-      </c>
-      <c r="P19" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y19">
         <v>2</v>
       </c>
     </row>

--- a/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="104">
   <si>
     <t>Accident</t>
   </si>
@@ -178,43 +178,154 @@
     <t>No Injuries</t>
   </si>
   <si>
-    <t>2019-02-26</t>
-  </si>
-  <si>
-    <t>22:41:42</t>
-  </si>
-  <si>
-    <t>16:51:43</t>
-  </si>
-  <si>
-    <t>16:51:24</t>
-  </si>
-  <si>
-    <t>09:47:48</t>
-  </si>
-  <si>
-    <t>7901 MIDDLE VALLEY RD</t>
-  </si>
-  <si>
-    <t>1600 Parkway Dr</t>
-  </si>
-  <si>
-    <t>6000 LEE HWY</t>
+    <t>Unknown Injuries</t>
+  </si>
+  <si>
+    <t>Entrapment</t>
+  </si>
+  <si>
+    <t>2019-02-28</t>
+  </si>
+  <si>
+    <t>22:54:48</t>
+  </si>
+  <si>
+    <t>22:52:04</t>
+  </si>
+  <si>
+    <t>21:50:16</t>
+  </si>
+  <si>
+    <t>21:49:41</t>
+  </si>
+  <si>
+    <t>21:42:10</t>
+  </si>
+  <si>
+    <t>19:39:47</t>
+  </si>
+  <si>
+    <t>17:37:31</t>
+  </si>
+  <si>
+    <t>17:35:36</t>
+  </si>
+  <si>
+    <t>17:20:32</t>
+  </si>
+  <si>
+    <t>16:56:40</t>
+  </si>
+  <si>
+    <t>16:55:52</t>
+  </si>
+  <si>
+    <t>16:55:31</t>
+  </si>
+  <si>
+    <t>16:55:05</t>
+  </si>
+  <si>
+    <t>16:47:44</t>
+  </si>
+  <si>
+    <t>14:16:40</t>
+  </si>
+  <si>
+    <t>13:13:25</t>
+  </si>
+  <si>
+    <t>13:12:51</t>
+  </si>
+  <si>
+    <t>09:49:49</t>
+  </si>
+  <si>
+    <t>07:49:53</t>
+  </si>
+  <si>
+    <t>07:09:25</t>
+  </si>
+  <si>
+    <t>Montview Dr / Sequoia Dr</t>
+  </si>
+  <si>
+    <t>7400-7499 E Brainerd Rd</t>
+  </si>
+  <si>
+    <t>700 Interstate 75 Nb</t>
+  </si>
+  <si>
+    <t>18120 - 18249 Interstate 24 Eb</t>
+  </si>
+  <si>
+    <t>1300-1399 N Chamberlain Ave</t>
+  </si>
+  <si>
+    <t>1667 Ooltewah Ringgold Rd</t>
+  </si>
+  <si>
+    <t>Fagan St / E 23rd St</t>
+  </si>
+  <si>
+    <t>1209 Shallowford Rd</t>
+  </si>
+  <si>
+    <t>18400 Interstate 24 Wb</t>
+  </si>
+  <si>
+    <t>2136 Chapman Rd</t>
+  </si>
+  <si>
+    <t>2501-2599 Dayton Blvd</t>
+  </si>
+  <si>
+    <t>5238 Highway 153</t>
+  </si>
+  <si>
+    <t>Ringgold Rd / Merrill St</t>
+  </si>
+  <si>
+    <t>5777-5799 Highway 153</t>
+  </si>
+  <si>
+    <t>CHATTANOOGA</t>
   </si>
   <si>
     <t>HAMILTON COUNTY</t>
   </si>
   <si>
-    <t>CHATTANOOGA</t>
+    <t>RED BANK</t>
+  </si>
+  <si>
+    <t>EAST RIDGE</t>
   </si>
   <si>
     <t>22</t>
   </si>
   <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
     <t>16</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>9</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
 </sst>
 </file>
@@ -572,7 +683,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA5"/>
+  <dimension ref="A1:BA22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -744,25 +855,25 @@
         <v>52</v>
       </c>
       <c r="D2">
-        <v>35.196423</v>
+        <v>35.020806</v>
       </c>
       <c r="E2">
-        <v>-85.183808</v>
+        <v>-85.230861</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H2" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="K2" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="P2" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="Y2">
         <v>2</v>
@@ -770,31 +881,31 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>52</v>
       </c>
       <c r="D3">
-        <v>35.047159</v>
+        <v>35.020806</v>
       </c>
       <c r="E3">
-        <v>-85.23576199999999</v>
+        <v>-85.230861</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H3" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="K3" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="Y3">
         <v>2</v>
@@ -802,31 +913,31 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>52</v>
       </c>
       <c r="D4">
-        <v>35.047159</v>
+        <v>35.01498</v>
       </c>
       <c r="E4">
-        <v>-85.23576199999999</v>
+        <v>-85.163355</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H4" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="Y4">
         <v>2</v>
@@ -834,33 +945,577 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5">
+        <v>35.01498</v>
+      </c>
+      <c r="E5">
+        <v>-85.163355</v>
+      </c>
+      <c r="F5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
+        <v>91</v>
+      </c>
+      <c r="P5" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53">
+      <c r="A6" s="1">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6">
+        <v>35.055684</v>
+      </c>
+      <c r="E6">
+        <v>-85.136675</v>
+      </c>
+      <c r="F6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>91</v>
+      </c>
+      <c r="P6" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53">
+      <c r="A7" s="1">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7">
+        <v>35.015381</v>
+      </c>
+      <c r="E7">
+        <v>-85.276945</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:53">
+      <c r="A8" s="1">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8">
+        <v>35.050075</v>
+      </c>
+      <c r="E8">
+        <v>-85.257403</v>
+      </c>
+      <c r="F8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="P8" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53">
+      <c r="A9" s="1">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
         <v>53</v>
       </c>
-      <c r="D5">
-        <v>35.024879</v>
-      </c>
-      <c r="E5">
-        <v>-85.194439</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="D9">
+        <v>34.997964</v>
+      </c>
+      <c r="E9">
+        <v>-85.096726</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" t="s">
+        <v>82</v>
+      </c>
+      <c r="K9" t="s">
+        <v>92</v>
+      </c>
+      <c r="P9" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:53">
+      <c r="A10" s="1">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
         <v>54</v>
       </c>
-      <c r="G5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" t="s">
-        <v>61</v>
-      </c>
-      <c r="K5" t="s">
-        <v>63</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="D10">
+        <v>35.024513</v>
+      </c>
+      <c r="E10">
+        <v>-85.297979</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" t="s">
+        <v>91</v>
+      </c>
+      <c r="P10" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:53">
+      <c r="A11" s="1">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11">
+        <v>35.041039</v>
+      </c>
+      <c r="E11">
+        <v>-85.225252</v>
+      </c>
+      <c r="F11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" t="s">
         <v>66</v>
       </c>
-      <c r="Y5">
+      <c r="H11" t="s">
+        <v>84</v>
+      </c>
+      <c r="K11" t="s">
+        <v>91</v>
+      </c>
+      <c r="P11" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:53">
+      <c r="A12" s="1">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12">
+        <v>35.041039</v>
+      </c>
+      <c r="E12">
+        <v>-85.225252</v>
+      </c>
+      <c r="F12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" t="s">
+        <v>84</v>
+      </c>
+      <c r="K12" t="s">
+        <v>91</v>
+      </c>
+      <c r="P12" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:53">
+      <c r="A13" s="1">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13">
+        <v>35.041039</v>
+      </c>
+      <c r="E13">
+        <v>-85.225252</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" t="s">
+        <v>84</v>
+      </c>
+      <c r="K13" t="s">
+        <v>91</v>
+      </c>
+      <c r="P13" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:53">
+      <c r="A14" s="1">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14">
+        <v>35.041039</v>
+      </c>
+      <c r="E14">
+        <v>-85.225252</v>
+      </c>
+      <c r="F14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14" t="s">
+        <v>91</v>
+      </c>
+      <c r="P14" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:53">
+      <c r="A15" s="1">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15">
+        <v>35.041039</v>
+      </c>
+      <c r="E15">
+        <v>-85.225252</v>
+      </c>
+      <c r="F15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" t="s">
+        <v>84</v>
+      </c>
+      <c r="K15" t="s">
+        <v>91</v>
+      </c>
+      <c r="P15" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:53">
+      <c r="A16" s="1">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16">
+        <v>35.008957</v>
+      </c>
+      <c r="E16">
+        <v>-85.238046</v>
+      </c>
+      <c r="F16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" t="s">
+        <v>85</v>
+      </c>
+      <c r="K16" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
+      <c r="A17" s="1">
+        <v>81</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17">
+        <v>35.058295</v>
+      </c>
+      <c r="E17">
+        <v>-85.18803699999999</v>
+      </c>
+      <c r="F17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" t="s">
+        <v>86</v>
+      </c>
+      <c r="K17" t="s">
+        <v>91</v>
+      </c>
+      <c r="P17" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="A18" s="1">
+        <v>94</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18">
+        <v>35.09804</v>
+      </c>
+      <c r="E18">
+        <v>-85.304134</v>
+      </c>
+      <c r="F18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" t="s">
+        <v>87</v>
+      </c>
+      <c r="K18" t="s">
+        <v>93</v>
+      </c>
+      <c r="P18" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="A19" s="1">
+        <v>95</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19">
+        <v>35.09804</v>
+      </c>
+      <c r="E19">
+        <v>-85.304134</v>
+      </c>
+      <c r="F19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" t="s">
+        <v>87</v>
+      </c>
+      <c r="K19" t="s">
+        <v>93</v>
+      </c>
+      <c r="P19" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="A20" s="1">
+        <v>109</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20">
+        <v>35.124937</v>
+      </c>
+      <c r="E20">
+        <v>-85.240093</v>
+      </c>
+      <c r="F20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" t="s">
+        <v>88</v>
+      </c>
+      <c r="K20" t="s">
+        <v>91</v>
+      </c>
+      <c r="P20" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
+      <c r="A21" s="1">
+        <v>120</v>
+      </c>
+      <c r="C21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21">
+        <v>34.99755</v>
+      </c>
+      <c r="E21">
+        <v>-85.24654</v>
+      </c>
+      <c r="F21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" t="s">
+        <v>89</v>
+      </c>
+      <c r="K21" t="s">
+        <v>94</v>
+      </c>
+      <c r="P21" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
+      <c r="A22" s="1">
+        <v>125</v>
+      </c>
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22">
+        <v>35.15791</v>
+      </c>
+      <c r="E22">
+        <v>-85.24863999999999</v>
+      </c>
+      <c r="F22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" t="s">
+        <v>76</v>
+      </c>
+      <c r="H22" t="s">
+        <v>90</v>
+      </c>
+      <c r="K22" t="s">
+        <v>91</v>
+      </c>
+      <c r="P22" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y22">
         <v>2</v>
       </c>
     </row>

--- a/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="116">
   <si>
     <t>Accident</t>
   </si>
@@ -178,133 +178,166 @@
     <t>No Injuries</t>
   </si>
   <si>
-    <t>Unknown Injuries</t>
-  </si>
-  <si>
-    <t>Entrapment</t>
-  </si>
-  <si>
-    <t>2019-02-28</t>
-  </si>
-  <si>
-    <t>22:54:48</t>
-  </si>
-  <si>
-    <t>22:52:04</t>
-  </si>
-  <si>
-    <t>21:50:16</t>
-  </si>
-  <si>
-    <t>21:49:41</t>
-  </si>
-  <si>
-    <t>21:42:10</t>
-  </si>
-  <si>
-    <t>19:39:47</t>
-  </si>
-  <si>
-    <t>17:37:31</t>
-  </si>
-  <si>
-    <t>17:35:36</t>
-  </si>
-  <si>
-    <t>17:20:32</t>
-  </si>
-  <si>
-    <t>16:56:40</t>
-  </si>
-  <si>
-    <t>16:55:52</t>
-  </si>
-  <si>
-    <t>16:55:31</t>
-  </si>
-  <si>
-    <t>16:55:05</t>
-  </si>
-  <si>
-    <t>16:47:44</t>
-  </si>
-  <si>
-    <t>14:16:40</t>
-  </si>
-  <si>
-    <t>13:13:25</t>
-  </si>
-  <si>
-    <t>13:12:51</t>
-  </si>
-  <si>
-    <t>09:49:49</t>
-  </si>
-  <si>
-    <t>07:49:53</t>
-  </si>
-  <si>
-    <t>07:09:25</t>
-  </si>
-  <si>
-    <t>Montview Dr / Sequoia Dr</t>
-  </si>
-  <si>
-    <t>7400-7499 E Brainerd Rd</t>
-  </si>
-  <si>
-    <t>700 Interstate 75 Nb</t>
-  </si>
-  <si>
-    <t>18120 - 18249 Interstate 24 Eb</t>
-  </si>
-  <si>
-    <t>1300-1399 N Chamberlain Ave</t>
-  </si>
-  <si>
-    <t>1667 Ooltewah Ringgold Rd</t>
-  </si>
-  <si>
-    <t>Fagan St / E 23rd St</t>
-  </si>
-  <si>
-    <t>1209 Shallowford Rd</t>
-  </si>
-  <si>
-    <t>18400 Interstate 24 Wb</t>
-  </si>
-  <si>
-    <t>2136 Chapman Rd</t>
-  </si>
-  <si>
-    <t>2501-2599 Dayton Blvd</t>
-  </si>
-  <si>
-    <t>5238 Highway 153</t>
-  </si>
-  <si>
-    <t>Ringgold Rd / Merrill St</t>
-  </si>
-  <si>
-    <t>5777-5799 Highway 153</t>
+    <t>2019-03-06</t>
+  </si>
+  <si>
+    <t>23:11:59</t>
+  </si>
+  <si>
+    <t>22:52:00</t>
+  </si>
+  <si>
+    <t>20:50:18</t>
+  </si>
+  <si>
+    <t>20:09:53</t>
+  </si>
+  <si>
+    <t>20:03:27</t>
+  </si>
+  <si>
+    <t>19:05:57</t>
+  </si>
+  <si>
+    <t>19:05:42</t>
+  </si>
+  <si>
+    <t>17:46:59</t>
+  </si>
+  <si>
+    <t>17:46:00</t>
+  </si>
+  <si>
+    <t>17:00:43</t>
+  </si>
+  <si>
+    <t>16:59:46</t>
+  </si>
+  <si>
+    <t>16:20:16</t>
+  </si>
+  <si>
+    <t>16:19:48</t>
+  </si>
+  <si>
+    <t>16:09:39</t>
+  </si>
+  <si>
+    <t>13:43:45</t>
+  </si>
+  <si>
+    <t>13:42:59</t>
+  </si>
+  <si>
+    <t>13:25:29</t>
+  </si>
+  <si>
+    <t>12:54:54</t>
+  </si>
+  <si>
+    <t>12:15:13</t>
+  </si>
+  <si>
+    <t>11:42:37</t>
+  </si>
+  <si>
+    <t>11:41:16</t>
+  </si>
+  <si>
+    <t>11:32:01</t>
+  </si>
+  <si>
+    <t>11:32:00</t>
+  </si>
+  <si>
+    <t>08:55:28</t>
+  </si>
+  <si>
+    <t>02:22:31</t>
+  </si>
+  <si>
+    <t>02:21:45</t>
+  </si>
+  <si>
+    <t>2200 GUNBARREL RD</t>
+  </si>
+  <si>
+    <t>7400-7439 Shallowford Rd</t>
+  </si>
+  <si>
+    <t>4348 Ringgold Rd</t>
+  </si>
+  <si>
+    <t>3410 CAMPBELL ST</t>
+  </si>
+  <si>
+    <t>3301-3489 Campbell St</t>
+  </si>
+  <si>
+    <t>3800 HIXSON PIKE</t>
+  </si>
+  <si>
+    <t>3800 Hixson Pike</t>
+  </si>
+  <si>
+    <t>7331 Shallowford Rd</t>
+  </si>
+  <si>
+    <t>3440 WILCOX BLVD</t>
+  </si>
+  <si>
+    <t>1521 Gunbarrel Rd</t>
+  </si>
+  <si>
+    <t>1343 Sequoyah Access Rd</t>
+  </si>
+  <si>
+    <t>8341-8359 Daisy Dallas Rd</t>
+  </si>
+  <si>
+    <t>520 Menlo St</t>
+  </si>
+  <si>
+    <t>11100-11198 E Brainerd Rd</t>
+  </si>
+  <si>
+    <t>3410 Amnicola Hwy</t>
+  </si>
+  <si>
+    <t>3700 Cummings Hwy</t>
+  </si>
+  <si>
+    <t>437 Alexian Way</t>
+  </si>
+  <si>
+    <t>2245 Hickory Valley Rd</t>
+  </si>
+  <si>
+    <t>6619-6637 Ringgold Rd</t>
   </si>
   <si>
     <t>CHATTANOOGA</t>
   </si>
   <si>
+    <t>EAST RIDGE</t>
+  </si>
+  <si>
     <t>HAMILTON COUNTY</t>
   </si>
   <si>
-    <t>RED BANK</t>
-  </si>
-  <si>
-    <t>EAST RIDGE</t>
+    <t>LAKESITE</t>
+  </si>
+  <si>
+    <t>SIGNAL MOUNTAIN</t>
+  </si>
+  <si>
+    <t>23</t>
   </si>
   <si>
     <t>22</t>
   </si>
   <si>
-    <t>21</t>
+    <t>20</t>
   </si>
   <si>
     <t>19</t>
@@ -316,16 +349,19 @@
     <t>16</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>7</t>
+    <t>12</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -683,7 +719,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA22"/>
+  <dimension ref="A1:BA27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -849,34 +885,34 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
       </c>
       <c r="D2">
-        <v>35.020806</v>
+        <v>35.036959</v>
       </c>
       <c r="E2">
-        <v>-85.230861</v>
+        <v>-85.15182299999999</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K2" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="P2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="Y2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:53">
@@ -887,636 +923,796 @@
         <v>52</v>
       </c>
       <c r="D3">
-        <v>35.020806</v>
+        <v>35.040311</v>
       </c>
       <c r="E3">
-        <v>-85.230861</v>
+        <v>-85.149934</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>58</v>
-      </c>
       <c r="H3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K3" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="P3" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="Y3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>52</v>
       </c>
       <c r="D4">
-        <v>35.01498</v>
+        <v>34.995303</v>
       </c>
       <c r="E4">
-        <v>-85.163355</v>
+        <v>-85.23669200000001</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K4" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="P4" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="Y4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>52</v>
       </c>
       <c r="D5">
-        <v>35.01498</v>
+        <v>35.073096</v>
       </c>
       <c r="E5">
-        <v>-85.163355</v>
+        <v>-85.238225</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K5" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="P5" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="Y5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D6">
-        <v>35.055684</v>
+        <v>35.07343</v>
       </c>
       <c r="E6">
-        <v>-85.136675</v>
+        <v>-85.239789</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="K6" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="P6" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="Y6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
         <v>52</v>
       </c>
       <c r="D7">
-        <v>35.015381</v>
+        <v>35.10998</v>
       </c>
       <c r="E7">
-        <v>-85.276945</v>
+        <v>-85.27097999999999</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="P7" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="Y7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
         <v>52</v>
       </c>
       <c r="D8">
-        <v>35.050075</v>
+        <v>35.10998</v>
       </c>
       <c r="E8">
-        <v>-85.257403</v>
+        <v>-85.27097999999999</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H8" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="Y8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9">
-        <v>34.997964</v>
+        <v>35.040933</v>
       </c>
       <c r="E9">
-        <v>-85.096726</v>
+        <v>-85.150722</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H9" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="P9" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="Y9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D10">
-        <v>35.024513</v>
+        <v>35.040933</v>
       </c>
       <c r="E10">
-        <v>-85.297979</v>
+        <v>-85.150722</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H10" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K10" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="P10" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="Y10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
         <v>52</v>
       </c>
       <c r="D11">
-        <v>35.041039</v>
+        <v>35.046965</v>
       </c>
       <c r="E11">
-        <v>-85.225252</v>
+        <v>-85.23821599999999</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H11" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K11" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="P11" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="Y11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
         <v>52</v>
       </c>
       <c r="D12">
-        <v>35.041039</v>
+        <v>35.046965</v>
       </c>
       <c r="E12">
-        <v>-85.225252</v>
+        <v>-85.23821599999999</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H12" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="Y12">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
         <v>52</v>
       </c>
       <c r="D13">
-        <v>35.041039</v>
+        <v>35.017148</v>
       </c>
       <c r="E13">
-        <v>-85.225252</v>
+        <v>-85.162616</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H13" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K13" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="P13" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="Y13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D14">
-        <v>35.041039</v>
+        <v>35.017148</v>
       </c>
       <c r="E14">
-        <v>-85.225252</v>
+        <v>-85.162616</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H14" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K14" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="Y14">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
         <v>52</v>
       </c>
       <c r="D15">
-        <v>35.041039</v>
+        <v>35.231926</v>
       </c>
       <c r="E15">
-        <v>-85.225252</v>
+        <v>-85.14700499999999</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H15" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="K15" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="P15" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="Y15">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="1">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
         <v>52</v>
       </c>
       <c r="D16">
-        <v>35.008957</v>
+        <v>35.20476</v>
       </c>
       <c r="E16">
-        <v>-85.238046</v>
+        <v>-85.16388000000001</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H16" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="K16" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="P16" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="Y16">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="1">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
         <v>52</v>
       </c>
       <c r="D17">
-        <v>35.058295</v>
+        <v>35.20476</v>
       </c>
       <c r="E17">
-        <v>-85.18803699999999</v>
+        <v>-85.16388000000001</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H17" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K17" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="Y17">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="1">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
         <v>52</v>
       </c>
       <c r="D18">
-        <v>35.09804</v>
+        <v>35.032681</v>
       </c>
       <c r="E18">
-        <v>-85.304134</v>
+        <v>-85.24011900000001</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H18" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K18" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="Y18">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="1">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
         <v>52</v>
       </c>
       <c r="D19">
-        <v>35.09804</v>
+        <v>35.01689</v>
       </c>
       <c r="E19">
-        <v>-85.304134</v>
+        <v>-85.03117</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H19" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="K19" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="P19" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="Y19">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="1">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s">
         <v>52</v>
       </c>
       <c r="D20">
-        <v>35.124937</v>
+        <v>35.081783</v>
       </c>
       <c r="E20">
-        <v>-85.240093</v>
+        <v>-85.26321</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H20" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="K20" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="Y20">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="1">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D21">
-        <v>34.99755</v>
+        <v>35.017822</v>
       </c>
       <c r="E21">
-        <v>-85.24654</v>
+        <v>-85.379255</v>
       </c>
       <c r="F21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H21" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K21" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="Y21">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="1">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D22">
-        <v>35.15791</v>
+        <v>35.017822</v>
       </c>
       <c r="E22">
-        <v>-85.24863999999999</v>
+        <v>-85.379255</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G22" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22" t="s">
+        <v>96</v>
+      </c>
+      <c r="K22" t="s">
+        <v>100</v>
+      </c>
+      <c r="P22" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
+      <c r="A23" s="1">
+        <v>99</v>
+      </c>
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23">
+        <v>35.123898</v>
+      </c>
+      <c r="E23">
+        <v>-85.364769</v>
+      </c>
+      <c r="F23" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" t="s">
         <v>76</v>
       </c>
-      <c r="H22" t="s">
-        <v>90</v>
-      </c>
-      <c r="K22" t="s">
-        <v>91</v>
-      </c>
-      <c r="P22" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y22">
-        <v>2</v>
+      <c r="H23" t="s">
+        <v>97</v>
+      </c>
+      <c r="K23" t="s">
+        <v>104</v>
+      </c>
+      <c r="P23" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
+      <c r="A24" s="1">
+        <v>100</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24">
+        <v>35.123898</v>
+      </c>
+      <c r="E24">
+        <v>-85.364769</v>
+      </c>
+      <c r="F24" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" t="s">
+        <v>97</v>
+      </c>
+      <c r="K24" t="s">
+        <v>104</v>
+      </c>
+      <c r="P24" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="A25" s="1">
+        <v>108</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25">
+        <v>35.046061</v>
+      </c>
+      <c r="E25">
+        <v>-85.167018</v>
+      </c>
+      <c r="F25" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" t="s">
+        <v>78</v>
+      </c>
+      <c r="H25" t="s">
+        <v>98</v>
+      </c>
+      <c r="K25" t="s">
+        <v>100</v>
+      </c>
+      <c r="P25" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
+      <c r="A26" s="1">
+        <v>118</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26">
+        <v>34.989817</v>
+      </c>
+      <c r="E26">
+        <v>-85.204919</v>
+      </c>
+      <c r="F26" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" t="s">
+        <v>79</v>
+      </c>
+      <c r="H26" t="s">
+        <v>99</v>
+      </c>
+      <c r="K26" t="s">
+        <v>101</v>
+      </c>
+      <c r="P26" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
+      <c r="A27" s="1">
+        <v>119</v>
+      </c>
+      <c r="C27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27">
+        <v>34.989817</v>
+      </c>
+      <c r="E27">
+        <v>-85.204919</v>
+      </c>
+      <c r="F27" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" t="s">
+        <v>80</v>
+      </c>
+      <c r="H27" t="s">
+        <v>99</v>
+      </c>
+      <c r="K27" t="s">
+        <v>101</v>
+      </c>
+      <c r="P27" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y27">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="90">
   <si>
     <t>Accident</t>
   </si>
@@ -175,205 +175,103 @@
     <t>Pavement_Type</t>
   </si>
   <si>
+    <t>Unknown Injuries</t>
+  </si>
+  <si>
     <t>Injuries</t>
   </si>
   <si>
-    <t>Entrapment</t>
-  </si>
-  <si>
-    <t>Unknown Injuries</t>
-  </si>
-  <si>
-    <t>No Injuries</t>
-  </si>
-  <si>
-    <t>2019-03-08</t>
-  </si>
-  <si>
-    <t>23:39:58</t>
-  </si>
-  <si>
-    <t>23:38:41</t>
-  </si>
-  <si>
-    <t>23:30:52</t>
-  </si>
-  <si>
-    <t>20:25:05</t>
-  </si>
-  <si>
-    <t>20:12:02</t>
-  </si>
-  <si>
-    <t>20:09:31</t>
-  </si>
-  <si>
-    <t>19:20:32</t>
-  </si>
-  <si>
-    <t>18:56:14</t>
-  </si>
-  <si>
-    <t>18:55:48</t>
-  </si>
-  <si>
-    <t>18:47:44</t>
-  </si>
-  <si>
-    <t>18:47:16</t>
-  </si>
-  <si>
-    <t>17:40:40</t>
-  </si>
-  <si>
-    <t>17:40:28</t>
-  </si>
-  <si>
-    <t>17:31:58</t>
-  </si>
-  <si>
-    <t>16:30:51</t>
-  </si>
-  <si>
-    <t>15:56:45</t>
-  </si>
-  <si>
-    <t>15:08:28</t>
-  </si>
-  <si>
-    <t>15:08:11</t>
-  </si>
-  <si>
-    <t>13:36:52</t>
-  </si>
-  <si>
-    <t>13:21:57</t>
-  </si>
-  <si>
-    <t>13:21:20</t>
-  </si>
-  <si>
-    <t>13:05:35</t>
-  </si>
-  <si>
-    <t>12:38:23</t>
-  </si>
-  <si>
-    <t>11:55:50</t>
-  </si>
-  <si>
-    <t>11:54:37</t>
-  </si>
-  <si>
-    <t>10:56:32</t>
-  </si>
-  <si>
-    <t>10:19:17</t>
-  </si>
-  <si>
-    <t>07:58:28</t>
-  </si>
-  <si>
-    <t>07:58:03</t>
-  </si>
-  <si>
-    <t>07:42:55</t>
-  </si>
-  <si>
-    <t>18310-18399 Interstate 24 Eb</t>
-  </si>
-  <si>
-    <t>18310-18399 INTERSTATE 24 EB</t>
-  </si>
-  <si>
-    <t>760 Interstate 75 Sb</t>
-  </si>
-  <si>
-    <t>1400 S HOLTZCLAW AVE</t>
-  </si>
-  <si>
-    <t>340 INTERSTATE 75 NB</t>
-  </si>
-  <si>
-    <t>1 - 9 Exit 2 Off Ramp Sb</t>
-  </si>
-  <si>
-    <t>1700 - 1899 E 32nd St</t>
-  </si>
-  <si>
-    <t>650 INTERSTATE 75 SB</t>
-  </si>
-  <si>
-    <t>4704 Rossville Blvd</t>
-  </si>
-  <si>
-    <t>2600 Oak St</t>
-  </si>
-  <si>
-    <t>Wilcox Blvd / N Chamberlain Ave</t>
-  </si>
-  <si>
-    <t>2300 - 2349 Hickory Valley Rd</t>
-  </si>
-  <si>
-    <t>1529 GUNBARREL RD</t>
-  </si>
-  <si>
-    <t>7007 Garfield Rd</t>
-  </si>
-  <si>
-    <t>100 INTERSTATE 75 SB</t>
-  </si>
-  <si>
-    <t>1529 Gunbarrel Rd</t>
-  </si>
-  <si>
-    <t>4700 Highway 58</t>
-  </si>
-  <si>
-    <t>5199 NEW COUNTRY DR</t>
-  </si>
-  <si>
-    <t>18330 INTERSTATE 24 WB</t>
-  </si>
-  <si>
-    <t>7623 Gann Rd</t>
-  </si>
-  <si>
-    <t>600 TUNNEL BLVD</t>
+    <t>2019-03-12</t>
+  </si>
+  <si>
+    <t>23:58:47</t>
+  </si>
+  <si>
+    <t>18:07:06</t>
+  </si>
+  <si>
+    <t>18:04:40</t>
+  </si>
+  <si>
+    <t>16:12:14</t>
+  </si>
+  <si>
+    <t>15:30:49</t>
+  </si>
+  <si>
+    <t>14:55:21</t>
+  </si>
+  <si>
+    <t>14:54:39</t>
+  </si>
+  <si>
+    <t>12:28:06</t>
+  </si>
+  <si>
+    <t>12:27:39</t>
+  </si>
+  <si>
+    <t>11:52:35</t>
+  </si>
+  <si>
+    <t>08:10:12</t>
+  </si>
+  <si>
+    <t>08:09:06</t>
+  </si>
+  <si>
+    <t>01:30:02</t>
+  </si>
+  <si>
+    <t>3967 Webb Rd</t>
+  </si>
+  <si>
+    <t>4120 - 4624 Shallowford Rd</t>
+  </si>
+  <si>
+    <t>E 28th St / 4th Ave</t>
+  </si>
+  <si>
+    <t>570-709 Highway 153 Sb</t>
+  </si>
+  <si>
+    <t>1300 MCCALLIE AVE</t>
+  </si>
+  <si>
+    <t>1300 Mccallie Ave</t>
+  </si>
+  <si>
+    <t>1816 Gunbarrel Rd</t>
+  </si>
+  <si>
+    <t>7000 MIDDLE VALLEY RD</t>
+  </si>
+  <si>
+    <t>1 - 9 Exit 9 W On Ramp Sb</t>
+  </si>
+  <si>
+    <t>418 Hyatte Rd</t>
   </si>
   <si>
     <t>CHATTANOOGA</t>
   </si>
   <si>
-    <t>HAMILTON COUNTY</t>
-  </si>
-  <si>
-    <t>EAST RIDGE</t>
+    <t>SODDY DAISY</t>
   </si>
   <si>
     <t>23</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>18</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
     <t>16</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t>13</t>
+    <t>14</t>
   </si>
   <si>
     <t>12</t>
@@ -382,10 +280,10 @@
     <t>11</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>7</t>
+    <t>8</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -743,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BB33"/>
+  <dimension ref="A1:BB14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -912,31 +810,31 @@
     </row>
     <row r="2" spans="1:54">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>53</v>
       </c>
       <c r="D2">
-        <v>35.012842</v>
+        <v>35.093862</v>
       </c>
       <c r="E2">
-        <v>-85.248999</v>
+        <v>-85.190073</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="K2" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="P2" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="Z2">
         <v>3</v>
@@ -944,31 +842,31 @@
     </row>
     <row r="3" spans="1:54">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D3">
-        <v>35.012842</v>
+        <v>35.043287</v>
       </c>
       <c r="E3">
-        <v>-85.248999</v>
+        <v>-85.219729</v>
       </c>
       <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
         <v>57</v>
       </c>
-      <c r="G3" t="s">
-        <v>59</v>
-      </c>
       <c r="H3" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="K3" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="P3" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="Z3">
         <v>3</v>
@@ -976,31 +874,31 @@
     </row>
     <row r="4" spans="1:54">
       <c r="A4" s="1">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D4">
-        <v>35.01413</v>
+        <v>35.043287</v>
       </c>
       <c r="E4">
-        <v>-85.251704</v>
+        <v>-85.219729</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H4" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="Z4">
         <v>3</v>
@@ -1008,31 +906,31 @@
     </row>
     <row r="5" spans="1:54">
       <c r="A5" s="1">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D5">
-        <v>35.060433</v>
+        <v>35.011363</v>
       </c>
       <c r="E5">
-        <v>-85.130056</v>
+        <v>-85.28320600000001</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H5" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="P5" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="Z5">
         <v>3</v>
@@ -1040,31 +938,31 @@
     </row>
     <row r="6" spans="1:54">
       <c r="A6" s="1">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6">
-        <v>35.029416</v>
+        <v>35.110062</v>
       </c>
       <c r="E6">
-        <v>-85.287448</v>
+        <v>-85.229372</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H6" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="K6" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="P6" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="Z6">
         <v>3</v>
@@ -1072,31 +970,31 @@
     </row>
     <row r="7" spans="1:54">
       <c r="A7" s="1">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D7">
-        <v>35.029416</v>
+        <v>35.038342</v>
       </c>
       <c r="E7">
-        <v>-85.287448</v>
+        <v>-85.282734</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H7" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="K7" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="P7" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="Z7">
         <v>3</v>
@@ -1104,31 +1002,31 @@
     </row>
     <row r="8" spans="1:54">
       <c r="A8" s="1">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D8">
-        <v>35.016212</v>
+        <v>35.038342</v>
       </c>
       <c r="E8">
-        <v>-85.179472</v>
+        <v>-85.282734</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H8" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="K8" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="P8" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="Z8">
         <v>3</v>
@@ -1136,31 +1034,31 @@
     </row>
     <row r="9" spans="1:54">
       <c r="A9" s="1">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D9">
-        <v>35.006443</v>
+        <v>35.024501</v>
       </c>
       <c r="E9">
-        <v>-85.207202</v>
+        <v>-85.15562799999999</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H9" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="K9" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="P9" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="Z9">
         <v>3</v>
@@ -1168,31 +1066,31 @@
     </row>
     <row r="10" spans="1:54">
       <c r="A10" s="1">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D10">
-        <v>35.006443</v>
+        <v>35.024501</v>
       </c>
       <c r="E10">
-        <v>-85.207202</v>
+        <v>-85.15562799999999</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H10" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="K10" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="P10" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="Z10">
         <v>3</v>
@@ -1200,31 +1098,31 @@
     </row>
     <row r="11" spans="1:54">
       <c r="A11" s="1">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D11">
-        <v>35.007748</v>
+        <v>35.175428</v>
       </c>
       <c r="E11">
-        <v>-85.292197</v>
+        <v>-85.203656</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H11" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="K11" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="P11" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="Z11">
         <v>3</v>
@@ -1232,31 +1130,31 @@
     </row>
     <row r="12" spans="1:54">
       <c r="A12" s="1">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
         <v>54</v>
       </c>
       <c r="D12">
-        <v>35.007748</v>
+        <v>35.074622</v>
       </c>
       <c r="E12">
-        <v>-85.292197</v>
+        <v>-85.11247299999999</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H12" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="K12" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="P12" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="Z12">
         <v>3</v>
@@ -1264,31 +1162,31 @@
     </row>
     <row r="13" spans="1:54">
       <c r="A13" s="1">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D13">
-        <v>35.051047</v>
+        <v>35.074622</v>
       </c>
       <c r="E13">
-        <v>-85.144881</v>
+        <v>-85.11247299999999</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H13" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="K13" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="P13" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="Z13">
         <v>3</v>
@@ -1296,641 +1194,33 @@
     </row>
     <row r="14" spans="1:54">
       <c r="A14" s="1">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14">
-        <v>35.051047</v>
+        <v>35.232996</v>
       </c>
       <c r="E14">
-        <v>-85.144881</v>
+        <v>-85.18217300000001</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H14" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="K14" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="P14" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="Z14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:54">
-      <c r="A15" s="1">
-        <v>50</v>
-      </c>
-      <c r="C15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15">
-        <v>34.988667</v>
-      </c>
-      <c r="E15">
-        <v>-85.288811</v>
-      </c>
-      <c r="F15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" t="s">
-        <v>71</v>
-      </c>
-      <c r="H15" t="s">
-        <v>96</v>
-      </c>
-      <c r="K15" t="s">
-        <v>109</v>
-      </c>
-      <c r="P15" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:54">
-      <c r="A16" s="1">
-        <v>51</v>
-      </c>
-      <c r="C16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16">
-        <v>34.988667</v>
-      </c>
-      <c r="E16">
-        <v>-85.288811</v>
-      </c>
-      <c r="F16" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" t="s">
-        <v>71</v>
-      </c>
-      <c r="H16" t="s">
-        <v>96</v>
-      </c>
-      <c r="K16" t="s">
-        <v>109</v>
-      </c>
-      <c r="P16" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26">
-      <c r="A17" s="1">
-        <v>62</v>
-      </c>
-      <c r="C17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17">
-        <v>35.032718</v>
-      </c>
-      <c r="E17">
-        <v>-85.263344</v>
-      </c>
-      <c r="F17" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17" t="s">
-        <v>72</v>
-      </c>
-      <c r="H17" t="s">
-        <v>97</v>
-      </c>
-      <c r="K17" t="s">
-        <v>109</v>
-      </c>
-      <c r="P17" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26">
-      <c r="A18" s="1">
-        <v>63</v>
-      </c>
-      <c r="C18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18">
-        <v>35.032718</v>
-      </c>
-      <c r="E18">
-        <v>-85.263344</v>
-      </c>
-      <c r="F18" t="s">
-        <v>57</v>
-      </c>
-      <c r="G18" t="s">
-        <v>72</v>
-      </c>
-      <c r="H18" t="s">
-        <v>97</v>
-      </c>
-      <c r="K18" t="s">
-        <v>109</v>
-      </c>
-      <c r="P18" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26">
-      <c r="A19" s="1">
-        <v>72</v>
-      </c>
-      <c r="C19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19">
-        <v>35.051718</v>
-      </c>
-      <c r="E19">
-        <v>-85.25651000000001</v>
-      </c>
-      <c r="F19" t="s">
-        <v>57</v>
-      </c>
-      <c r="G19" t="s">
-        <v>73</v>
-      </c>
-      <c r="H19" t="s">
-        <v>98</v>
-      </c>
-      <c r="K19" t="s">
-        <v>109</v>
-      </c>
-      <c r="P19" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26">
-      <c r="A20" s="1">
-        <v>82</v>
-      </c>
-      <c r="C20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20">
-        <v>35.046274</v>
-      </c>
-      <c r="E20">
-        <v>-85.166282</v>
-      </c>
-      <c r="F20" t="s">
-        <v>57</v>
-      </c>
-      <c r="G20" t="s">
-        <v>74</v>
-      </c>
-      <c r="H20" t="s">
-        <v>99</v>
-      </c>
-      <c r="K20" t="s">
-        <v>109</v>
-      </c>
-      <c r="P20" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26">
-      <c r="A21" s="1">
-        <v>83</v>
-      </c>
-      <c r="C21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21">
-        <v>35.046274</v>
-      </c>
-      <c r="E21">
-        <v>-85.166282</v>
-      </c>
-      <c r="F21" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" t="s">
-        <v>75</v>
-      </c>
-      <c r="H21" t="s">
-        <v>99</v>
-      </c>
-      <c r="K21" t="s">
-        <v>109</v>
-      </c>
-      <c r="P21" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26">
-      <c r="A22" s="1">
-        <v>100</v>
-      </c>
-      <c r="C22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22">
-        <v>35.018299</v>
-      </c>
-      <c r="E22">
-        <v>-85.16242</v>
-      </c>
-      <c r="F22" t="s">
-        <v>57</v>
-      </c>
-      <c r="G22" t="s">
-        <v>76</v>
-      </c>
-      <c r="H22" t="s">
-        <v>100</v>
-      </c>
-      <c r="K22" t="s">
-        <v>109</v>
-      </c>
-      <c r="P22" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26">
-      <c r="A23" s="1">
-        <v>102</v>
-      </c>
-      <c r="C23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23">
-        <v>35.118969</v>
-      </c>
-      <c r="E23">
-        <v>-85.11778200000001</v>
-      </c>
-      <c r="F23" t="s">
-        <v>57</v>
-      </c>
-      <c r="G23" t="s">
-        <v>77</v>
-      </c>
-      <c r="H23" t="s">
-        <v>101</v>
-      </c>
-      <c r="K23" t="s">
-        <v>110</v>
-      </c>
-      <c r="P23" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26">
-      <c r="A24" s="1">
-        <v>103</v>
-      </c>
-      <c r="C24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24">
-        <v>35.118969</v>
-      </c>
-      <c r="E24">
-        <v>-85.11778200000001</v>
-      </c>
-      <c r="F24" t="s">
-        <v>57</v>
-      </c>
-      <c r="G24" t="s">
-        <v>78</v>
-      </c>
-      <c r="H24" t="s">
-        <v>101</v>
-      </c>
-      <c r="K24" t="s">
-        <v>110</v>
-      </c>
-      <c r="P24" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26">
-      <c r="A25" s="1">
-        <v>107</v>
-      </c>
-      <c r="C25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25">
-        <v>34.998664</v>
-      </c>
-      <c r="E25">
-        <v>-85.20989400000001</v>
-      </c>
-      <c r="F25" t="s">
-        <v>57</v>
-      </c>
-      <c r="G25" t="s">
-        <v>79</v>
-      </c>
-      <c r="H25" t="s">
-        <v>102</v>
-      </c>
-      <c r="K25" t="s">
-        <v>111</v>
-      </c>
-      <c r="P25" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26">
-      <c r="A26" s="1">
-        <v>112</v>
-      </c>
-      <c r="C26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26">
-        <v>35.018299</v>
-      </c>
-      <c r="E26">
-        <v>-85.16242</v>
-      </c>
-      <c r="F26" t="s">
-        <v>57</v>
-      </c>
-      <c r="G26" t="s">
-        <v>80</v>
-      </c>
-      <c r="H26" t="s">
-        <v>103</v>
-      </c>
-      <c r="K26" t="s">
-        <v>109</v>
-      </c>
-      <c r="P26" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26">
-      <c r="A27" s="1">
-        <v>126</v>
-      </c>
-      <c r="C27" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27">
-        <v>35.085973</v>
-      </c>
-      <c r="E27">
-        <v>-85.19072300000001</v>
-      </c>
-      <c r="F27" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" t="s">
-        <v>81</v>
-      </c>
-      <c r="H27" t="s">
-        <v>104</v>
-      </c>
-      <c r="K27" t="s">
-        <v>109</v>
-      </c>
-      <c r="P27" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26">
-      <c r="A28" s="1">
-        <v>127</v>
-      </c>
-      <c r="C28" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28">
-        <v>35.085973</v>
-      </c>
-      <c r="E28">
-        <v>-85.19072300000001</v>
-      </c>
-      <c r="F28" t="s">
-        <v>57</v>
-      </c>
-      <c r="G28" t="s">
-        <v>82</v>
-      </c>
-      <c r="H28" t="s">
-        <v>104</v>
-      </c>
-      <c r="K28" t="s">
-        <v>109</v>
-      </c>
-      <c r="P28" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26">
-      <c r="A29" s="1">
-        <v>134</v>
-      </c>
-      <c r="C29" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29">
-        <v>35.122946</v>
-      </c>
-      <c r="E29">
-        <v>-85.24019800000001</v>
-      </c>
-      <c r="F29" t="s">
-        <v>57</v>
-      </c>
-      <c r="G29" t="s">
-        <v>83</v>
-      </c>
-      <c r="H29" t="s">
-        <v>105</v>
-      </c>
-      <c r="K29" t="s">
-        <v>109</v>
-      </c>
-      <c r="P29" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26">
-      <c r="A30" s="1">
-        <v>142</v>
-      </c>
-      <c r="C30" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30">
-        <v>35.01309</v>
-      </c>
-      <c r="E30">
-        <v>-85.24922100000001</v>
-      </c>
-      <c r="F30" t="s">
-        <v>57</v>
-      </c>
-      <c r="G30" t="s">
-        <v>84</v>
-      </c>
-      <c r="H30" t="s">
-        <v>106</v>
-      </c>
-      <c r="K30" t="s">
-        <v>109</v>
-      </c>
-      <c r="P30" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26">
-      <c r="A31" s="1">
-        <v>148</v>
-      </c>
-      <c r="C31" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31">
-        <v>35.186028</v>
-      </c>
-      <c r="E31">
-        <v>-85.19986</v>
-      </c>
-      <c r="F31" t="s">
-        <v>57</v>
-      </c>
-      <c r="G31" t="s">
-        <v>85</v>
-      </c>
-      <c r="H31" t="s">
-        <v>107</v>
-      </c>
-      <c r="K31" t="s">
-        <v>110</v>
-      </c>
-      <c r="P31" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26">
-      <c r="A32" s="1">
-        <v>149</v>
-      </c>
-      <c r="C32" t="s">
-        <v>53</v>
-      </c>
-      <c r="D32">
-        <v>35.186028</v>
-      </c>
-      <c r="E32">
-        <v>-85.19986</v>
-      </c>
-      <c r="F32" t="s">
-        <v>57</v>
-      </c>
-      <c r="G32" t="s">
-        <v>86</v>
-      </c>
-      <c r="H32" t="s">
-        <v>107</v>
-      </c>
-      <c r="K32" t="s">
-        <v>110</v>
-      </c>
-      <c r="P32" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26">
-      <c r="A33" s="1">
-        <v>152</v>
-      </c>
-      <c r="C33" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33">
-        <v>35.036603</v>
-      </c>
-      <c r="E33">
-        <v>-85.240461</v>
-      </c>
-      <c r="F33" t="s">
-        <v>57</v>
-      </c>
-      <c r="G33" t="s">
-        <v>87</v>
-      </c>
-      <c r="H33" t="s">
-        <v>108</v>
-      </c>
-      <c r="K33" t="s">
-        <v>109</v>
-      </c>
-      <c r="P33" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z33">
         <v>3</v>
       </c>
     </row>

--- a/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="98">
   <si>
     <t>Accident</t>
   </si>
@@ -175,115 +175,139 @@
     <t>Pavement_Type</t>
   </si>
   <si>
+    <t>Injuries</t>
+  </si>
+  <si>
+    <t>Mass Casualty</t>
+  </si>
+  <si>
     <t>Unknown Injuries</t>
   </si>
   <si>
-    <t>Injuries</t>
-  </si>
-  <si>
-    <t>2019-03-12</t>
-  </si>
-  <si>
-    <t>23:58:47</t>
-  </si>
-  <si>
-    <t>18:07:06</t>
-  </si>
-  <si>
-    <t>18:04:40</t>
-  </si>
-  <si>
-    <t>16:12:14</t>
-  </si>
-  <si>
-    <t>15:30:49</t>
-  </si>
-  <si>
-    <t>14:55:21</t>
-  </si>
-  <si>
-    <t>14:54:39</t>
-  </si>
-  <si>
-    <t>12:28:06</t>
-  </si>
-  <si>
-    <t>12:27:39</t>
-  </si>
-  <si>
-    <t>11:52:35</t>
-  </si>
-  <si>
-    <t>08:10:12</t>
-  </si>
-  <si>
-    <t>08:09:06</t>
-  </si>
-  <si>
-    <t>01:30:02</t>
-  </si>
-  <si>
-    <t>3967 Webb Rd</t>
-  </si>
-  <si>
-    <t>4120 - 4624 Shallowford Rd</t>
-  </si>
-  <si>
-    <t>E 28th St / 4th Ave</t>
-  </si>
-  <si>
-    <t>570-709 Highway 153 Sb</t>
-  </si>
-  <si>
-    <t>1300 MCCALLIE AVE</t>
-  </si>
-  <si>
-    <t>1300 Mccallie Ave</t>
-  </si>
-  <si>
-    <t>1816 Gunbarrel Rd</t>
-  </si>
-  <si>
-    <t>7000 MIDDLE VALLEY RD</t>
-  </si>
-  <si>
-    <t>1 - 9 Exit 9 W On Ramp Sb</t>
-  </si>
-  <si>
-    <t>418 Hyatte Rd</t>
+    <t>No Injuries</t>
+  </si>
+  <si>
+    <t>2019-03-26</t>
+  </si>
+  <si>
+    <t>21:32:57</t>
+  </si>
+  <si>
+    <t>21:23:55</t>
+  </si>
+  <si>
+    <t>21:23:46</t>
+  </si>
+  <si>
+    <t>18:29:42</t>
+  </si>
+  <si>
+    <t>18:28:40</t>
+  </si>
+  <si>
+    <t>18:28:23</t>
+  </si>
+  <si>
+    <t>18:28:21</t>
+  </si>
+  <si>
+    <t>17:52:09</t>
+  </si>
+  <si>
+    <t>17:50:02</t>
+  </si>
+  <si>
+    <t>17:49:52</t>
+  </si>
+  <si>
+    <t>17:00:12</t>
+  </si>
+  <si>
+    <t>14:40:47</t>
+  </si>
+  <si>
+    <t>14:08:08</t>
+  </si>
+  <si>
+    <t>14:07:50</t>
+  </si>
+  <si>
+    <t>10:20:36</t>
+  </si>
+  <si>
+    <t>10:19:45</t>
+  </si>
+  <si>
+    <t>06:10:22</t>
+  </si>
+  <si>
+    <t>3204 Brainerd Rd</t>
+  </si>
+  <si>
+    <t>796 Ridgeway Ave</t>
+  </si>
+  <si>
+    <t>6000 - 6199 Mountain View Rd</t>
+  </si>
+  <si>
+    <t>5728 HIGHWAY 58</t>
+  </si>
+  <si>
+    <t>5728 Highway 58</t>
+  </si>
+  <si>
+    <t>4900-4922 Brainerd Rd</t>
+  </si>
+  <si>
+    <t>3820 Granada Dr</t>
+  </si>
+  <si>
+    <t>Brainerd Rd / Belvoir Ave</t>
+  </si>
+  <si>
+    <t>1-9 Exit Dayton Pike On Ramp Sb</t>
+  </si>
+  <si>
+    <t>5900 Pine Grove Trl</t>
+  </si>
+  <si>
+    <t>8900-8989 Highway 58</t>
+  </si>
+  <si>
+    <t>11-19 Exit 4a Off Ramp Nb</t>
+  </si>
+  <si>
+    <t>1 N MOORE RD</t>
   </si>
   <si>
     <t>CHATTANOOGA</t>
   </si>
   <si>
+    <t>SIGNAL MOUNTAIN</t>
+  </si>
+  <si>
     <t>SODDY DAISY</t>
   </si>
   <si>
-    <t>23</t>
+    <t>HAMILTON COUNTY</t>
+  </si>
+  <si>
+    <t>21</t>
   </si>
   <si>
     <t>18</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>15</t>
+    <t>17</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>10</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
 </sst>
 </file>
@@ -641,7 +665,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BB14"/>
+  <dimension ref="A1:BB20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -810,31 +834,31 @@
     </row>
     <row r="2" spans="1:54">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>53</v>
       </c>
       <c r="D2">
-        <v>35.093862</v>
+        <v>35.027325</v>
       </c>
       <c r="E2">
-        <v>-85.190073</v>
+        <v>-85.25477600000001</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="K2" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="Z2">
         <v>3</v>
@@ -842,31 +866,31 @@
     </row>
     <row r="3" spans="1:54">
       <c r="A3" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>54</v>
       </c>
       <c r="D3">
-        <v>35.043287</v>
+        <v>35.121962</v>
       </c>
       <c r="E3">
-        <v>-85.219729</v>
+        <v>-85.343452</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H3" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="K3" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="Z3">
         <v>3</v>
@@ -874,31 +898,31 @@
     </row>
     <row r="4" spans="1:54">
       <c r="A4" s="1">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4">
-        <v>35.043287</v>
+        <v>35.087998</v>
       </c>
       <c r="E4">
-        <v>-85.219729</v>
+        <v>-85.065022</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H4" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="K4" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="Z4">
         <v>3</v>
@@ -906,31 +930,31 @@
     </row>
     <row r="5" spans="1:54">
       <c r="A5" s="1">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5">
-        <v>35.011363</v>
+        <v>35.087998</v>
       </c>
       <c r="E5">
-        <v>-85.28320600000001</v>
+        <v>-85.065022</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H5" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="Z5">
         <v>3</v>
@@ -938,31 +962,31 @@
     </row>
     <row r="6" spans="1:54">
       <c r="A6" s="1">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6">
-        <v>35.110062</v>
+        <v>35.109673</v>
       </c>
       <c r="E6">
-        <v>-85.229372</v>
+        <v>-85.13543</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H6" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="P6" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="Z6">
         <v>3</v>
@@ -970,31 +994,31 @@
     </row>
     <row r="7" spans="1:54">
       <c r="A7" s="1">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7">
-        <v>35.038342</v>
+        <v>35.109673</v>
       </c>
       <c r="E7">
-        <v>-85.282734</v>
+        <v>-85.13543</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H7" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="K7" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="Z7">
         <v>3</v>
@@ -1002,31 +1026,31 @@
     </row>
     <row r="8" spans="1:54">
       <c r="A8" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8">
-        <v>35.038342</v>
+        <v>35.109673</v>
       </c>
       <c r="E8">
-        <v>-85.282734</v>
+        <v>-85.13543</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G8" t="s">
         <v>62</v>
       </c>
       <c r="H8" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K8" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="Z8">
         <v>3</v>
@@ -1034,31 +1058,31 @@
     </row>
     <row r="9" spans="1:54">
       <c r="A9" s="1">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D9">
-        <v>35.024501</v>
+        <v>35.109673</v>
       </c>
       <c r="E9">
-        <v>-85.15562799999999</v>
+        <v>-85.13543</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G9" t="s">
         <v>63</v>
       </c>
       <c r="H9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K9" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="Z9">
         <v>3</v>
@@ -1066,31 +1090,31 @@
     </row>
     <row r="10" spans="1:54">
       <c r="A10" s="1">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D10">
-        <v>35.024501</v>
+        <v>35.109673</v>
       </c>
       <c r="E10">
-        <v>-85.15562799999999</v>
+        <v>-85.13543</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G10" t="s">
         <v>64</v>
       </c>
       <c r="H10" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K10" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="Z10">
         <v>3</v>
@@ -1098,31 +1122,31 @@
     </row>
     <row r="11" spans="1:54">
       <c r="A11" s="1">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11">
-        <v>35.175428</v>
+        <v>35.01247</v>
       </c>
       <c r="E11">
-        <v>-85.203656</v>
+        <v>-85.2272</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G11" t="s">
         <v>65</v>
       </c>
       <c r="H11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K11" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="Z11">
         <v>3</v>
@@ -1130,31 +1154,31 @@
     </row>
     <row r="12" spans="1:54">
       <c r="A12" s="1">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12">
-        <v>35.074622</v>
+        <v>35.01985</v>
       </c>
       <c r="E12">
-        <v>-85.11247299999999</v>
+        <v>-85.241469</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G12" t="s">
         <v>66</v>
       </c>
       <c r="H12" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K12" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="Z12">
         <v>3</v>
@@ -1162,31 +1186,31 @@
     </row>
     <row r="13" spans="1:54">
       <c r="A13" s="1">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13">
-        <v>35.074622</v>
+        <v>35.018698</v>
       </c>
       <c r="E13">
-        <v>-85.11247299999999</v>
+        <v>-85.239705</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G13" t="s">
         <v>67</v>
       </c>
       <c r="H13" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K13" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="Z13">
         <v>3</v>
@@ -1194,33 +1218,225 @@
     </row>
     <row r="14" spans="1:54">
       <c r="A14" s="1">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D14">
-        <v>35.232996</v>
+        <v>35.30013</v>
       </c>
       <c r="E14">
-        <v>-85.18217300000001</v>
+        <v>-85.15161500000001</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G14" t="s">
         <v>68</v>
       </c>
       <c r="H14" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K14" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="Z14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:54">
+      <c r="A15" s="1">
+        <v>72</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15">
+        <v>35.023767</v>
+      </c>
+      <c r="E15">
+        <v>-85.20226</v>
+      </c>
+      <c r="F15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" t="s">
+        <v>84</v>
+      </c>
+      <c r="K15" t="s">
+        <v>88</v>
+      </c>
+      <c r="P15" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:54">
+      <c r="A16" s="1">
+        <v>75</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16">
+        <v>35.180718</v>
+      </c>
+      <c r="E16">
+        <v>-85.067359</v>
+      </c>
+      <c r="F16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" t="s">
+        <v>85</v>
+      </c>
+      <c r="K16" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="A17" s="1">
+        <v>76</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17">
+        <v>35.180718</v>
+      </c>
+      <c r="E17">
+        <v>-85.067359</v>
+      </c>
+      <c r="F17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" t="s">
+        <v>85</v>
+      </c>
+      <c r="K17" t="s">
+        <v>91</v>
+      </c>
+      <c r="P17" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18" s="1">
+        <v>95</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18">
+        <v>35.03142</v>
+      </c>
+      <c r="E18">
+        <v>-85.16741</v>
+      </c>
+      <c r="F18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" t="s">
+        <v>86</v>
+      </c>
+      <c r="K18" t="s">
+        <v>88</v>
+      </c>
+      <c r="P18" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19" s="1">
+        <v>96</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19">
+        <v>35.03142</v>
+      </c>
+      <c r="E19">
+        <v>-85.16741</v>
+      </c>
+      <c r="F19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" t="s">
+        <v>86</v>
+      </c>
+      <c r="K19" t="s">
+        <v>88</v>
+      </c>
+      <c r="P19" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20" s="1">
+        <v>107</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20">
+        <v>35.012954</v>
+      </c>
+      <c r="E20">
+        <v>-85.22827700000001</v>
+      </c>
+      <c r="F20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" t="s">
+        <v>87</v>
+      </c>
+      <c r="K20" t="s">
+        <v>88</v>
+      </c>
+      <c r="P20" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z20">
         <v>3</v>
       </c>
     </row>

--- a/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="90">
   <si>
     <t>Accident</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Hour</t>
   </si>
   <si>
-    <t>Unix</t>
-  </si>
-  <si>
     <t>Temperature</t>
   </si>
   <si>
@@ -178,121 +175,94 @@
     <t>Injuries</t>
   </si>
   <si>
-    <t>Mass Casualty</t>
-  </si>
-  <si>
     <t>Unknown Injuries</t>
   </si>
   <si>
     <t>No Injuries</t>
   </si>
   <si>
-    <t>2019-03-26</t>
-  </si>
-  <si>
-    <t>21:32:57</t>
-  </si>
-  <si>
-    <t>21:23:55</t>
-  </si>
-  <si>
-    <t>21:23:46</t>
-  </si>
-  <si>
-    <t>18:29:42</t>
-  </si>
-  <si>
-    <t>18:28:40</t>
-  </si>
-  <si>
-    <t>18:28:23</t>
-  </si>
-  <si>
-    <t>18:28:21</t>
-  </si>
-  <si>
-    <t>17:52:09</t>
-  </si>
-  <si>
-    <t>17:50:02</t>
-  </si>
-  <si>
-    <t>17:49:52</t>
-  </si>
-  <si>
-    <t>17:00:12</t>
-  </si>
-  <si>
-    <t>14:40:47</t>
-  </si>
-  <si>
-    <t>14:08:08</t>
-  </si>
-  <si>
-    <t>14:07:50</t>
-  </si>
-  <si>
-    <t>10:20:36</t>
-  </si>
-  <si>
-    <t>10:19:45</t>
-  </si>
-  <si>
-    <t>06:10:22</t>
-  </si>
-  <si>
-    <t>3204 Brainerd Rd</t>
-  </si>
-  <si>
-    <t>796 Ridgeway Ave</t>
-  </si>
-  <si>
-    <t>6000 - 6199 Mountain View Rd</t>
-  </si>
-  <si>
-    <t>5728 HIGHWAY 58</t>
-  </si>
-  <si>
-    <t>5728 Highway 58</t>
-  </si>
-  <si>
-    <t>4900-4922 Brainerd Rd</t>
-  </si>
-  <si>
-    <t>3820 Granada Dr</t>
-  </si>
-  <si>
-    <t>Brainerd Rd / Belvoir Ave</t>
-  </si>
-  <si>
-    <t>1-9 Exit Dayton Pike On Ramp Sb</t>
-  </si>
-  <si>
-    <t>5900 Pine Grove Trl</t>
-  </si>
-  <si>
-    <t>8900-8989 Highway 58</t>
-  </si>
-  <si>
-    <t>11-19 Exit 4a Off Ramp Nb</t>
-  </si>
-  <si>
-    <t>1 N MOORE RD</t>
+    <t>Entrapment</t>
+  </si>
+  <si>
+    <t>2019-04-03</t>
+  </si>
+  <si>
+    <t>20:35:10</t>
+  </si>
+  <si>
+    <t>19:16:39</t>
+  </si>
+  <si>
+    <t>18:42:28</t>
+  </si>
+  <si>
+    <t>17:15:36</t>
+  </si>
+  <si>
+    <t>16:49:12</t>
+  </si>
+  <si>
+    <t>15:53:38</t>
+  </si>
+  <si>
+    <t>15:50:20</t>
+  </si>
+  <si>
+    <t>15:48:49</t>
+  </si>
+  <si>
+    <t>11:16:41</t>
+  </si>
+  <si>
+    <t>09:57:53</t>
+  </si>
+  <si>
+    <t>00:58:39</t>
+  </si>
+  <si>
+    <t>6309 - 6399 Highway 58</t>
+  </si>
+  <si>
+    <t>6404 - 6509 Hixson Pike</t>
+  </si>
+  <si>
+    <t>5300-5315 Ringgold Rd</t>
+  </si>
+  <si>
+    <t>2-8 Exit 4a On Ramp Sb</t>
+  </si>
+  <si>
+    <t>7735 MAGGIE LN</t>
+  </si>
+  <si>
+    <t>500-506 S Germantown Rd</t>
+  </si>
+  <si>
+    <t>N Terrace / S Germantown Rd</t>
+  </si>
+  <si>
+    <t>300 E Martin Luther King Blvd</t>
+  </si>
+  <si>
+    <t>1900 Market St</t>
+  </si>
+  <si>
+    <t>7035 Highway 153</t>
+  </si>
+  <si>
+    <t>HAMILTON COUNTY</t>
   </si>
   <si>
     <t>CHATTANOOGA</t>
   </si>
   <si>
-    <t>SIGNAL MOUNTAIN</t>
-  </si>
-  <si>
-    <t>SODDY DAISY</t>
-  </si>
-  <si>
-    <t>HAMILTON COUNTY</t>
-  </si>
-  <si>
-    <t>21</t>
+    <t>EAST RIDGE</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
   <si>
     <t>18</t>
@@ -301,13 +271,19 @@
     <t>17</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>6</t>
+    <t>16</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -665,13 +641,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BB20"/>
+  <dimension ref="A1:BA13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:54">
+    <row r="1" spans="1:53">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -828,616 +804,389 @@
       <c r="BA1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:53">
+      <c r="A2" s="1">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:54">
-      <c r="A2" s="1">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>53</v>
-      </c>
       <c r="D2">
-        <v>35.027325</v>
+        <v>35.124503</v>
       </c>
       <c r="E2">
-        <v>-85.25477600000001</v>
+        <v>-85.125298</v>
       </c>
       <c r="F2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" t="s">
         <v>57</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53">
+      <c r="A3" s="1">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3">
+        <v>35.159409</v>
+      </c>
+      <c r="E3">
+        <v>-85.193929</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
         <v>58</v>
       </c>
-      <c r="H2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K2" t="s">
-        <v>88</v>
-      </c>
-      <c r="P2" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:54">
-      <c r="A3" s="1">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3">
-        <v>35.121962</v>
-      </c>
-      <c r="E3">
-        <v>-85.343452</v>
-      </c>
-      <c r="F3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" t="s">
-        <v>59</v>
-      </c>
       <c r="H3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="K3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="P3" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:54">
+        <v>82</v>
+      </c>
+      <c r="Y3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>53</v>
       </c>
       <c r="D4">
-        <v>35.087998</v>
+        <v>34.995118</v>
       </c>
       <c r="E4">
-        <v>-85.065022</v>
+        <v>-85.23435000000001</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="P4" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:54">
+        <v>83</v>
+      </c>
+      <c r="Y4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5">
-        <v>35.087998</v>
+        <v>35.0356</v>
       </c>
       <c r="E5">
-        <v>-85.065022</v>
+        <v>-85.16376</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s">
         <v>60</v>
       </c>
       <c r="H5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="P5" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:54">
+        <v>84</v>
+      </c>
+      <c r="Y5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6">
-        <v>35.109673</v>
+        <v>35.276261</v>
       </c>
       <c r="E6">
-        <v>-85.13543</v>
+        <v>-84.986068</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G6" t="s">
         <v>61</v>
       </c>
       <c r="H6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" t="s">
         <v>78</v>
       </c>
-      <c r="K6" t="s">
-        <v>88</v>
-      </c>
       <c r="P6" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:54">
+        <v>85</v>
+      </c>
+      <c r="Y6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D7">
-        <v>35.109673</v>
+        <v>35.01475</v>
       </c>
       <c r="E7">
-        <v>-85.13543</v>
+        <v>-85.2516</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G7" t="s">
         <v>62</v>
       </c>
       <c r="H7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" t="s">
         <v>79</v>
       </c>
-      <c r="K7" t="s">
-        <v>88</v>
-      </c>
       <c r="P7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:54">
+        <v>86</v>
+      </c>
+      <c r="Y7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8">
-        <v>35.109673</v>
+        <v>35.014733</v>
       </c>
       <c r="E8">
-        <v>-85.13543</v>
+        <v>-85.251611</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K8" t="s">
         <v>79</v>
       </c>
-      <c r="K8" t="s">
-        <v>88</v>
-      </c>
       <c r="P8" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:54">
+        <v>86</v>
+      </c>
+      <c r="Y8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D9">
-        <v>35.109673</v>
+        <v>35.014733</v>
       </c>
       <c r="E9">
-        <v>-85.13543</v>
+        <v>-85.251611</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" t="s">
         <v>79</v>
       </c>
-      <c r="K9" t="s">
-        <v>88</v>
-      </c>
       <c r="P9" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:54">
+        <v>86</v>
+      </c>
+      <c r="Y9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D10">
-        <v>35.109673</v>
+        <v>35.044307</v>
       </c>
       <c r="E10">
-        <v>-85.13543</v>
+        <v>-85.305353</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H10" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" t="s">
         <v>79</v>
       </c>
-      <c r="K10" t="s">
-        <v>88</v>
-      </c>
       <c r="P10" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:54">
+        <v>87</v>
+      </c>
+      <c r="Y10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11">
-        <v>35.01247</v>
+        <v>35.044307</v>
       </c>
       <c r="E11">
-        <v>-85.2272</v>
+        <v>-85.305353</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G11" t="s">
         <v>65</v>
       </c>
       <c r="H11" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K11" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="P11" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:54">
+        <v>87</v>
+      </c>
+      <c r="Y11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12">
-        <v>35.01985</v>
+        <v>35.032085</v>
       </c>
       <c r="E12">
-        <v>-85.241469</v>
+        <v>-85.3082</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G12" t="s">
         <v>66</v>
       </c>
       <c r="H12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K12" t="s">
+        <v>79</v>
+      </c>
+      <c r="P12" t="s">
         <v>88</v>
       </c>
-      <c r="P12" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:54">
+      <c r="Y12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D13">
-        <v>35.018698</v>
+        <v>35.185629</v>
       </c>
       <c r="E13">
-        <v>-85.239705</v>
+        <v>-85.246926</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G13" t="s">
         <v>67</v>
       </c>
       <c r="H13" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K13" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="P13" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:54">
-      <c r="A14" s="1">
-        <v>49</v>
-      </c>
-      <c r="C14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14">
-        <v>35.30013</v>
-      </c>
-      <c r="E14">
-        <v>-85.15161500000001</v>
-      </c>
-      <c r="F14" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" t="s">
-        <v>83</v>
-      </c>
-      <c r="K14" t="s">
-        <v>90</v>
-      </c>
-      <c r="P14" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:54">
-      <c r="A15" s="1">
-        <v>72</v>
-      </c>
-      <c r="C15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15">
-        <v>35.023767</v>
-      </c>
-      <c r="E15">
-        <v>-85.20226</v>
-      </c>
-      <c r="F15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H15" t="s">
-        <v>84</v>
-      </c>
-      <c r="K15" t="s">
-        <v>88</v>
-      </c>
-      <c r="P15" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:54">
-      <c r="A16" s="1">
-        <v>75</v>
-      </c>
-      <c r="C16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16">
-        <v>35.180718</v>
-      </c>
-      <c r="E16">
-        <v>-85.067359</v>
-      </c>
-      <c r="F16" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" t="s">
-        <v>70</v>
-      </c>
-      <c r="H16" t="s">
-        <v>85</v>
-      </c>
-      <c r="K16" t="s">
-        <v>91</v>
-      </c>
-      <c r="P16" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26">
-      <c r="A17" s="1">
-        <v>76</v>
-      </c>
-      <c r="C17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17">
-        <v>35.180718</v>
-      </c>
-      <c r="E17">
-        <v>-85.067359</v>
-      </c>
-      <c r="F17" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17" t="s">
-        <v>71</v>
-      </c>
-      <c r="H17" t="s">
-        <v>85</v>
-      </c>
-      <c r="K17" t="s">
-        <v>91</v>
-      </c>
-      <c r="P17" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26">
-      <c r="A18" s="1">
-        <v>95</v>
-      </c>
-      <c r="C18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18">
-        <v>35.03142</v>
-      </c>
-      <c r="E18">
-        <v>-85.16741</v>
-      </c>
-      <c r="F18" t="s">
-        <v>57</v>
-      </c>
-      <c r="G18" t="s">
-        <v>72</v>
-      </c>
-      <c r="H18" t="s">
-        <v>86</v>
-      </c>
-      <c r="K18" t="s">
-        <v>88</v>
-      </c>
-      <c r="P18" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26">
-      <c r="A19" s="1">
-        <v>96</v>
-      </c>
-      <c r="C19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19">
-        <v>35.03142</v>
-      </c>
-      <c r="E19">
-        <v>-85.16741</v>
-      </c>
-      <c r="F19" t="s">
-        <v>57</v>
-      </c>
-      <c r="G19" t="s">
-        <v>73</v>
-      </c>
-      <c r="H19" t="s">
-        <v>86</v>
-      </c>
-      <c r="K19" t="s">
-        <v>88</v>
-      </c>
-      <c r="P19" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26">
-      <c r="A20" s="1">
-        <v>107</v>
-      </c>
-      <c r="C20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20">
-        <v>35.012954</v>
-      </c>
-      <c r="E20">
-        <v>-85.22827700000001</v>
-      </c>
-      <c r="F20" t="s">
-        <v>57</v>
-      </c>
-      <c r="G20" t="s">
-        <v>74</v>
-      </c>
-      <c r="H20" t="s">
-        <v>87</v>
-      </c>
-      <c r="K20" t="s">
-        <v>88</v>
-      </c>
-      <c r="P20" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z20">
-        <v>3</v>
+        <v>89</v>
+      </c>
+      <c r="Y13">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="112">
   <si>
     <t>Accident</t>
   </si>
@@ -175,94 +175,151 @@
     <t>Injuries</t>
   </si>
   <si>
+    <t>No Injuries</t>
+  </si>
+  <si>
+    <t>Entrapment</t>
+  </si>
+  <si>
     <t>Unknown Injuries</t>
   </si>
   <si>
-    <t>No Injuries</t>
-  </si>
-  <si>
-    <t>Entrapment</t>
-  </si>
-  <si>
-    <t>2019-04-03</t>
-  </si>
-  <si>
-    <t>20:35:10</t>
-  </si>
-  <si>
-    <t>19:16:39</t>
-  </si>
-  <si>
-    <t>18:42:28</t>
-  </si>
-  <si>
-    <t>17:15:36</t>
-  </si>
-  <si>
-    <t>16:49:12</t>
-  </si>
-  <si>
-    <t>15:53:38</t>
-  </si>
-  <si>
-    <t>15:50:20</t>
-  </si>
-  <si>
-    <t>15:48:49</t>
-  </si>
-  <si>
-    <t>11:16:41</t>
-  </si>
-  <si>
-    <t>09:57:53</t>
-  </si>
-  <si>
-    <t>00:58:39</t>
-  </si>
-  <si>
-    <t>6309 - 6399 Highway 58</t>
-  </si>
-  <si>
-    <t>6404 - 6509 Hixson Pike</t>
-  </si>
-  <si>
-    <t>5300-5315 Ringgold Rd</t>
-  </si>
-  <si>
-    <t>2-8 Exit 4a On Ramp Sb</t>
-  </si>
-  <si>
-    <t>7735 MAGGIE LN</t>
-  </si>
-  <si>
-    <t>500-506 S Germantown Rd</t>
-  </si>
-  <si>
-    <t>N Terrace / S Germantown Rd</t>
-  </si>
-  <si>
-    <t>300 E Martin Luther King Blvd</t>
-  </si>
-  <si>
-    <t>1900 Market St</t>
-  </si>
-  <si>
-    <t>7035 Highway 153</t>
+    <t>2019-04-05</t>
+  </si>
+  <si>
+    <t>22:37:47</t>
+  </si>
+  <si>
+    <t>18:55:45</t>
+  </si>
+  <si>
+    <t>18:02:35</t>
+  </si>
+  <si>
+    <t>17:52:06</t>
+  </si>
+  <si>
+    <t>17:02:03</t>
+  </si>
+  <si>
+    <t>16:30:24</t>
+  </si>
+  <si>
+    <t>15:55:26</t>
+  </si>
+  <si>
+    <t>15:53:51</t>
+  </si>
+  <si>
+    <t>15:36:16</t>
+  </si>
+  <si>
+    <t>12:40:50</t>
+  </si>
+  <si>
+    <t>12:40:17</t>
+  </si>
+  <si>
+    <t>10:35:03</t>
+  </si>
+  <si>
+    <t>10:08:14</t>
+  </si>
+  <si>
+    <t>09:19:31</t>
+  </si>
+  <si>
+    <t>09:18:56</t>
+  </si>
+  <si>
+    <t>09:18:47</t>
+  </si>
+  <si>
+    <t>08:33:44</t>
+  </si>
+  <si>
+    <t>08:25:52</t>
+  </si>
+  <si>
+    <t>08:25:25</t>
+  </si>
+  <si>
+    <t>08:24:52</t>
+  </si>
+  <si>
+    <t>07:45:46</t>
+  </si>
+  <si>
+    <t>06:55:01</t>
+  </si>
+  <si>
+    <t>4260-4268 Bonny Oaks Dr</t>
+  </si>
+  <si>
+    <t>6400-6599 Highway 58</t>
+  </si>
+  <si>
+    <t>340 Interstate 75 Sb</t>
+  </si>
+  <si>
+    <t>936-1098 Mountain Creek Rd</t>
+  </si>
+  <si>
+    <t>Milne St / Dodson Ave</t>
+  </si>
+  <si>
+    <t>4355 Highway 58</t>
+  </si>
+  <si>
+    <t>12300-12598 Dayton Pike</t>
+  </si>
+  <si>
+    <t>5200 - 5301 Hixson Pike</t>
+  </si>
+  <si>
+    <t>3300 Dodds Ave</t>
+  </si>
+  <si>
+    <t>309 E Main St</t>
+  </si>
+  <si>
+    <t>7300 Shallowford Rd</t>
+  </si>
+  <si>
+    <t>100 Interstate 75 Nb</t>
+  </si>
+  <si>
+    <t>304 - 401 Browns Ferry Rd</t>
+  </si>
+  <si>
+    <t>100 BROWNS FERRY RD</t>
+  </si>
+  <si>
+    <t>70 INTERSTATE 75 NB</t>
+  </si>
+  <si>
+    <t>310 - 349 Highway 153 Sb</t>
+  </si>
+  <si>
+    <t>8010 - 8979 Volkswagen Dr</t>
+  </si>
+  <si>
+    <t>18300 INTERSTATE 24 EB</t>
+  </si>
+  <si>
+    <t>CHATTANOOGA</t>
   </si>
   <si>
     <t>HAMILTON COUNTY</t>
   </si>
   <si>
-    <t>CHATTANOOGA</t>
+    <t>SODDY DAISY</t>
   </si>
   <si>
     <t>EAST RIDGE</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>19</t>
+    <t>22</t>
   </si>
   <si>
     <t>18</t>
@@ -277,13 +334,22 @@
     <t>15</t>
   </si>
   <si>
-    <t>11</t>
+    <t>12</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t>0</t>
+    <t>8</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
 </sst>
 </file>
@@ -641,7 +707,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA13"/>
+  <dimension ref="A1:BA24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -807,16 +873,16 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
       </c>
       <c r="D2">
-        <v>35.124503</v>
+        <v>35.080702</v>
       </c>
       <c r="E2">
-        <v>-85.125298</v>
+        <v>-85.21418</v>
       </c>
       <c r="F2" t="s">
         <v>56</v>
@@ -825,13 +891,13 @@
         <v>57</v>
       </c>
       <c r="H2" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="K2" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="P2" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="Y2">
         <v>4</v>
@@ -839,16 +905,16 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>52</v>
       </c>
       <c r="D3">
-        <v>35.159409</v>
+        <v>35.131219</v>
       </c>
       <c r="E3">
-        <v>-85.193929</v>
+        <v>-85.122823</v>
       </c>
       <c r="F3" t="s">
         <v>56</v>
@@ -857,13 +923,13 @@
         <v>58</v>
       </c>
       <c r="H3" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="K3" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="P3" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="Y3">
         <v>4</v>
@@ -871,16 +937,16 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
         <v>53</v>
       </c>
       <c r="D4">
-        <v>34.995118</v>
+        <v>35.016659</v>
       </c>
       <c r="E4">
-        <v>-85.23435000000001</v>
+        <v>-85.179377</v>
       </c>
       <c r="F4" t="s">
         <v>56</v>
@@ -889,13 +955,13 @@
         <v>59</v>
       </c>
       <c r="H4" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="K4" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="P4" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="Y4">
         <v>4</v>
@@ -903,16 +969,16 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
         <v>52</v>
       </c>
       <c r="D5">
-        <v>35.0356</v>
+        <v>35.10786</v>
       </c>
       <c r="E5">
-        <v>-85.16376</v>
+        <v>-85.32541000000001</v>
       </c>
       <c r="F5" t="s">
         <v>56</v>
@@ -921,13 +987,13 @@
         <v>60</v>
       </c>
       <c r="H5" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="Y5">
         <v>4</v>
@@ -935,16 +1001,16 @@
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
         <v>52</v>
       </c>
       <c r="D6">
-        <v>35.276261</v>
+        <v>35.046324</v>
       </c>
       <c r="E6">
-        <v>-84.986068</v>
+        <v>-85.26336000000001</v>
       </c>
       <c r="F6" t="s">
         <v>56</v>
@@ -953,13 +1019,13 @@
         <v>61</v>
       </c>
       <c r="H6" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="P6" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="Y6">
         <v>4</v>
@@ -967,16 +1033,16 @@
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D7">
-        <v>35.01475</v>
+        <v>35.084696</v>
       </c>
       <c r="E7">
-        <v>-85.2516</v>
+        <v>-85.203333</v>
       </c>
       <c r="F7" t="s">
         <v>56</v>
@@ -985,13 +1051,13 @@
         <v>62</v>
       </c>
       <c r="H7" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="K7" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="P7" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="Y7">
         <v>4</v>
@@ -999,16 +1065,16 @@
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D8">
-        <v>35.014733</v>
+        <v>35.30909</v>
       </c>
       <c r="E8">
-        <v>-85.251611</v>
+        <v>-85.14274</v>
       </c>
       <c r="F8" t="s">
         <v>56</v>
@@ -1017,13 +1083,13 @@
         <v>63</v>
       </c>
       <c r="H8" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K8" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="P8" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="Y8">
         <v>4</v>
@@ -1031,16 +1097,16 @@
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
         <v>52</v>
       </c>
       <c r="D9">
-        <v>35.014733</v>
+        <v>35.137319</v>
       </c>
       <c r="E9">
-        <v>-85.251611</v>
+        <v>-85.23677000000001</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>
@@ -1049,13 +1115,13 @@
         <v>64</v>
       </c>
       <c r="H9" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K9" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="Y9">
         <v>4</v>
@@ -1063,16 +1129,16 @@
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
         <v>52</v>
       </c>
       <c r="D10">
-        <v>35.044307</v>
+        <v>35.003256</v>
       </c>
       <c r="E10">
-        <v>-85.305353</v>
+        <v>-85.28007700000001</v>
       </c>
       <c r="F10" t="s">
         <v>56</v>
@@ -1081,13 +1147,13 @@
         <v>65</v>
       </c>
       <c r="H10" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="K10" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="P10" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="Y10">
         <v>4</v>
@@ -1095,31 +1161,31 @@
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s">
         <v>52</v>
       </c>
       <c r="D11">
-        <v>35.044307</v>
+        <v>35.035012</v>
       </c>
       <c r="E11">
-        <v>-85.305353</v>
+        <v>-85.303878</v>
       </c>
       <c r="F11" t="s">
         <v>56</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H11" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="K11" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="P11" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="Y11">
         <v>4</v>
@@ -1127,31 +1193,31 @@
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D12">
-        <v>35.032085</v>
+        <v>35.035012</v>
       </c>
       <c r="E12">
-        <v>-85.3082</v>
+        <v>-85.303878</v>
       </c>
       <c r="F12" t="s">
         <v>56</v>
       </c>
       <c r="G12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H12" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K12" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="Y12">
         <v>4</v>
@@ -1159,33 +1225,385 @@
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
+        <v>105</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13">
+        <v>35.041303</v>
+      </c>
+      <c r="E13">
+        <v>-85.153824</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" t="s">
+        <v>89</v>
+      </c>
+      <c r="K13" t="s">
+        <v>97</v>
+      </c>
+      <c r="P13" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:53">
+      <c r="A14" s="1">
+        <v>111</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14">
+        <v>34.996081</v>
+      </c>
+      <c r="E14">
+        <v>-85.206737</v>
+      </c>
+      <c r="F14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" t="s">
+        <v>100</v>
+      </c>
+      <c r="P14" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:53">
+      <c r="A15" s="1">
+        <v>111</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15">
+        <v>34.996081</v>
+      </c>
+      <c r="E15">
+        <v>-85.206737</v>
+      </c>
+      <c r="F15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" t="s">
+        <v>90</v>
+      </c>
+      <c r="K15" t="s">
+        <v>100</v>
+      </c>
+      <c r="P15" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:53">
+      <c r="A16" s="1">
+        <v>116</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16">
+        <v>35.030596</v>
+      </c>
+      <c r="E16">
+        <v>-85.362297</v>
+      </c>
+      <c r="F16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" t="s">
+        <v>97</v>
+      </c>
+      <c r="P16" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
+      <c r="A17" s="1">
+        <v>117</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17">
+        <v>35.020581</v>
+      </c>
+      <c r="E17">
+        <v>-85.36582</v>
+      </c>
+      <c r="F17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" t="s">
+        <v>92</v>
+      </c>
+      <c r="K17" t="s">
+        <v>97</v>
+      </c>
+      <c r="P17" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="A18" s="1">
+        <v>118</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18">
+        <v>35.020581</v>
+      </c>
+      <c r="E18">
+        <v>-85.36582</v>
+      </c>
+      <c r="F18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" t="s">
+        <v>92</v>
+      </c>
+      <c r="K18" t="s">
+        <v>97</v>
+      </c>
+      <c r="P18" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="A19" s="1">
+        <v>125</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19">
+        <v>34.995549</v>
+      </c>
+      <c r="E19">
+        <v>-85.20746800000001</v>
+      </c>
+      <c r="F19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" t="s">
+        <v>93</v>
+      </c>
+      <c r="K19" t="s">
+        <v>100</v>
+      </c>
+      <c r="P19" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="A20" s="1">
+        <v>128</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20">
+        <v>35.062628</v>
+      </c>
+      <c r="E20">
+        <v>-85.194113</v>
+      </c>
+      <c r="F20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" t="s">
+        <v>94</v>
+      </c>
+      <c r="K20" t="s">
+        <v>97</v>
+      </c>
+      <c r="P20" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
+      <c r="A21" s="1">
+        <v>129</v>
+      </c>
+      <c r="C21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21">
+        <v>35.062628</v>
+      </c>
+      <c r="E21">
+        <v>-85.194113</v>
+      </c>
+      <c r="F21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" t="s">
+        <v>94</v>
+      </c>
+      <c r="K21" t="s">
+        <v>97</v>
+      </c>
+      <c r="P21" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
+      <c r="A22" s="1">
+        <v>130</v>
+      </c>
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22">
+        <v>35.062628</v>
+      </c>
+      <c r="E22">
+        <v>-85.194113</v>
+      </c>
+      <c r="F22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" t="s">
+        <v>76</v>
+      </c>
+      <c r="H22" t="s">
+        <v>94</v>
+      </c>
+      <c r="K22" t="s">
+        <v>97</v>
+      </c>
+      <c r="P22" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
+      <c r="A23" s="1">
+        <v>140</v>
+      </c>
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23">
+        <v>35.072824</v>
+      </c>
+      <c r="E23">
+        <v>-85.12366</v>
+      </c>
+      <c r="F23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" t="s">
+        <v>95</v>
+      </c>
+      <c r="K23" t="s">
+        <v>97</v>
+      </c>
+      <c r="P23" t="s">
         <v>110</v>
       </c>
-      <c r="C13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13">
-        <v>35.185629</v>
-      </c>
-      <c r="E13">
-        <v>-85.246926</v>
-      </c>
-      <c r="F13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" t="s">
-        <v>77</v>
-      </c>
-      <c r="K13" t="s">
-        <v>79</v>
-      </c>
-      <c r="P13" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y13">
+      <c r="Y23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
+      <c r="A24" s="1">
+        <v>147</v>
+      </c>
+      <c r="C24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24">
+        <v>35.015818</v>
+      </c>
+      <c r="E24">
+        <v>-85.254192</v>
+      </c>
+      <c r="F24" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24" t="s">
+        <v>96</v>
+      </c>
+      <c r="K24" t="s">
+        <v>100</v>
+      </c>
+      <c r="P24" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y24">
         <v>4</v>
       </c>
     </row>

--- a/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="105">
   <si>
     <t>Accident</t>
   </si>
@@ -178,153 +178,141 @@
     <t>No Injuries</t>
   </si>
   <si>
-    <t>Entrapment</t>
-  </si>
-  <si>
-    <t>Unknown Injuries</t>
-  </si>
-  <si>
-    <t>2019-04-05</t>
-  </si>
-  <si>
-    <t>22:37:47</t>
-  </si>
-  <si>
-    <t>18:55:45</t>
-  </si>
-  <si>
-    <t>18:02:35</t>
-  </si>
-  <si>
-    <t>17:52:06</t>
-  </si>
-  <si>
-    <t>17:02:03</t>
-  </si>
-  <si>
-    <t>16:30:24</t>
-  </si>
-  <si>
-    <t>15:55:26</t>
-  </si>
-  <si>
-    <t>15:53:51</t>
-  </si>
-  <si>
-    <t>15:36:16</t>
-  </si>
-  <si>
-    <t>12:40:50</t>
-  </si>
-  <si>
-    <t>12:40:17</t>
-  </si>
-  <si>
-    <t>10:35:03</t>
-  </si>
-  <si>
-    <t>10:08:14</t>
-  </si>
-  <si>
-    <t>09:19:31</t>
-  </si>
-  <si>
-    <t>09:18:56</t>
-  </si>
-  <si>
-    <t>09:18:47</t>
-  </si>
-  <si>
-    <t>08:33:44</t>
-  </si>
-  <si>
-    <t>08:25:52</t>
-  </si>
-  <si>
-    <t>08:25:25</t>
-  </si>
-  <si>
-    <t>08:24:52</t>
-  </si>
-  <si>
-    <t>07:45:46</t>
-  </si>
-  <si>
-    <t>06:55:01</t>
-  </si>
-  <si>
-    <t>4260-4268 Bonny Oaks Dr</t>
-  </si>
-  <si>
-    <t>6400-6599 Highway 58</t>
-  </si>
-  <si>
-    <t>340 Interstate 75 Sb</t>
-  </si>
-  <si>
-    <t>936-1098 Mountain Creek Rd</t>
-  </si>
-  <si>
-    <t>Milne St / Dodson Ave</t>
-  </si>
-  <si>
-    <t>4355 Highway 58</t>
-  </si>
-  <si>
-    <t>12300-12598 Dayton Pike</t>
-  </si>
-  <si>
-    <t>5200 - 5301 Hixson Pike</t>
-  </si>
-  <si>
-    <t>3300 Dodds Ave</t>
-  </si>
-  <si>
-    <t>309 E Main St</t>
-  </si>
-  <si>
-    <t>7300 Shallowford Rd</t>
-  </si>
-  <si>
-    <t>100 Interstate 75 Nb</t>
-  </si>
-  <si>
-    <t>304 - 401 Browns Ferry Rd</t>
-  </si>
-  <si>
-    <t>100 BROWNS FERRY RD</t>
-  </si>
-  <si>
-    <t>70 INTERSTATE 75 NB</t>
-  </si>
-  <si>
-    <t>310 - 349 Highway 153 Sb</t>
-  </si>
-  <si>
-    <t>8010 - 8979 Volkswagen Dr</t>
-  </si>
-  <si>
-    <t>18300 INTERSTATE 24 EB</t>
+    <t>2019-04-22</t>
+  </si>
+  <si>
+    <t>22:53:11</t>
+  </si>
+  <si>
+    <t>22:50:51</t>
+  </si>
+  <si>
+    <t>17:13:06</t>
+  </si>
+  <si>
+    <t>17:11:50</t>
+  </si>
+  <si>
+    <t>17:11:00</t>
+  </si>
+  <si>
+    <t>16:58:12</t>
+  </si>
+  <si>
+    <t>16:57:32</t>
+  </si>
+  <si>
+    <t>16:57:24</t>
+  </si>
+  <si>
+    <t>16:55:49</t>
+  </si>
+  <si>
+    <t>16:37:15</t>
+  </si>
+  <si>
+    <t>16:36:38</t>
+  </si>
+  <si>
+    <t>15:25:05</t>
+  </si>
+  <si>
+    <t>15:09:10</t>
+  </si>
+  <si>
+    <t>14:50:08</t>
+  </si>
+  <si>
+    <t>14:45:03</t>
+  </si>
+  <si>
+    <t>12:22:34</t>
+  </si>
+  <si>
+    <t>10:46:44</t>
+  </si>
+  <si>
+    <t>10:23:33</t>
+  </si>
+  <si>
+    <t>10:17:58</t>
+  </si>
+  <si>
+    <t>10:17:44</t>
+  </si>
+  <si>
+    <t>7105 Middle Valley Rd</t>
+  </si>
+  <si>
+    <t>7105 MIDDLE VALLEY RD</t>
+  </si>
+  <si>
+    <t>S Seminole Dr / Ringgold Rd</t>
+  </si>
+  <si>
+    <t>1010 Lee Pike</t>
+  </si>
+  <si>
+    <t>Ooltewah Georgetown Rd / Lee Hwy</t>
+  </si>
+  <si>
+    <t>OOLTEWAH GEORGETOWN RD / LEE HWY</t>
+  </si>
+  <si>
+    <t>18100 Interstate 24 Eb</t>
+  </si>
+  <si>
+    <t>18120 INTERSTATE 24 EB</t>
+  </si>
+  <si>
+    <t>7200 Shallowford Rd</t>
+  </si>
+  <si>
+    <t>CENTRAL AVE / WORKMAN RD</t>
+  </si>
+  <si>
+    <t>Apison Pike / Old Lee Hwy</t>
+  </si>
+  <si>
+    <t>1527-1679 Highway 27 Sb</t>
+  </si>
+  <si>
+    <t>1310 Highway 27 Sb</t>
+  </si>
+  <si>
+    <t>1 - 9 Exit 11 E On Ramp Sb</t>
+  </si>
+  <si>
+    <t>1619 Gunbarrel Rd</t>
+  </si>
+  <si>
+    <t>248 Northgate Mall Dr</t>
+  </si>
+  <si>
+    <t>4800-4899 Brainerd Rd</t>
+  </si>
+  <si>
+    <t>4823 Brainerd Rd</t>
+  </si>
+  <si>
+    <t>HAMILTON COUNTY</t>
+  </si>
+  <si>
+    <t>EAST RIDGE</t>
+  </si>
+  <si>
+    <t>COLLEGEDALE</t>
   </si>
   <si>
     <t>CHATTANOOGA</t>
   </si>
   <si>
-    <t>HAMILTON COUNTY</t>
-  </si>
-  <si>
     <t>SODDY DAISY</t>
   </si>
   <si>
-    <t>EAST RIDGE</t>
-  </si>
-  <si>
     <t>22</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
     <t>17</t>
   </si>
   <si>
@@ -334,22 +322,13 @@
     <t>15</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>12</t>
   </si>
   <si>
     <t>10</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>6</t>
   </si>
 </sst>
 </file>
@@ -707,7 +686,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA24"/>
+  <dimension ref="A1:BA23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -873,31 +852,31 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
       </c>
       <c r="D2">
-        <v>35.080702</v>
+        <v>35.178017</v>
       </c>
       <c r="E2">
-        <v>-85.21418</v>
+        <v>-85.201325</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="P2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Y2">
         <v>4</v>
@@ -905,31 +884,31 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>52</v>
       </c>
       <c r="D3">
-        <v>35.131219</v>
+        <v>35.178017</v>
       </c>
       <c r="E3">
-        <v>-85.122823</v>
+        <v>-85.201325</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>58</v>
-      </c>
       <c r="H3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K3" t="s">
+        <v>93</v>
+      </c>
+      <c r="P3" t="s">
         <v>98</v>
-      </c>
-      <c r="P3" t="s">
-        <v>102</v>
       </c>
       <c r="Y3">
         <v>4</v>
@@ -937,31 +916,31 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4">
-        <v>35.016659</v>
+        <v>35.00825</v>
       </c>
       <c r="E4">
-        <v>-85.179377</v>
+        <v>-85.26548</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Y4">
         <v>4</v>
@@ -969,31 +948,31 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>52</v>
       </c>
       <c r="D5">
-        <v>35.10786</v>
+        <v>35.310366</v>
       </c>
       <c r="E5">
-        <v>-85.32541000000001</v>
+        <v>-85.11517600000001</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Y5">
         <v>4</v>
@@ -1001,31 +980,31 @@
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
         <v>52</v>
       </c>
       <c r="D6">
-        <v>35.046324</v>
+        <v>35.082749</v>
       </c>
       <c r="E6">
-        <v>-85.26336000000001</v>
+        <v>-85.05853999999999</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Y6">
         <v>4</v>
@@ -1033,31 +1012,31 @@
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
         <v>52</v>
       </c>
       <c r="D7">
-        <v>35.084696</v>
+        <v>35.082749</v>
       </c>
       <c r="E7">
-        <v>-85.203333</v>
+        <v>-85.05853999999999</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="Y7">
         <v>4</v>
@@ -1065,31 +1044,31 @@
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D8">
-        <v>35.30909</v>
+        <v>35.016491</v>
       </c>
       <c r="E8">
-        <v>-85.14274</v>
+        <v>-85.28069000000001</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="Y8">
         <v>4</v>
@@ -1097,31 +1076,31 @@
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
         <v>52</v>
       </c>
       <c r="D9">
-        <v>35.137319</v>
+        <v>35.016491</v>
       </c>
       <c r="E9">
-        <v>-85.23677000000001</v>
+        <v>-85.28069000000001</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H9" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="K9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="Y9">
         <v>4</v>
@@ -1129,31 +1108,31 @@
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
         <v>52</v>
       </c>
       <c r="D10">
-        <v>35.003256</v>
+        <v>35.015381</v>
       </c>
       <c r="E10">
-        <v>-85.28007700000001</v>
+        <v>-85.276945</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H10" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P10" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="Y10">
         <v>4</v>
@@ -1161,31 +1140,31 @@
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
         <v>52</v>
       </c>
       <c r="D11">
-        <v>35.035012</v>
+        <v>35.015381</v>
       </c>
       <c r="E11">
-        <v>-85.303878</v>
+        <v>-85.276945</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H11" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="K11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P11" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="Y11">
         <v>4</v>
@@ -1193,31 +1172,31 @@
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12">
-        <v>35.035012</v>
+        <v>35.04156</v>
       </c>
       <c r="E12">
-        <v>-85.303878</v>
+        <v>-85.154814</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H12" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="K12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="Y12">
         <v>4</v>
@@ -1225,31 +1204,31 @@
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
         <v>53</v>
       </c>
       <c r="D13">
-        <v>35.041303</v>
+        <v>35.04156</v>
       </c>
       <c r="E13">
-        <v>-85.153824</v>
+        <v>-85.154814</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H13" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="K13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P13" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="Y13">
         <v>4</v>
@@ -1257,31 +1236,31 @@
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D14">
-        <v>34.996081</v>
+        <v>34.998805</v>
       </c>
       <c r="E14">
-        <v>-85.206737</v>
+        <v>-85.314233</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H14" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="K14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="Y14">
         <v>4</v>
@@ -1289,31 +1268,31 @@
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D15">
-        <v>34.996081</v>
+        <v>35.069722</v>
       </c>
       <c r="E15">
-        <v>-85.206737</v>
+        <v>-85.100611</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H15" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K15" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="Y15">
         <v>4</v>
@@ -1321,31 +1300,31 @@
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="1">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
         <v>52</v>
       </c>
       <c r="D16">
-        <v>35.030596</v>
+        <v>35.21406</v>
       </c>
       <c r="E16">
-        <v>-85.362297</v>
+        <v>-85.21698000000001</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H16" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K16" t="s">
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="Y16">
         <v>4</v>
@@ -1353,31 +1332,31 @@
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="1">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D17">
-        <v>35.020581</v>
+        <v>35.190361</v>
       </c>
       <c r="E17">
-        <v>-85.36582</v>
+        <v>-85.24278</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H17" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P17" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="Y17">
         <v>4</v>
@@ -1385,31 +1364,31 @@
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="1">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
         <v>52</v>
       </c>
       <c r="D18">
-        <v>35.020581</v>
+        <v>35.086481</v>
       </c>
       <c r="E18">
-        <v>-85.36582</v>
+        <v>-85.069652</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="Y18">
         <v>4</v>
@@ -1417,31 +1396,31 @@
     </row>
     <row r="19" spans="1:25">
       <c r="A19" s="1">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
         <v>52</v>
       </c>
       <c r="D19">
-        <v>34.995549</v>
+        <v>35.086481</v>
       </c>
       <c r="E19">
-        <v>-85.20746800000001</v>
+        <v>-85.069652</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H19" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K19" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="Y19">
         <v>4</v>
@@ -1449,31 +1428,31 @@
     </row>
     <row r="20" spans="1:25">
       <c r="A20" s="1">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="C20" t="s">
         <v>52</v>
       </c>
       <c r="D20">
-        <v>35.062628</v>
+        <v>35.020273</v>
       </c>
       <c r="E20">
-        <v>-85.194113</v>
+        <v>-85.16169600000001</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H20" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="K20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="Y20">
         <v>4</v>
@@ -1481,31 +1460,31 @@
     </row>
     <row r="21" spans="1:25">
       <c r="A21" s="1">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D21">
-        <v>35.062628</v>
+        <v>35.132877</v>
       </c>
       <c r="E21">
-        <v>-85.194113</v>
+        <v>-85.23830700000001</v>
       </c>
       <c r="F21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H21" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="Y21">
         <v>4</v>
@@ -1513,31 +1492,31 @@
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="1">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D22">
-        <v>35.062628</v>
+        <v>35.01318</v>
       </c>
       <c r="E22">
-        <v>-85.194113</v>
+        <v>-85.228784</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G22" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H22" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="Y22">
         <v>4</v>
@@ -1545,65 +1524,33 @@
     </row>
     <row r="23" spans="1:25">
       <c r="A23" s="1">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="C23" t="s">
         <v>52</v>
       </c>
       <c r="D23">
-        <v>35.072824</v>
+        <v>35.013646</v>
       </c>
       <c r="E23">
-        <v>-85.12366</v>
+        <v>-85.228888</v>
       </c>
       <c r="F23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G23" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H23" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="Y23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25">
-      <c r="A24" s="1">
-        <v>147</v>
-      </c>
-      <c r="C24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24">
-        <v>35.015818</v>
-      </c>
-      <c r="E24">
-        <v>-85.254192</v>
-      </c>
-      <c r="F24" t="s">
-        <v>56</v>
-      </c>
-      <c r="G24" t="s">
-        <v>78</v>
-      </c>
-      <c r="H24" t="s">
-        <v>96</v>
-      </c>
-      <c r="K24" t="s">
-        <v>100</v>
-      </c>
-      <c r="P24" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y24">
         <v>4</v>
       </c>
     </row>

--- a/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="85">
   <si>
     <t>Accident</t>
   </si>
@@ -175,160 +175,100 @@
     <t>Injuries</t>
   </si>
   <si>
-    <t>No Injuries</t>
-  </si>
-  <si>
-    <t>2019-04-22</t>
-  </si>
-  <si>
-    <t>22:53:11</t>
-  </si>
-  <si>
-    <t>22:50:51</t>
-  </si>
-  <si>
-    <t>17:13:06</t>
-  </si>
-  <si>
-    <t>17:11:50</t>
-  </si>
-  <si>
-    <t>17:11:00</t>
-  </si>
-  <si>
-    <t>16:58:12</t>
-  </si>
-  <si>
-    <t>16:57:32</t>
-  </si>
-  <si>
-    <t>16:57:24</t>
-  </si>
-  <si>
-    <t>16:55:49</t>
-  </si>
-  <si>
-    <t>16:37:15</t>
-  </si>
-  <si>
-    <t>16:36:38</t>
-  </si>
-  <si>
-    <t>15:25:05</t>
-  </si>
-  <si>
-    <t>15:09:10</t>
-  </si>
-  <si>
-    <t>14:50:08</t>
-  </si>
-  <si>
-    <t>14:45:03</t>
-  </si>
-  <si>
-    <t>12:22:34</t>
-  </si>
-  <si>
-    <t>10:46:44</t>
-  </si>
-  <si>
-    <t>10:23:33</t>
-  </si>
-  <si>
-    <t>10:17:58</t>
-  </si>
-  <si>
-    <t>10:17:44</t>
-  </si>
-  <si>
-    <t>7105 Middle Valley Rd</t>
-  </si>
-  <si>
-    <t>7105 MIDDLE VALLEY RD</t>
-  </si>
-  <si>
-    <t>S Seminole Dr / Ringgold Rd</t>
-  </si>
-  <si>
-    <t>1010 Lee Pike</t>
-  </si>
-  <si>
-    <t>Ooltewah Georgetown Rd / Lee Hwy</t>
-  </si>
-  <si>
-    <t>OOLTEWAH GEORGETOWN RD / LEE HWY</t>
-  </si>
-  <si>
-    <t>18100 Interstate 24 Eb</t>
-  </si>
-  <si>
-    <t>18120 INTERSTATE 24 EB</t>
-  </si>
-  <si>
-    <t>7200 Shallowford Rd</t>
-  </si>
-  <si>
-    <t>CENTRAL AVE / WORKMAN RD</t>
-  </si>
-  <si>
-    <t>Apison Pike / Old Lee Hwy</t>
-  </si>
-  <si>
-    <t>1527-1679 Highway 27 Sb</t>
-  </si>
-  <si>
-    <t>1310 Highway 27 Sb</t>
-  </si>
-  <si>
-    <t>1 - 9 Exit 11 E On Ramp Sb</t>
-  </si>
-  <si>
-    <t>1619 Gunbarrel Rd</t>
-  </si>
-  <si>
-    <t>248 Northgate Mall Dr</t>
-  </si>
-  <si>
-    <t>4800-4899 Brainerd Rd</t>
-  </si>
-  <si>
-    <t>4823 Brainerd Rd</t>
-  </si>
-  <si>
-    <t>HAMILTON COUNTY</t>
+    <t>Unknown Injuries</t>
+  </si>
+  <si>
+    <t>2019-04-27</t>
+  </si>
+  <si>
+    <t>18:06:20</t>
+  </si>
+  <si>
+    <t>18:06:01</t>
+  </si>
+  <si>
+    <t>14:24:42</t>
+  </si>
+  <si>
+    <t>14:24:02</t>
+  </si>
+  <si>
+    <t>11:36:55</t>
+  </si>
+  <si>
+    <t>10:40:12</t>
+  </si>
+  <si>
+    <t>10:39:33</t>
+  </si>
+  <si>
+    <t>10:39:17</t>
+  </si>
+  <si>
+    <t>07:47:53</t>
+  </si>
+  <si>
+    <t>07:47:36</t>
+  </si>
+  <si>
+    <t>04:49:46</t>
+  </si>
+  <si>
+    <t>04:48:41</t>
+  </si>
+  <si>
+    <t>01:53:07</t>
+  </si>
+  <si>
+    <t>01:53:06</t>
+  </si>
+  <si>
+    <t>N Market St / Cherokee Blvd</t>
+  </si>
+  <si>
+    <t>4736 Highway 58</t>
+  </si>
+  <si>
+    <t>720 E 4th St</t>
+  </si>
+  <si>
+    <t>2231 TUNNEL BLVD</t>
+  </si>
+  <si>
+    <t>Cherokee Blvd / Manufacturers Rd</t>
+  </si>
+  <si>
+    <t>6200 Ringgold Rd</t>
+  </si>
+  <si>
+    <t>2500 Gunbarrel Rd</t>
+  </si>
+  <si>
+    <t>CHATTANOOGA</t>
   </si>
   <si>
     <t>EAST RIDGE</t>
   </si>
   <si>
-    <t>COLLEGEDALE</t>
-  </si>
-  <si>
-    <t>CHATTANOOGA</t>
-  </si>
-  <si>
-    <t>SODDY DAISY</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>15</t>
+    <t>18</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
-    <t>12</t>
+    <t>11</t>
   </si>
   <si>
     <t>10</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -686,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA23"/>
+  <dimension ref="A1:BA15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -852,16 +792,16 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
       </c>
       <c r="D2">
-        <v>35.178017</v>
+        <v>35.062644</v>
       </c>
       <c r="E2">
-        <v>-85.201325</v>
+        <v>-85.308526</v>
       </c>
       <c r="F2" t="s">
         <v>54</v>
@@ -870,13 +810,13 @@
         <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="K2" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="P2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="Y2">
         <v>4</v>
@@ -884,16 +824,16 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>52</v>
       </c>
       <c r="D3">
-        <v>35.178017</v>
+        <v>35.062644</v>
       </c>
       <c r="E3">
-        <v>-85.201325</v>
+        <v>-85.308526</v>
       </c>
       <c r="F3" t="s">
         <v>54</v>
@@ -902,13 +842,13 @@
         <v>56</v>
       </c>
       <c r="H3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" t="s">
         <v>76</v>
       </c>
-      <c r="K3" t="s">
-        <v>93</v>
-      </c>
       <c r="P3" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="Y3">
         <v>4</v>
@@ -916,16 +856,16 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
         <v>52</v>
       </c>
       <c r="D4">
-        <v>35.00825</v>
+        <v>35.087384</v>
       </c>
       <c r="E4">
-        <v>-85.26548</v>
+        <v>-85.189908</v>
       </c>
       <c r="F4" t="s">
         <v>54</v>
@@ -934,13 +874,13 @@
         <v>57</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="P4" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="Y4">
         <v>4</v>
@@ -948,16 +888,16 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
         <v>52</v>
       </c>
       <c r="D5">
-        <v>35.310366</v>
+        <v>35.087384</v>
       </c>
       <c r="E5">
-        <v>-85.11517600000001</v>
+        <v>-85.189908</v>
       </c>
       <c r="F5" t="s">
         <v>54</v>
@@ -966,13 +906,13 @@
         <v>58</v>
       </c>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K5" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="P5" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="Y5">
         <v>4</v>
@@ -980,16 +920,16 @@
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
         <v>52</v>
       </c>
       <c r="D6">
-        <v>35.082749</v>
+        <v>35.050355</v>
       </c>
       <c r="E6">
-        <v>-85.05853999999999</v>
+        <v>-85.30092999999999</v>
       </c>
       <c r="F6" t="s">
         <v>54</v>
@@ -998,13 +938,13 @@
         <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="K6" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="P6" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="Y6">
         <v>4</v>
@@ -1012,31 +952,31 @@
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
         <v>52</v>
       </c>
       <c r="D7">
-        <v>35.082749</v>
+        <v>35.057017</v>
       </c>
       <c r="E7">
-        <v>-85.05853999999999</v>
+        <v>-85.23183299999999</v>
       </c>
       <c r="F7" t="s">
         <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H7" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="K7" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="P7" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="Y7">
         <v>4</v>
@@ -1044,31 +984,31 @@
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
         <v>52</v>
       </c>
       <c r="D8">
-        <v>35.016491</v>
+        <v>35.057017</v>
       </c>
       <c r="E8">
-        <v>-85.28069000000001</v>
+        <v>-85.23183299999999</v>
       </c>
       <c r="F8" t="s">
         <v>54</v>
       </c>
       <c r="G8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" t="s">
+        <v>76</v>
+      </c>
+      <c r="P8" t="s">
         <v>81</v>
-      </c>
-      <c r="K8" t="s">
-        <v>96</v>
-      </c>
-      <c r="P8" t="s">
-        <v>100</v>
       </c>
       <c r="Y8">
         <v>4</v>
@@ -1076,31 +1016,31 @@
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D9">
-        <v>35.016491</v>
+        <v>35.057017</v>
       </c>
       <c r="E9">
-        <v>-85.28069000000001</v>
+        <v>-85.23183299999999</v>
       </c>
       <c r="F9" t="s">
         <v>54</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H9" t="s">
+        <v>72</v>
+      </c>
+      <c r="K9" t="s">
+        <v>76</v>
+      </c>
+      <c r="P9" t="s">
         <v>81</v>
-      </c>
-      <c r="K9" t="s">
-        <v>96</v>
-      </c>
-      <c r="P9" t="s">
-        <v>100</v>
       </c>
       <c r="Y9">
         <v>4</v>
@@ -1108,31 +1048,31 @@
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
         <v>52</v>
       </c>
       <c r="D10">
-        <v>35.015381</v>
+        <v>35.063562</v>
       </c>
       <c r="E10">
-        <v>-85.276945</v>
+        <v>-85.31026799999999</v>
       </c>
       <c r="F10" t="s">
         <v>54</v>
       </c>
       <c r="G10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" t="s">
+        <v>76</v>
+      </c>
+      <c r="P10" t="s">
         <v>82</v>
-      </c>
-      <c r="K10" t="s">
-        <v>96</v>
-      </c>
-      <c r="P10" t="s">
-        <v>100</v>
       </c>
       <c r="Y10">
         <v>4</v>
@@ -1140,31 +1080,31 @@
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
         <v>52</v>
       </c>
       <c r="D11">
-        <v>35.015381</v>
+        <v>35.063562</v>
       </c>
       <c r="E11">
-        <v>-85.276945</v>
+        <v>-85.31026799999999</v>
       </c>
       <c r="F11" t="s">
         <v>54</v>
       </c>
       <c r="G11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H11" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" t="s">
         <v>82</v>
-      </c>
-      <c r="K11" t="s">
-        <v>96</v>
-      </c>
-      <c r="P11" t="s">
-        <v>100</v>
       </c>
       <c r="Y11">
         <v>4</v>
@@ -1172,31 +1112,31 @@
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
         <v>52</v>
       </c>
       <c r="D12">
-        <v>35.04156</v>
+        <v>34.989454</v>
       </c>
       <c r="E12">
-        <v>-85.154814</v>
+        <v>-85.21283099999999</v>
       </c>
       <c r="F12" t="s">
         <v>54</v>
       </c>
       <c r="G12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H12" t="s">
+        <v>74</v>
+      </c>
+      <c r="K12" t="s">
+        <v>77</v>
+      </c>
+      <c r="P12" t="s">
         <v>83</v>
-      </c>
-      <c r="K12" t="s">
-        <v>96</v>
-      </c>
-      <c r="P12" t="s">
-        <v>100</v>
       </c>
       <c r="Y12">
         <v>4</v>
@@ -1204,31 +1144,31 @@
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13">
-        <v>35.04156</v>
+        <v>34.989454</v>
       </c>
       <c r="E13">
-        <v>-85.154814</v>
+        <v>-85.21283099999999</v>
       </c>
       <c r="F13" t="s">
         <v>54</v>
       </c>
       <c r="G13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H13" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" t="s">
+        <v>77</v>
+      </c>
+      <c r="P13" t="s">
         <v>83</v>
-      </c>
-      <c r="K13" t="s">
-        <v>96</v>
-      </c>
-      <c r="P13" t="s">
-        <v>100</v>
       </c>
       <c r="Y13">
         <v>4</v>
@@ -1236,31 +1176,31 @@
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
         <v>52</v>
       </c>
       <c r="D14">
-        <v>34.998805</v>
+        <v>35.04531</v>
       </c>
       <c r="E14">
-        <v>-85.314233</v>
+        <v>-85.14727499999999</v>
       </c>
       <c r="F14" t="s">
         <v>54</v>
       </c>
       <c r="G14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H14" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" t="s">
+        <v>76</v>
+      </c>
+      <c r="P14" t="s">
         <v>84</v>
-      </c>
-      <c r="K14" t="s">
-        <v>96</v>
-      </c>
-      <c r="P14" t="s">
-        <v>101</v>
       </c>
       <c r="Y14">
         <v>4</v>
@@ -1268,289 +1208,33 @@
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15">
-        <v>35.069722</v>
+        <v>35.04531</v>
       </c>
       <c r="E15">
-        <v>-85.100611</v>
+        <v>-85.14727499999999</v>
       </c>
       <c r="F15" t="s">
         <v>54</v>
       </c>
       <c r="G15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H15" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K15" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="P15" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="Y15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:53">
-      <c r="A16" s="1">
-        <v>56</v>
-      </c>
-      <c r="C16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16">
-        <v>35.21406</v>
-      </c>
-      <c r="E16">
-        <v>-85.21698000000001</v>
-      </c>
-      <c r="F16" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" t="s">
-        <v>68</v>
-      </c>
-      <c r="H16" t="s">
-        <v>86</v>
-      </c>
-      <c r="K16" t="s">
-        <v>97</v>
-      </c>
-      <c r="P16" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25">
-      <c r="A17" s="1">
-        <v>60</v>
-      </c>
-      <c r="C17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17">
-        <v>35.190361</v>
-      </c>
-      <c r="E17">
-        <v>-85.24278</v>
-      </c>
-      <c r="F17" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17" t="s">
-        <v>69</v>
-      </c>
-      <c r="H17" t="s">
-        <v>87</v>
-      </c>
-      <c r="K17" t="s">
-        <v>96</v>
-      </c>
-      <c r="P17" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25">
-      <c r="A18" s="1">
-        <v>76</v>
-      </c>
-      <c r="C18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18">
-        <v>35.086481</v>
-      </c>
-      <c r="E18">
-        <v>-85.069652</v>
-      </c>
-      <c r="F18" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" t="s">
-        <v>70</v>
-      </c>
-      <c r="H18" t="s">
-        <v>88</v>
-      </c>
-      <c r="K18" t="s">
-        <v>96</v>
-      </c>
-      <c r="P18" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25">
-      <c r="A19" s="1">
-        <v>77</v>
-      </c>
-      <c r="C19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19">
-        <v>35.086481</v>
-      </c>
-      <c r="E19">
-        <v>-85.069652</v>
-      </c>
-      <c r="F19" t="s">
-        <v>54</v>
-      </c>
-      <c r="G19" t="s">
-        <v>70</v>
-      </c>
-      <c r="H19" t="s">
-        <v>88</v>
-      </c>
-      <c r="K19" t="s">
-        <v>96</v>
-      </c>
-      <c r="P19" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25">
-      <c r="A20" s="1">
-        <v>88</v>
-      </c>
-      <c r="C20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20">
-        <v>35.020273</v>
-      </c>
-      <c r="E20">
-        <v>-85.16169600000001</v>
-      </c>
-      <c r="F20" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" t="s">
-        <v>71</v>
-      </c>
-      <c r="H20" t="s">
-        <v>89</v>
-      </c>
-      <c r="K20" t="s">
-        <v>96</v>
-      </c>
-      <c r="P20" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25">
-      <c r="A21" s="1">
-        <v>92</v>
-      </c>
-      <c r="C21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21">
-        <v>35.132877</v>
-      </c>
-      <c r="E21">
-        <v>-85.23830700000001</v>
-      </c>
-      <c r="F21" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21" t="s">
-        <v>72</v>
-      </c>
-      <c r="H21" t="s">
-        <v>90</v>
-      </c>
-      <c r="K21" t="s">
-        <v>96</v>
-      </c>
-      <c r="P21" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25">
-      <c r="A22" s="1">
-        <v>94</v>
-      </c>
-      <c r="C22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22">
-        <v>35.01318</v>
-      </c>
-      <c r="E22">
-        <v>-85.228784</v>
-      </c>
-      <c r="F22" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22" t="s">
-        <v>73</v>
-      </c>
-      <c r="H22" t="s">
-        <v>91</v>
-      </c>
-      <c r="K22" t="s">
-        <v>96</v>
-      </c>
-      <c r="P22" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25">
-      <c r="A23" s="1">
-        <v>96</v>
-      </c>
-      <c r="C23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23">
-        <v>35.013646</v>
-      </c>
-      <c r="E23">
-        <v>-85.228888</v>
-      </c>
-      <c r="F23" t="s">
-        <v>54</v>
-      </c>
-      <c r="G23" t="s">
-        <v>74</v>
-      </c>
-      <c r="H23" t="s">
-        <v>92</v>
-      </c>
-      <c r="K23" t="s">
-        <v>96</v>
-      </c>
-      <c r="P23" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y23">
         <v>4</v>
       </c>
     </row>

--- a/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="82">
   <si>
     <t>Accident</t>
   </si>
@@ -172,103 +172,94 @@
     <t>Pavement_Type</t>
   </si>
   <si>
+    <t>Unknown Injuries</t>
+  </si>
+  <si>
     <t>Injuries</t>
   </si>
   <si>
-    <t>Unknown Injuries</t>
-  </si>
-  <si>
-    <t>2019-04-27</t>
-  </si>
-  <si>
-    <t>18:06:20</t>
-  </si>
-  <si>
-    <t>18:06:01</t>
-  </si>
-  <si>
-    <t>14:24:42</t>
-  </si>
-  <si>
-    <t>14:24:02</t>
-  </si>
-  <si>
-    <t>11:36:55</t>
-  </si>
-  <si>
-    <t>10:40:12</t>
-  </si>
-  <si>
-    <t>10:39:33</t>
-  </si>
-  <si>
-    <t>10:39:17</t>
-  </si>
-  <si>
-    <t>07:47:53</t>
-  </si>
-  <si>
-    <t>07:47:36</t>
-  </si>
-  <si>
-    <t>04:49:46</t>
-  </si>
-  <si>
-    <t>04:48:41</t>
-  </si>
-  <si>
-    <t>01:53:07</t>
-  </si>
-  <si>
-    <t>01:53:06</t>
-  </si>
-  <si>
-    <t>N Market St / Cherokee Blvd</t>
-  </si>
-  <si>
-    <t>4736 Highway 58</t>
-  </si>
-  <si>
-    <t>720 E 4th St</t>
-  </si>
-  <si>
-    <t>2231 TUNNEL BLVD</t>
-  </si>
-  <si>
-    <t>Cherokee Blvd / Manufacturers Rd</t>
-  </si>
-  <si>
-    <t>6200 Ringgold Rd</t>
-  </si>
-  <si>
-    <t>2500 Gunbarrel Rd</t>
+    <t>2019-05-08</t>
+  </si>
+  <si>
+    <t>18:50:36</t>
+  </si>
+  <si>
+    <t>16:54:22</t>
+  </si>
+  <si>
+    <t>16:53:13</t>
+  </si>
+  <si>
+    <t>15:46:07</t>
+  </si>
+  <si>
+    <t>14:05:57</t>
+  </si>
+  <si>
+    <t>14:05:08</t>
+  </si>
+  <si>
+    <t>10:27:31</t>
+  </si>
+  <si>
+    <t>10:26:32</t>
+  </si>
+  <si>
+    <t>07:34:47</t>
+  </si>
+  <si>
+    <t>07:34:15</t>
+  </si>
+  <si>
+    <t>07:32:52</t>
+  </si>
+  <si>
+    <t>Dover Ln / Ringgold Rd</t>
+  </si>
+  <si>
+    <t>Rossville Blvd / E 48th St</t>
+  </si>
+  <si>
+    <t>8100-8185 E Brainerd Rd</t>
+  </si>
+  <si>
+    <t>5000 BRAINERD RD</t>
+  </si>
+  <si>
+    <t>4011 Brainerd Rd</t>
+  </si>
+  <si>
+    <t>Signal Mountain Rd / Dayton Blvd</t>
+  </si>
+  <si>
+    <t>280 INTERSTATE 75 SB</t>
+  </si>
+  <si>
+    <t>EAST RIDGE</t>
   </si>
   <si>
     <t>CHATTANOOGA</t>
   </si>
   <si>
-    <t>EAST RIDGE</t>
+    <t>RED BANK</t>
   </si>
   <si>
     <t>18</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>14</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
     <t>7</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -626,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA15"/>
+  <dimension ref="A1:BA12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -792,16 +783,16 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
       </c>
       <c r="D2">
-        <v>35.062644</v>
+        <v>34.996365</v>
       </c>
       <c r="E2">
-        <v>-85.308526</v>
+        <v>-85.240567</v>
       </c>
       <c r="F2" t="s">
         <v>54</v>
@@ -810,30 +801,30 @@
         <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P2" t="s">
         <v>76</v>
       </c>
-      <c r="P2" t="s">
-        <v>78</v>
-      </c>
       <c r="Y2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D3">
-        <v>35.062644</v>
+        <v>34.987664</v>
       </c>
       <c r="E3">
-        <v>-85.308526</v>
+        <v>-85.288572</v>
       </c>
       <c r="F3" t="s">
         <v>54</v>
@@ -842,30 +833,30 @@
         <v>56</v>
       </c>
       <c r="H3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Y3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D4">
-        <v>35.087384</v>
+        <v>34.987664</v>
       </c>
       <c r="E4">
-        <v>-85.189908</v>
+        <v>-85.288572</v>
       </c>
       <c r="F4" t="s">
         <v>54</v>
@@ -874,30 +865,30 @@
         <v>57</v>
       </c>
       <c r="H4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Y4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D5">
-        <v>35.087384</v>
+        <v>35.003777</v>
       </c>
       <c r="E5">
-        <v>-85.189908</v>
+        <v>-85.14904799999999</v>
       </c>
       <c r="F5" t="s">
         <v>54</v>
@@ -906,30 +897,30 @@
         <v>58</v>
       </c>
       <c r="H5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y5">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D6">
-        <v>35.050355</v>
+        <v>35.012088</v>
       </c>
       <c r="E6">
-        <v>-85.30092999999999</v>
+        <v>-85.227019</v>
       </c>
       <c r="F6" t="s">
         <v>54</v>
@@ -938,30 +929,30 @@
         <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D7">
-        <v>35.057017</v>
+        <v>35.012088</v>
       </c>
       <c r="E7">
-        <v>-85.23183299999999</v>
+        <v>-85.227019</v>
       </c>
       <c r="F7" t="s">
         <v>54</v>
@@ -970,30 +961,30 @@
         <v>60</v>
       </c>
       <c r="H7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Y7">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D8">
-        <v>35.057017</v>
+        <v>35.018858</v>
       </c>
       <c r="E8">
-        <v>-85.23183299999999</v>
+        <v>-85.23831199999999</v>
       </c>
       <c r="F8" t="s">
         <v>54</v>
@@ -1002,30 +993,30 @@
         <v>61</v>
       </c>
       <c r="H8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Y8">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
         <v>53</v>
       </c>
       <c r="D9">
-        <v>35.057017</v>
+        <v>35.018858</v>
       </c>
       <c r="E9">
-        <v>-85.23183299999999</v>
+        <v>-85.23831199999999</v>
       </c>
       <c r="F9" t="s">
         <v>54</v>
@@ -1034,30 +1025,30 @@
         <v>62</v>
       </c>
       <c r="H9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Y9">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D10">
-        <v>35.063562</v>
+        <v>35.083977</v>
       </c>
       <c r="E10">
-        <v>-85.31026799999999</v>
+        <v>-85.317611</v>
       </c>
       <c r="F10" t="s">
         <v>54</v>
@@ -1066,30 +1057,30 @@
         <v>63</v>
       </c>
       <c r="H10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Y10">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D11">
-        <v>35.063562</v>
+        <v>35.083977</v>
       </c>
       <c r="E11">
-        <v>-85.31026799999999</v>
+        <v>-85.317611</v>
       </c>
       <c r="F11" t="s">
         <v>54</v>
@@ -1098,30 +1089,30 @@
         <v>64</v>
       </c>
       <c r="H11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Y11">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D12">
-        <v>34.989454</v>
+        <v>35.011883</v>
       </c>
       <c r="E12">
-        <v>-85.21283099999999</v>
+        <v>-85.18720399999999</v>
       </c>
       <c r="F12" t="s">
         <v>54</v>
@@ -1130,112 +1121,16 @@
         <v>65</v>
       </c>
       <c r="H12" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" t="s">
         <v>74</v>
       </c>
-      <c r="K12" t="s">
-        <v>77</v>
-      </c>
       <c r="P12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Y12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:53">
-      <c r="A13" s="1">
-        <v>78</v>
-      </c>
-      <c r="C13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13">
-        <v>34.989454</v>
-      </c>
-      <c r="E13">
-        <v>-85.21283099999999</v>
-      </c>
-      <c r="F13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" t="s">
-        <v>74</v>
-      </c>
-      <c r="K13" t="s">
-        <v>77</v>
-      </c>
-      <c r="P13" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:53">
-      <c r="A14" s="1">
-        <v>80</v>
-      </c>
-      <c r="C14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14">
-        <v>35.04531</v>
-      </c>
-      <c r="E14">
-        <v>-85.14727499999999</v>
-      </c>
-      <c r="F14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" t="s">
-        <v>75</v>
-      </c>
-      <c r="K14" t="s">
-        <v>76</v>
-      </c>
-      <c r="P14" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:53">
-      <c r="A15" s="1">
-        <v>81</v>
-      </c>
-      <c r="C15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15">
-        <v>35.04531</v>
-      </c>
-      <c r="E15">
-        <v>-85.14727499999999</v>
-      </c>
-      <c r="F15" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" t="s">
-        <v>68</v>
-      </c>
-      <c r="H15" t="s">
-        <v>75</v>
-      </c>
-      <c r="K15" t="s">
-        <v>76</v>
-      </c>
-      <c r="P15" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y15">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="93">
   <si>
     <t>Accident</t>
   </si>
@@ -172,79 +172,106 @@
     <t>Pavement_Type</t>
   </si>
   <si>
-    <t>Unknown Injuries</t>
-  </si>
-  <si>
     <t>Injuries</t>
   </si>
   <si>
-    <t>2019-05-08</t>
-  </si>
-  <si>
-    <t>18:50:36</t>
-  </si>
-  <si>
-    <t>16:54:22</t>
-  </si>
-  <si>
-    <t>16:53:13</t>
-  </si>
-  <si>
-    <t>15:46:07</t>
-  </si>
-  <si>
-    <t>14:05:57</t>
-  </si>
-  <si>
-    <t>14:05:08</t>
-  </si>
-  <si>
-    <t>10:27:31</t>
-  </si>
-  <si>
-    <t>10:26:32</t>
-  </si>
-  <si>
-    <t>07:34:47</t>
-  </si>
-  <si>
-    <t>07:34:15</t>
-  </si>
-  <si>
-    <t>07:32:52</t>
-  </si>
-  <si>
-    <t>Dover Ln / Ringgold Rd</t>
-  </si>
-  <si>
-    <t>Rossville Blvd / E 48th St</t>
-  </si>
-  <si>
-    <t>8100-8185 E Brainerd Rd</t>
-  </si>
-  <si>
-    <t>5000 BRAINERD RD</t>
-  </si>
-  <si>
-    <t>4011 Brainerd Rd</t>
-  </si>
-  <si>
-    <t>Signal Mountain Rd / Dayton Blvd</t>
-  </si>
-  <si>
-    <t>280 INTERSTATE 75 SB</t>
-  </si>
-  <si>
-    <t>EAST RIDGE</t>
+    <t>No Injuries</t>
+  </si>
+  <si>
+    <t>2019-05-09</t>
+  </si>
+  <si>
+    <t>21:27:04</t>
+  </si>
+  <si>
+    <t>16:17:15</t>
+  </si>
+  <si>
+    <t>16:16:52</t>
+  </si>
+  <si>
+    <t>16:10:26</t>
+  </si>
+  <si>
+    <t>16:01:45</t>
+  </si>
+  <si>
+    <t>16:01:17</t>
+  </si>
+  <si>
+    <t>15:51:07</t>
+  </si>
+  <si>
+    <t>15:48:43</t>
+  </si>
+  <si>
+    <t>13:08:23</t>
+  </si>
+  <si>
+    <t>13:07:47</t>
+  </si>
+  <si>
+    <t>12:57:40</t>
+  </si>
+  <si>
+    <t>12:57:30</t>
+  </si>
+  <si>
+    <t>11:41:20</t>
+  </si>
+  <si>
+    <t>09:38:04</t>
+  </si>
+  <si>
+    <t>09:09:30</t>
+  </si>
+  <si>
+    <t>08:42:28</t>
+  </si>
+  <si>
+    <t>1360 INTERSTATE 75 SB</t>
+  </si>
+  <si>
+    <t>256-269 Sequoyah Rd</t>
+  </si>
+  <si>
+    <t>3219 BROAD ST</t>
+  </si>
+  <si>
+    <t>Airpark Dr / Vance Rd</t>
+  </si>
+  <si>
+    <t>6501 Ramsey Rd</t>
+  </si>
+  <si>
+    <t>4208 N Access Rd</t>
+  </si>
+  <si>
+    <t>15113-15199 Dayton Pike</t>
+  </si>
+  <si>
+    <t>Mccallie Ave / Lindsay St</t>
+  </si>
+  <si>
+    <t>5900 Highway 58</t>
+  </si>
+  <si>
+    <t>100 Ochs Hwy</t>
+  </si>
+  <si>
+    <t>501-513 Council Fire Dr</t>
+  </si>
+  <si>
+    <t>HAMILTON COUNTY</t>
+  </si>
+  <si>
+    <t>SODDY DAISY</t>
   </si>
   <si>
     <t>CHATTANOOGA</t>
   </si>
   <si>
-    <t>RED BANK</t>
-  </si>
-  <si>
-    <t>18</t>
+    <t>21</t>
   </si>
   <si>
     <t>16</t>
@@ -253,13 +280,19 @@
     <t>15</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>7</t>
+    <t>13</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
 </sst>
 </file>
@@ -617,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA12"/>
+  <dimension ref="A1:BA18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -783,16 +816,16 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
       </c>
       <c r="D2">
-        <v>34.996365</v>
+        <v>35.109425</v>
       </c>
       <c r="E2">
-        <v>-85.240567</v>
+        <v>-85.04991699999999</v>
       </c>
       <c r="F2" t="s">
         <v>54</v>
@@ -801,13 +834,13 @@
         <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="K2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="Y2">
         <v>5</v>
@@ -815,16 +848,16 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3">
-        <v>34.987664</v>
+        <v>35.248455</v>
       </c>
       <c r="E3">
-        <v>-85.288572</v>
+        <v>-85.17887500000001</v>
       </c>
       <c r="F3" t="s">
         <v>54</v>
@@ -833,13 +866,13 @@
         <v>56</v>
       </c>
       <c r="H3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="K3" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="Y3">
         <v>5</v>
@@ -847,16 +880,16 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4">
-        <v>34.987664</v>
+        <v>35.248455</v>
       </c>
       <c r="E4">
-        <v>-85.288572</v>
+        <v>-85.17887500000001</v>
       </c>
       <c r="F4" t="s">
         <v>54</v>
@@ -865,13 +898,13 @@
         <v>57</v>
       </c>
       <c r="H4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="Y4">
         <v>5</v>
@@ -879,16 +912,16 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5">
-        <v>35.003777</v>
+        <v>35.018125</v>
       </c>
       <c r="E5">
-        <v>-85.14904799999999</v>
+        <v>-85.32198</v>
       </c>
       <c r="F5" t="s">
         <v>54</v>
@@ -897,13 +930,13 @@
         <v>58</v>
       </c>
       <c r="H5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="Y5">
         <v>5</v>
@@ -911,16 +944,16 @@
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6">
-        <v>35.012088</v>
+        <v>35.034104</v>
       </c>
       <c r="E6">
-        <v>-85.227019</v>
+        <v>-85.186956</v>
       </c>
       <c r="F6" t="s">
         <v>54</v>
@@ -929,13 +962,13 @@
         <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="K6" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="Y6">
         <v>5</v>
@@ -943,16 +976,16 @@
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7">
-        <v>35.012088</v>
+        <v>35.034104</v>
       </c>
       <c r="E7">
-        <v>-85.227019</v>
+        <v>-85.186956</v>
       </c>
       <c r="F7" t="s">
         <v>54</v>
@@ -961,13 +994,13 @@
         <v>60</v>
       </c>
       <c r="H7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="K7" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="Y7">
         <v>5</v>
@@ -975,16 +1008,16 @@
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8">
-        <v>35.018858</v>
+        <v>35.16791</v>
       </c>
       <c r="E8">
-        <v>-85.23831199999999</v>
+        <v>-85.099041</v>
       </c>
       <c r="F8" t="s">
         <v>54</v>
@@ -993,13 +1026,13 @@
         <v>61</v>
       </c>
       <c r="H8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K8" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="Y8">
         <v>5</v>
@@ -1007,16 +1040,16 @@
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9">
-        <v>35.018858</v>
+        <v>35.16791</v>
       </c>
       <c r="E9">
-        <v>-85.23831199999999</v>
+        <v>-85.099041</v>
       </c>
       <c r="F9" t="s">
         <v>54</v>
@@ -1025,13 +1058,13 @@
         <v>62</v>
       </c>
       <c r="H9" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K9" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="P9" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="Y9">
         <v>5</v>
@@ -1039,16 +1072,16 @@
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10">
-        <v>35.083977</v>
+        <v>35.112875</v>
       </c>
       <c r="E10">
-        <v>-85.317611</v>
+        <v>-85.255402</v>
       </c>
       <c r="F10" t="s">
         <v>54</v>
@@ -1057,13 +1090,13 @@
         <v>63</v>
       </c>
       <c r="H10" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K10" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="Y10">
         <v>5</v>
@@ -1071,16 +1104,16 @@
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11">
-        <v>35.083977</v>
+        <v>35.112875</v>
       </c>
       <c r="E11">
-        <v>-85.317611</v>
+        <v>-85.255402</v>
       </c>
       <c r="F11" t="s">
         <v>54</v>
@@ -1089,13 +1122,13 @@
         <v>64</v>
       </c>
       <c r="H11" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K11" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="Y11">
         <v>5</v>
@@ -1103,16 +1136,16 @@
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12">
-        <v>35.011883</v>
+        <v>35.384953</v>
       </c>
       <c r="E12">
-        <v>-85.18720399999999</v>
+        <v>-85.10852300000001</v>
       </c>
       <c r="F12" t="s">
         <v>54</v>
@@ -1121,15 +1154,207 @@
         <v>65</v>
       </c>
       <c r="H12" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K12" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="P12" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:53">
+      <c r="A13" s="1">
+        <v>84</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13">
+        <v>35.384953</v>
+      </c>
+      <c r="E13">
+        <v>-85.10852300000001</v>
+      </c>
+      <c r="F13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" t="s">
+        <v>77</v>
+      </c>
+      <c r="K13" t="s">
+        <v>82</v>
+      </c>
+      <c r="P13" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:53">
+      <c r="A14" s="1">
+        <v>92</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14">
+        <v>35.047433</v>
+      </c>
+      <c r="E14">
+        <v>-85.305564</v>
+      </c>
+      <c r="F14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" t="s">
+        <v>84</v>
+      </c>
+      <c r="P14" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:53">
+      <c r="A15" s="1">
+        <v>103</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15">
+        <v>35.113478</v>
+      </c>
+      <c r="E15">
+        <v>-85.129991</v>
+      </c>
+      <c r="F15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" t="s">
+        <v>79</v>
+      </c>
+      <c r="K15" t="s">
+        <v>84</v>
+      </c>
+      <c r="P15" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:53">
+      <c r="A16" s="1">
+        <v>103</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16">
+        <v>35.113478</v>
+      </c>
+      <c r="E16">
+        <v>-85.129991</v>
+      </c>
+      <c r="F16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" t="s">
+        <v>79</v>
+      </c>
+      <c r="K16" t="s">
+        <v>84</v>
+      </c>
+      <c r="P16" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
+      <c r="A17" s="1">
+        <v>109</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17">
+        <v>35.008047</v>
+      </c>
+      <c r="E17">
+        <v>-85.328467</v>
+      </c>
+      <c r="F17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" t="s">
+        <v>84</v>
+      </c>
+      <c r="P17" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="A18" s="1">
+        <v>113</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18">
+        <v>34.98779</v>
+      </c>
+      <c r="E18">
+        <v>-85.16379000000001</v>
+      </c>
+      <c r="F18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" t="s">
         <v>81</v>
       </c>
-      <c r="Y12">
+      <c r="K18" t="s">
+        <v>84</v>
+      </c>
+      <c r="P18" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y18">
         <v>5</v>
       </c>
     </row>

--- a/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="97">
   <si>
     <t>Accident</t>
   </si>
@@ -178,106 +178,118 @@
     <t>No Injuries</t>
   </si>
   <si>
-    <t>2019-05-09</t>
-  </si>
-  <si>
-    <t>21:27:04</t>
-  </si>
-  <si>
-    <t>16:17:15</t>
-  </si>
-  <si>
-    <t>16:16:52</t>
-  </si>
-  <si>
-    <t>16:10:26</t>
-  </si>
-  <si>
-    <t>16:01:45</t>
-  </si>
-  <si>
-    <t>16:01:17</t>
-  </si>
-  <si>
-    <t>15:51:07</t>
-  </si>
-  <si>
-    <t>15:48:43</t>
-  </si>
-  <si>
-    <t>13:08:23</t>
-  </si>
-  <si>
-    <t>13:07:47</t>
-  </si>
-  <si>
-    <t>12:57:40</t>
-  </si>
-  <si>
-    <t>12:57:30</t>
-  </si>
-  <si>
-    <t>11:41:20</t>
-  </si>
-  <si>
-    <t>09:38:04</t>
-  </si>
-  <si>
-    <t>09:09:30</t>
-  </si>
-  <si>
-    <t>08:42:28</t>
-  </si>
-  <si>
-    <t>1360 INTERSTATE 75 SB</t>
-  </si>
-  <si>
-    <t>256-269 Sequoyah Rd</t>
-  </si>
-  <si>
-    <t>3219 BROAD ST</t>
-  </si>
-  <si>
-    <t>Airpark Dr / Vance Rd</t>
-  </si>
-  <si>
-    <t>6501 Ramsey Rd</t>
-  </si>
-  <si>
-    <t>4208 N Access Rd</t>
-  </si>
-  <si>
-    <t>15113-15199 Dayton Pike</t>
-  </si>
-  <si>
-    <t>Mccallie Ave / Lindsay St</t>
-  </si>
-  <si>
-    <t>5900 Highway 58</t>
-  </si>
-  <si>
-    <t>100 Ochs Hwy</t>
-  </si>
-  <si>
-    <t>501-513 Council Fire Dr</t>
+    <t>Entrapment</t>
+  </si>
+  <si>
+    <t>2019-05-11</t>
+  </si>
+  <si>
+    <t>22:17:30</t>
+  </si>
+  <si>
+    <t>22:17:17</t>
+  </si>
+  <si>
+    <t>22:16:49</t>
+  </si>
+  <si>
+    <t>22:16:11</t>
+  </si>
+  <si>
+    <t>21:24:12</t>
+  </si>
+  <si>
+    <t>21:23:18</t>
+  </si>
+  <si>
+    <t>21:06:39</t>
+  </si>
+  <si>
+    <t>20:19:49</t>
+  </si>
+  <si>
+    <t>20:17:54</t>
+  </si>
+  <si>
+    <t>17:35:32</t>
+  </si>
+  <si>
+    <t>14:01:58</t>
+  </si>
+  <si>
+    <t>13:11:40</t>
+  </si>
+  <si>
+    <t>12:53:27</t>
+  </si>
+  <si>
+    <t>10:22:34</t>
+  </si>
+  <si>
+    <t>10:19:26</t>
+  </si>
+  <si>
+    <t>08:50:21</t>
+  </si>
+  <si>
+    <t>07:12:37</t>
+  </si>
+  <si>
+    <t>4300-4399 Bonny Oaks Dr</t>
+  </si>
+  <si>
+    <t>310 Greenway View Dr</t>
+  </si>
+  <si>
+    <t>1113-1199 Fernway Rd</t>
+  </si>
+  <si>
+    <t>Brainerd Rd / Sequoia Dr</t>
+  </si>
+  <si>
+    <t>10 - 19 Exit 178 S Off Ramp Eb</t>
+  </si>
+  <si>
+    <t>7020 SHALLOWFORD RD</t>
+  </si>
+  <si>
+    <t>Belvoir Ave / S Terrace</t>
+  </si>
+  <si>
+    <t>2501 CUMMINGS HWY</t>
+  </si>
+  <si>
+    <t>6500 Lee Hwy</t>
+  </si>
+  <si>
+    <t>1-9 Exit 4 Off Ramp Sb</t>
+  </si>
+  <si>
+    <t>950 INTERSTATE 75 SB</t>
+  </si>
+  <si>
+    <t>5850-5957 Hunter Rd</t>
+  </si>
+  <si>
+    <t>CHATTANOOGA</t>
   </si>
   <si>
     <t>HAMILTON COUNTY</t>
   </si>
   <si>
-    <t>SODDY DAISY</t>
-  </si>
-  <si>
-    <t>CHATTANOOGA</t>
+    <t>22</t>
   </si>
   <si>
     <t>21</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>15</t>
+    <t>20</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>14</t>
   </si>
   <si>
     <t>13</t>
@@ -286,13 +298,13 @@
     <t>12</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>9</t>
+    <t>10</t>
   </si>
   <si>
     <t>8</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
 </sst>
 </file>
@@ -650,7 +662,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA18"/>
+  <dimension ref="A1:BA20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -816,31 +828,31 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
       </c>
       <c r="D2">
-        <v>35.109425</v>
+        <v>35.08137</v>
       </c>
       <c r="E2">
-        <v>-85.04991699999999</v>
+        <v>-85.209672</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Y2">
         <v>5</v>
@@ -848,31 +860,31 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>52</v>
       </c>
       <c r="D3">
-        <v>35.248455</v>
+        <v>35.08137</v>
       </c>
       <c r="E3">
-        <v>-85.17887500000001</v>
+        <v>-85.209672</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Y3">
         <v>5</v>
@@ -880,31 +892,31 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>52</v>
       </c>
       <c r="D4">
-        <v>35.248455</v>
+        <v>35.01056</v>
       </c>
       <c r="E4">
-        <v>-85.17887500000001</v>
+        <v>-85.20740000000001</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Y4">
         <v>5</v>
@@ -912,31 +924,31 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>52</v>
       </c>
       <c r="D5">
-        <v>35.018125</v>
+        <v>35.01056</v>
       </c>
       <c r="E5">
-        <v>-85.32198</v>
+        <v>-85.20740000000001</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Y5">
         <v>5</v>
@@ -944,31 +956,31 @@
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
         <v>52</v>
       </c>
       <c r="D6">
-        <v>35.034104</v>
+        <v>35.08476</v>
       </c>
       <c r="E6">
-        <v>-85.186956</v>
+        <v>-85.29191</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Y6">
         <v>5</v>
@@ -976,31 +988,31 @@
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D7">
-        <v>35.034104</v>
+        <v>35.08477</v>
       </c>
       <c r="E7">
-        <v>-85.186956</v>
+        <v>-85.29192999999999</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Y7">
         <v>5</v>
@@ -1008,19 +1020,19 @@
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D8">
-        <v>35.16791</v>
+        <v>35.08477</v>
       </c>
       <c r="E8">
-        <v>-85.099041</v>
+        <v>-85.29192999999999</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G8" t="s">
         <v>61</v>
@@ -1029,10 +1041,10 @@
         <v>75</v>
       </c>
       <c r="K8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Y8">
         <v>5</v>
@@ -1040,31 +1052,31 @@
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>52</v>
       </c>
       <c r="D9">
-        <v>35.16791</v>
+        <v>35.015339</v>
       </c>
       <c r="E9">
-        <v>-85.099041</v>
+        <v>-85.233935</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s">
         <v>62</v>
       </c>
       <c r="H9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K9" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Y9">
         <v>5</v>
@@ -1072,31 +1084,31 @@
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>52</v>
       </c>
       <c r="D10">
-        <v>35.112875</v>
+        <v>35.03111</v>
       </c>
       <c r="E10">
-        <v>-85.255402</v>
+        <v>-85.320446</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s">
         <v>63</v>
       </c>
       <c r="H10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Y10">
         <v>5</v>
@@ -1104,31 +1116,31 @@
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
         <v>52</v>
       </c>
       <c r="D11">
-        <v>35.112875</v>
+        <v>35.03111</v>
       </c>
       <c r="E11">
-        <v>-85.255402</v>
+        <v>-85.320446</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G11" t="s">
         <v>64</v>
       </c>
       <c r="H11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Y11">
         <v>5</v>
@@ -1136,31 +1148,31 @@
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
         <v>52</v>
       </c>
       <c r="D12">
-        <v>35.384953</v>
+        <v>35.043326</v>
       </c>
       <c r="E12">
-        <v>-85.10852300000001</v>
+        <v>-85.15811100000001</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G12" t="s">
         <v>65</v>
       </c>
       <c r="H12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K12" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Y12">
         <v>5</v>
@@ -1168,31 +1180,31 @@
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D13">
-        <v>35.384953</v>
+        <v>35.01068</v>
       </c>
       <c r="E13">
-        <v>-85.10852300000001</v>
+        <v>-85.24405899999999</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G13" t="s">
         <v>66</v>
       </c>
       <c r="H13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Y13">
         <v>5</v>
@@ -1200,31 +1212,31 @@
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14">
-        <v>35.047433</v>
+        <v>35.019963</v>
       </c>
       <c r="E14">
-        <v>-85.305564</v>
+        <v>-85.350661</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G14" t="s">
         <v>67</v>
       </c>
       <c r="H14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P14" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Y14">
         <v>5</v>
@@ -1232,31 +1244,31 @@
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
         <v>52</v>
       </c>
       <c r="D15">
-        <v>35.113478</v>
+        <v>35.034605</v>
       </c>
       <c r="E15">
-        <v>-85.129991</v>
+        <v>-85.177768</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G15" t="s">
         <v>68</v>
       </c>
       <c r="H15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Y15">
         <v>5</v>
@@ -1264,31 +1276,31 @@
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="1">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C16" t="s">
         <v>52</v>
       </c>
       <c r="D16">
-        <v>35.113478</v>
+        <v>35.030718</v>
       </c>
       <c r="E16">
-        <v>-85.129991</v>
+        <v>-85.169021</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H16" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P16" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Y16">
         <v>5</v>
@@ -1302,25 +1314,25 @@
         <v>52</v>
       </c>
       <c r="D17">
-        <v>35.008047</v>
+        <v>35.030718</v>
       </c>
       <c r="E17">
-        <v>-85.328467</v>
+        <v>-85.169021</v>
       </c>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H17" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P17" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Y17">
         <v>5</v>
@@ -1328,33 +1340,97 @@
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="1">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C18" t="s">
         <v>52</v>
       </c>
       <c r="D18">
-        <v>34.98779</v>
+        <v>35.07634</v>
       </c>
       <c r="E18">
-        <v>-85.16379000000001</v>
+        <v>-85.10387799999999</v>
       </c>
       <c r="F18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" t="s">
+        <v>83</v>
+      </c>
+      <c r="K18" t="s">
+        <v>85</v>
+      </c>
+      <c r="P18" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="A19" s="1">
+        <v>115</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19">
+        <v>35.07634</v>
+      </c>
+      <c r="E19">
+        <v>-85.10387799999999</v>
+      </c>
+      <c r="F19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" t="s">
+        <v>71</v>
+      </c>
+      <c r="H19" t="s">
+        <v>83</v>
+      </c>
+      <c r="K19" t="s">
+        <v>85</v>
+      </c>
+      <c r="P19" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="A20" s="1">
+        <v>125</v>
+      </c>
+      <c r="C20" t="s">
         <v>54</v>
       </c>
-      <c r="G18" t="s">
-        <v>70</v>
-      </c>
-      <c r="H18" t="s">
-        <v>81</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="D20">
+        <v>35.121859</v>
+      </c>
+      <c r="E20">
+        <v>-85.08718</v>
+      </c>
+      <c r="F20" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" t="s">
         <v>84</v>
       </c>
-      <c r="P18" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y18">
+      <c r="K20" t="s">
+        <v>86</v>
+      </c>
+      <c r="P20" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y20">
         <v>5</v>
       </c>
     </row>

--- a/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="90">
   <si>
     <t>Accident</t>
   </si>
@@ -181,94 +181,82 @@
     <t>Entrapment</t>
   </si>
   <si>
-    <t>2019-05-11</t>
-  </si>
-  <si>
-    <t>22:17:30</t>
-  </si>
-  <si>
-    <t>22:17:17</t>
-  </si>
-  <si>
-    <t>22:16:49</t>
-  </si>
-  <si>
-    <t>22:16:11</t>
-  </si>
-  <si>
-    <t>21:24:12</t>
-  </si>
-  <si>
-    <t>21:23:18</t>
-  </si>
-  <si>
-    <t>21:06:39</t>
-  </si>
-  <si>
-    <t>20:19:49</t>
-  </si>
-  <si>
-    <t>20:17:54</t>
-  </si>
-  <si>
-    <t>17:35:32</t>
-  </si>
-  <si>
-    <t>14:01:58</t>
-  </si>
-  <si>
-    <t>13:11:40</t>
-  </si>
-  <si>
-    <t>12:53:27</t>
-  </si>
-  <si>
-    <t>10:22:34</t>
-  </si>
-  <si>
-    <t>10:19:26</t>
-  </si>
-  <si>
-    <t>08:50:21</t>
-  </si>
-  <si>
-    <t>07:12:37</t>
-  </si>
-  <si>
-    <t>4300-4399 Bonny Oaks Dr</t>
-  </si>
-  <si>
-    <t>310 Greenway View Dr</t>
-  </si>
-  <si>
-    <t>1113-1199 Fernway Rd</t>
-  </si>
-  <si>
-    <t>Brainerd Rd / Sequoia Dr</t>
-  </si>
-  <si>
-    <t>10 - 19 Exit 178 S Off Ramp Eb</t>
-  </si>
-  <si>
-    <t>7020 SHALLOWFORD RD</t>
-  </si>
-  <si>
-    <t>Belvoir Ave / S Terrace</t>
-  </si>
-  <si>
-    <t>2501 CUMMINGS HWY</t>
-  </si>
-  <si>
-    <t>6500 Lee Hwy</t>
-  </si>
-  <si>
-    <t>1-9 Exit 4 Off Ramp Sb</t>
-  </si>
-  <si>
-    <t>950 INTERSTATE 75 SB</t>
-  </si>
-  <si>
-    <t>5850-5957 Hunter Rd</t>
+    <t>2019-05-12</t>
+  </si>
+  <si>
+    <t>17:38:35</t>
+  </si>
+  <si>
+    <t>17:38:01</t>
+  </si>
+  <si>
+    <t>15:28:45</t>
+  </si>
+  <si>
+    <t>15:27:57</t>
+  </si>
+  <si>
+    <t>14:09:19</t>
+  </si>
+  <si>
+    <t>13:44:30</t>
+  </si>
+  <si>
+    <t>13:42:56</t>
+  </si>
+  <si>
+    <t>13:19:54</t>
+  </si>
+  <si>
+    <t>13:11:07</t>
+  </si>
+  <si>
+    <t>10:25:18</t>
+  </si>
+  <si>
+    <t>09:18:40</t>
+  </si>
+  <si>
+    <t>09:18:02</t>
+  </si>
+  <si>
+    <t>04:30:11</t>
+  </si>
+  <si>
+    <t>04:29:00</t>
+  </si>
+  <si>
+    <t>7900 SHALLOWFORD RD</t>
+  </si>
+  <si>
+    <t>3410 6th Ave</t>
+  </si>
+  <si>
+    <t>3410 6TH AVE</t>
+  </si>
+  <si>
+    <t>3300-3449 PINEWOOD TER</t>
+  </si>
+  <si>
+    <t>E 3rd St / Wiehl St</t>
+  </si>
+  <si>
+    <t>9000 Dallas Hollow Rd</t>
+  </si>
+  <si>
+    <t>4500-4519 Highway 58</t>
+  </si>
+  <si>
+    <t>450 - 469 Highway 153 Sb</t>
+  </si>
+  <si>
+    <t>140 INTERSTATE 75 NB</t>
+  </si>
+  <si>
+    <t>Noah Reid Rd / Shallowford Rd</t>
+  </si>
+  <si>
+    <t>7200 NOAH REID RD</t>
   </si>
   <si>
     <t>CHATTANOOGA</t>
@@ -277,34 +265,25 @@
     <t>HAMILTON COUNTY</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>17</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>14</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>7</t>
+    <t>9</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -662,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA20"/>
+  <dimension ref="A1:BA16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -828,16 +807,16 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
       </c>
       <c r="D2">
-        <v>35.08137</v>
+        <v>35.033801</v>
       </c>
       <c r="E2">
-        <v>-85.209672</v>
+        <v>-85.13322700000001</v>
       </c>
       <c r="F2" t="s">
         <v>55</v>
@@ -846,13 +825,13 @@
         <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="Y2">
         <v>5</v>
@@ -860,16 +839,16 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>52</v>
       </c>
       <c r="D3">
-        <v>35.08137</v>
+        <v>35.033801</v>
       </c>
       <c r="E3">
-        <v>-85.209672</v>
+        <v>-85.13322700000001</v>
       </c>
       <c r="F3" t="s">
         <v>55</v>
@@ -878,13 +857,13 @@
         <v>57</v>
       </c>
       <c r="H3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="Y3">
         <v>5</v>
@@ -892,16 +871,16 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
         <v>52</v>
       </c>
       <c r="D4">
-        <v>35.01056</v>
+        <v>35.002971</v>
       </c>
       <c r="E4">
-        <v>-85.20740000000001</v>
+        <v>-85.284593</v>
       </c>
       <c r="F4" t="s">
         <v>55</v>
@@ -910,13 +889,13 @@
         <v>58</v>
       </c>
       <c r="H4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Y4">
         <v>5</v>
@@ -924,16 +903,16 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D5">
-        <v>35.01056</v>
+        <v>35.002971</v>
       </c>
       <c r="E5">
-        <v>-85.20740000000001</v>
+        <v>-85.284593</v>
       </c>
       <c r="F5" t="s">
         <v>55</v>
@@ -942,13 +921,13 @@
         <v>59</v>
       </c>
       <c r="H5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Y5">
         <v>5</v>
@@ -956,16 +935,16 @@
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
         <v>52</v>
       </c>
       <c r="D6">
-        <v>35.08476</v>
+        <v>35.029771</v>
       </c>
       <c r="E6">
-        <v>-85.29191</v>
+        <v>-85.253227</v>
       </c>
       <c r="F6" t="s">
         <v>55</v>
@@ -974,13 +953,13 @@
         <v>60</v>
       </c>
       <c r="H6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P6" t="s">
         <v>85</v>
-      </c>
-      <c r="P6" t="s">
-        <v>88</v>
       </c>
       <c r="Y6">
         <v>5</v>
@@ -988,16 +967,16 @@
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7">
-        <v>35.08477</v>
+        <v>35.047766</v>
       </c>
       <c r="E7">
-        <v>-85.29192999999999</v>
+        <v>-85.290509</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1006,13 +985,13 @@
         <v>61</v>
       </c>
       <c r="H7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Y7">
         <v>5</v>
@@ -1020,31 +999,31 @@
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8">
-        <v>35.08477</v>
+        <v>35.047766</v>
       </c>
       <c r="E8">
-        <v>-85.29192999999999</v>
+        <v>-85.290509</v>
       </c>
       <c r="F8" t="s">
         <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Y8">
         <v>5</v>
@@ -1052,31 +1031,31 @@
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
         <v>52</v>
       </c>
       <c r="D9">
-        <v>35.015339</v>
+        <v>35.210828</v>
       </c>
       <c r="E9">
-        <v>-85.233935</v>
+        <v>-85.154957</v>
       </c>
       <c r="F9" t="s">
         <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="P9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Y9">
         <v>5</v>
@@ -1084,16 +1063,16 @@
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
         <v>52</v>
       </c>
       <c r="D10">
-        <v>35.03111</v>
+        <v>35.210828</v>
       </c>
       <c r="E10">
-        <v>-85.320446</v>
+        <v>-85.154957</v>
       </c>
       <c r="F10" t="s">
         <v>55</v>
@@ -1102,13 +1081,13 @@
         <v>63</v>
       </c>
       <c r="H10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="P10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="Y10">
         <v>5</v>
@@ -1116,16 +1095,16 @@
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
         <v>52</v>
       </c>
       <c r="D11">
-        <v>35.03111</v>
+        <v>35.084813</v>
       </c>
       <c r="E11">
-        <v>-85.320446</v>
+        <v>-85.19765</v>
       </c>
       <c r="F11" t="s">
         <v>55</v>
@@ -1134,13 +1113,13 @@
         <v>64</v>
       </c>
       <c r="H11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="Y11">
         <v>5</v>
@@ -1148,16 +1127,16 @@
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
         <v>52</v>
       </c>
       <c r="D12">
-        <v>35.043326</v>
+        <v>35.080908</v>
       </c>
       <c r="E12">
-        <v>-85.15811100000001</v>
+        <v>-85.204977</v>
       </c>
       <c r="F12" t="s">
         <v>55</v>
@@ -1166,13 +1145,13 @@
         <v>65</v>
       </c>
       <c r="H12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="Y12">
         <v>5</v>
@@ -1180,16 +1159,16 @@
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D13">
-        <v>35.01068</v>
+        <v>35.004212</v>
       </c>
       <c r="E13">
-        <v>-85.24405899999999</v>
+        <v>-85.21047900000001</v>
       </c>
       <c r="F13" t="s">
         <v>55</v>
@@ -1198,13 +1177,13 @@
         <v>66</v>
       </c>
       <c r="H13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="Y13">
         <v>5</v>
@@ -1212,16 +1191,16 @@
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
         <v>52</v>
       </c>
       <c r="D14">
-        <v>35.019963</v>
+        <v>35.004212</v>
       </c>
       <c r="E14">
-        <v>-85.350661</v>
+        <v>-85.21047900000001</v>
       </c>
       <c r="F14" t="s">
         <v>55</v>
@@ -1230,13 +1209,13 @@
         <v>67</v>
       </c>
       <c r="H14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K14" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Y14">
         <v>5</v>
@@ -1244,16 +1223,16 @@
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D15">
-        <v>35.034605</v>
+        <v>35.052959</v>
       </c>
       <c r="E15">
-        <v>-85.177768</v>
+        <v>-85.180238</v>
       </c>
       <c r="F15" t="s">
         <v>55</v>
@@ -1262,13 +1241,13 @@
         <v>68</v>
       </c>
       <c r="H15" t="s">
+        <v>79</v>
+      </c>
+      <c r="K15" t="s">
         <v>81</v>
       </c>
-      <c r="K15" t="s">
-        <v>85</v>
-      </c>
       <c r="P15" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="Y15">
         <v>5</v>
@@ -1276,16 +1255,16 @@
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="1">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D16">
-        <v>35.030718</v>
+        <v>35.052959</v>
       </c>
       <c r="E16">
-        <v>-85.169021</v>
+        <v>-85.180238</v>
       </c>
       <c r="F16" t="s">
         <v>55</v>
@@ -1294,143 +1273,15 @@
         <v>69</v>
       </c>
       <c r="H16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P16" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="Y16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25">
-      <c r="A17" s="1">
-        <v>109</v>
-      </c>
-      <c r="C17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17">
-        <v>35.030718</v>
-      </c>
-      <c r="E17">
-        <v>-85.169021</v>
-      </c>
-      <c r="F17" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" t="s">
-        <v>70</v>
-      </c>
-      <c r="H17" t="s">
-        <v>82</v>
-      </c>
-      <c r="K17" t="s">
-        <v>85</v>
-      </c>
-      <c r="P17" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25">
-      <c r="A18" s="1">
-        <v>114</v>
-      </c>
-      <c r="C18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18">
-        <v>35.07634</v>
-      </c>
-      <c r="E18">
-        <v>-85.10387799999999</v>
-      </c>
-      <c r="F18" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" t="s">
-        <v>71</v>
-      </c>
-      <c r="H18" t="s">
-        <v>83</v>
-      </c>
-      <c r="K18" t="s">
-        <v>85</v>
-      </c>
-      <c r="P18" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25">
-      <c r="A19" s="1">
-        <v>115</v>
-      </c>
-      <c r="C19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19">
-        <v>35.07634</v>
-      </c>
-      <c r="E19">
-        <v>-85.10387799999999</v>
-      </c>
-      <c r="F19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" t="s">
-        <v>71</v>
-      </c>
-      <c r="H19" t="s">
-        <v>83</v>
-      </c>
-      <c r="K19" t="s">
-        <v>85</v>
-      </c>
-      <c r="P19" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25">
-      <c r="A20" s="1">
-        <v>125</v>
-      </c>
-      <c r="C20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20">
-        <v>35.121859</v>
-      </c>
-      <c r="E20">
-        <v>-85.08718</v>
-      </c>
-      <c r="F20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20" t="s">
-        <v>72</v>
-      </c>
-      <c r="H20" t="s">
-        <v>84</v>
-      </c>
-      <c r="K20" t="s">
-        <v>86</v>
-      </c>
-      <c r="P20" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y20">
         <v>5</v>
       </c>
     </row>

--- a/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="95">
   <si>
     <t>Accident</t>
   </si>
@@ -178,85 +178,94 @@
     <t>No Injuries</t>
   </si>
   <si>
-    <t>Entrapment</t>
-  </si>
-  <si>
-    <t>2019-05-12</t>
-  </si>
-  <si>
-    <t>17:38:35</t>
-  </si>
-  <si>
-    <t>17:38:01</t>
-  </si>
-  <si>
-    <t>15:28:45</t>
-  </si>
-  <si>
-    <t>15:27:57</t>
-  </si>
-  <si>
-    <t>14:09:19</t>
-  </si>
-  <si>
-    <t>13:44:30</t>
-  </si>
-  <si>
-    <t>13:42:56</t>
-  </si>
-  <si>
-    <t>13:19:54</t>
-  </si>
-  <si>
-    <t>13:11:07</t>
-  </si>
-  <si>
-    <t>10:25:18</t>
-  </si>
-  <si>
-    <t>09:18:40</t>
-  </si>
-  <si>
-    <t>09:18:02</t>
-  </si>
-  <si>
-    <t>04:30:11</t>
-  </si>
-  <si>
-    <t>04:29:00</t>
-  </si>
-  <si>
-    <t>7900 SHALLOWFORD RD</t>
-  </si>
-  <si>
-    <t>3410 6th Ave</t>
-  </si>
-  <si>
-    <t>3410 6TH AVE</t>
-  </si>
-  <si>
-    <t>3300-3449 PINEWOOD TER</t>
-  </si>
-  <si>
-    <t>E 3rd St / Wiehl St</t>
-  </si>
-  <si>
-    <t>9000 Dallas Hollow Rd</t>
-  </si>
-  <si>
-    <t>4500-4519 Highway 58</t>
-  </si>
-  <si>
-    <t>450 - 469 Highway 153 Sb</t>
-  </si>
-  <si>
-    <t>140 INTERSTATE 75 NB</t>
-  </si>
-  <si>
-    <t>Noah Reid Rd / Shallowford Rd</t>
-  </si>
-  <si>
-    <t>7200 NOAH REID RD</t>
+    <t>Unknown Injuries</t>
+  </si>
+  <si>
+    <t>2019-05-13</t>
+  </si>
+  <si>
+    <t>20:12:57</t>
+  </si>
+  <si>
+    <t>20:11:39</t>
+  </si>
+  <si>
+    <t>18:22:50</t>
+  </si>
+  <si>
+    <t>14:16:44</t>
+  </si>
+  <si>
+    <t>13:51:22</t>
+  </si>
+  <si>
+    <t>13:05:06</t>
+  </si>
+  <si>
+    <t>13:04:12</t>
+  </si>
+  <si>
+    <t>09:04:15</t>
+  </si>
+  <si>
+    <t>09:03:23</t>
+  </si>
+  <si>
+    <t>09:02:13</t>
+  </si>
+  <si>
+    <t>08:43:36</t>
+  </si>
+  <si>
+    <t>08:42:13</t>
+  </si>
+  <si>
+    <t>08:05:36</t>
+  </si>
+  <si>
+    <t>07:37:08</t>
+  </si>
+  <si>
+    <t>07:35:24</t>
+  </si>
+  <si>
+    <t>00:42:43</t>
+  </si>
+  <si>
+    <t>1106 Green Pond Rd</t>
+  </si>
+  <si>
+    <t>Eveningside Dr / E Main St</t>
+  </si>
+  <si>
+    <t>6123 Mountain View Rd</t>
+  </si>
+  <si>
+    <t>100 Interstate 75 Nb</t>
+  </si>
+  <si>
+    <t>Standifer Gap Rd / Quail Run Dr</t>
+  </si>
+  <si>
+    <t>8700 QUAIL RUN DR</t>
+  </si>
+  <si>
+    <t>2000 Taft Hwy</t>
+  </si>
+  <si>
+    <t>1822 - 2199 Taft Hwy</t>
+  </si>
+  <si>
+    <t>6734 Lee Hwy</t>
+  </si>
+  <si>
+    <t>3346 Browndell Dr</t>
+  </si>
+  <si>
+    <t>1400 - 1807 Mowbray Pike</t>
+  </si>
+  <si>
+    <t>SODDY DAISY</t>
   </si>
   <si>
     <t>CHATTANOOGA</t>
@@ -265,10 +274,13 @@
     <t>HAMILTON COUNTY</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>15</t>
+    <t>WALDEN</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>18</t>
   </si>
   <si>
     <t>14</t>
@@ -277,13 +289,16 @@
     <t>13</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
-    <t>4</t>
+    <t>8</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -641,7 +656,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA16"/>
+  <dimension ref="A1:BA17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -807,16 +822,16 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
       </c>
       <c r="D2">
-        <v>35.033801</v>
+        <v>35.238912</v>
       </c>
       <c r="E2">
-        <v>-85.13322700000001</v>
+        <v>-85.157837</v>
       </c>
       <c r="F2" t="s">
         <v>55</v>
@@ -825,13 +840,13 @@
         <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Y2">
         <v>5</v>
@@ -839,16 +854,16 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>52</v>
       </c>
       <c r="D3">
-        <v>35.033801</v>
+        <v>35.238912</v>
       </c>
       <c r="E3">
-        <v>-85.13322700000001</v>
+        <v>-85.157837</v>
       </c>
       <c r="F3" t="s">
         <v>55</v>
@@ -857,13 +872,13 @@
         <v>57</v>
       </c>
       <c r="H3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Y3">
         <v>5</v>
@@ -871,16 +886,16 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>52</v>
       </c>
       <c r="D4">
-        <v>35.002971</v>
+        <v>35.027314</v>
       </c>
       <c r="E4">
-        <v>-85.284593</v>
+        <v>-85.283592</v>
       </c>
       <c r="F4" t="s">
         <v>55</v>
@@ -889,13 +904,13 @@
         <v>58</v>
       </c>
       <c r="H4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Y4">
         <v>5</v>
@@ -903,16 +918,16 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
         <v>53</v>
       </c>
       <c r="D5">
-        <v>35.002971</v>
+        <v>35.093487</v>
       </c>
       <c r="E5">
-        <v>-85.284593</v>
+        <v>-85.06273</v>
       </c>
       <c r="F5" t="s">
         <v>55</v>
@@ -921,13 +936,13 @@
         <v>59</v>
       </c>
       <c r="H5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="Y5">
         <v>5</v>
@@ -935,16 +950,16 @@
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D6">
-        <v>35.029771</v>
+        <v>34.996081</v>
       </c>
       <c r="E6">
-        <v>-85.253227</v>
+        <v>-85.206737</v>
       </c>
       <c r="F6" t="s">
         <v>55</v>
@@ -953,13 +968,10 @@
         <v>60</v>
       </c>
       <c r="H6" t="s">
-        <v>73</v>
-      </c>
-      <c r="K6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="P6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Y6">
         <v>5</v>
@@ -967,16 +979,16 @@
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
         <v>52</v>
       </c>
       <c r="D7">
-        <v>35.047766</v>
+        <v>35.027024</v>
       </c>
       <c r="E7">
-        <v>-85.290509</v>
+        <v>-85.10110400000001</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -985,13 +997,13 @@
         <v>61</v>
       </c>
       <c r="H7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="Y7">
         <v>5</v>
@@ -999,16 +1011,16 @@
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>52</v>
       </c>
       <c r="D8">
-        <v>35.047766</v>
+        <v>35.027024</v>
       </c>
       <c r="E8">
-        <v>-85.290509</v>
+        <v>-85.10110400000001</v>
       </c>
       <c r="F8" t="s">
         <v>55</v>
@@ -1017,13 +1029,13 @@
         <v>62</v>
       </c>
       <c r="H8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="Y8">
         <v>5</v>
@@ -1031,16 +1043,16 @@
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
         <v>52</v>
       </c>
       <c r="D9">
-        <v>35.210828</v>
+        <v>35.154608</v>
       </c>
       <c r="E9">
-        <v>-85.154957</v>
+        <v>-85.317162</v>
       </c>
       <c r="F9" t="s">
         <v>55</v>
@@ -1049,13 +1061,13 @@
         <v>63</v>
       </c>
       <c r="H9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K9" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Y9">
         <v>5</v>
@@ -1063,31 +1075,31 @@
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D10">
-        <v>35.210828</v>
+        <v>35.154608</v>
       </c>
       <c r="E10">
-        <v>-85.154957</v>
+        <v>-85.317162</v>
       </c>
       <c r="F10" t="s">
         <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K10" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Y10">
         <v>5</v>
@@ -1095,31 +1107,31 @@
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
         <v>52</v>
       </c>
       <c r="D11">
-        <v>35.084813</v>
+        <v>35.153111</v>
       </c>
       <c r="E11">
-        <v>-85.19765</v>
+        <v>-85.31934099999999</v>
       </c>
       <c r="F11" t="s">
         <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K11" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Y11">
         <v>5</v>
@@ -1127,31 +1139,31 @@
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
         <v>52</v>
       </c>
       <c r="D12">
-        <v>35.080908</v>
+        <v>35.038841</v>
       </c>
       <c r="E12">
-        <v>-85.204977</v>
+        <v>-85.171139</v>
       </c>
       <c r="F12" t="s">
         <v>55</v>
       </c>
       <c r="G12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H12" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K12" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="Y12">
         <v>5</v>
@@ -1159,31 +1171,31 @@
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
         <v>52</v>
       </c>
       <c r="D13">
-        <v>35.004212</v>
+        <v>35.038841</v>
       </c>
       <c r="E13">
-        <v>-85.21047900000001</v>
+        <v>-85.171139</v>
       </c>
       <c r="F13" t="s">
         <v>55</v>
       </c>
       <c r="G13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K13" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="P13" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="Y13">
         <v>5</v>
@@ -1191,31 +1203,28 @@
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D14">
-        <v>35.004212</v>
+        <v>34.996081</v>
       </c>
       <c r="E14">
-        <v>-85.21047900000001</v>
+        <v>-85.206737</v>
       </c>
       <c r="F14" t="s">
         <v>55</v>
       </c>
       <c r="G14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H14" t="s">
-        <v>78</v>
-      </c>
-      <c r="K14" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="P14" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="Y14">
         <v>5</v>
@@ -1223,31 +1232,31 @@
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D15">
-        <v>35.052959</v>
+        <v>35.030034</v>
       </c>
       <c r="E15">
-        <v>-85.180238</v>
+        <v>-85.368026</v>
       </c>
       <c r="F15" t="s">
         <v>55</v>
       </c>
       <c r="G15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K15" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="P15" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="Y15">
         <v>5</v>
@@ -1255,33 +1264,65 @@
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="1">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D16">
-        <v>35.052959</v>
+        <v>35.030034</v>
       </c>
       <c r="E16">
-        <v>-85.180238</v>
+        <v>-85.368026</v>
       </c>
       <c r="F16" t="s">
         <v>55</v>
       </c>
       <c r="G16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K16" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="P16" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="Y16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
+      <c r="A17" s="1">
+        <v>71</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17">
+        <v>35.265016</v>
+      </c>
+      <c r="E17">
+        <v>-85.21368200000001</v>
+      </c>
+      <c r="F17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" t="s">
+        <v>82</v>
+      </c>
+      <c r="K17" t="s">
+        <v>85</v>
+      </c>
+      <c r="P17" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y17">
         <v>5</v>
       </c>
     </row>

--- a/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="76">
   <si>
     <t>Accident</t>
   </si>
@@ -178,127 +178,70 @@
     <t>No Injuries</t>
   </si>
   <si>
-    <t>Unknown Injuries</t>
-  </si>
-  <si>
-    <t>2019-05-13</t>
-  </si>
-  <si>
-    <t>20:12:57</t>
-  </si>
-  <si>
-    <t>20:11:39</t>
-  </si>
-  <si>
-    <t>18:22:50</t>
-  </si>
-  <si>
-    <t>14:16:44</t>
-  </si>
-  <si>
-    <t>13:51:22</t>
-  </si>
-  <si>
-    <t>13:05:06</t>
-  </si>
-  <si>
-    <t>13:04:12</t>
-  </si>
-  <si>
-    <t>09:04:15</t>
-  </si>
-  <si>
-    <t>09:03:23</t>
-  </si>
-  <si>
-    <t>09:02:13</t>
-  </si>
-  <si>
-    <t>08:43:36</t>
-  </si>
-  <si>
-    <t>08:42:13</t>
-  </si>
-  <si>
-    <t>08:05:36</t>
-  </si>
-  <si>
-    <t>07:37:08</t>
-  </si>
-  <si>
-    <t>07:35:24</t>
-  </si>
-  <si>
-    <t>00:42:43</t>
-  </si>
-  <si>
-    <t>1106 Green Pond Rd</t>
-  </si>
-  <si>
-    <t>Eveningside Dr / E Main St</t>
-  </si>
-  <si>
-    <t>6123 Mountain View Rd</t>
-  </si>
-  <si>
-    <t>100 Interstate 75 Nb</t>
-  </si>
-  <si>
-    <t>Standifer Gap Rd / Quail Run Dr</t>
-  </si>
-  <si>
-    <t>8700 QUAIL RUN DR</t>
-  </si>
-  <si>
-    <t>2000 Taft Hwy</t>
-  </si>
-  <si>
-    <t>1822 - 2199 Taft Hwy</t>
-  </si>
-  <si>
-    <t>6734 Lee Hwy</t>
-  </si>
-  <si>
-    <t>3346 Browndell Dr</t>
-  </si>
-  <si>
-    <t>1400 - 1807 Mowbray Pike</t>
+    <t>2019-05-14</t>
+  </si>
+  <si>
+    <t>23:15:58</t>
+  </si>
+  <si>
+    <t>23:15:57</t>
+  </si>
+  <si>
+    <t>23:15:35</t>
+  </si>
+  <si>
+    <t>20:28:28</t>
+  </si>
+  <si>
+    <t>16:13:15</t>
+  </si>
+  <si>
+    <t>07:34:29</t>
+  </si>
+  <si>
+    <t>07:32:53</t>
+  </si>
+  <si>
+    <t>07:12:32</t>
+  </si>
+  <si>
+    <t>N Orchard Knob Ave / E 3rd St</t>
+  </si>
+  <si>
+    <t>1900 E 3RD ST</t>
+  </si>
+  <si>
+    <t>7400 - 7469 Allemande Way</t>
+  </si>
+  <si>
+    <t>Thrasher Pike / Gann Rd</t>
+  </si>
+  <si>
+    <t>Kellys Ferry Rd / Browns Ferry Rd</t>
+  </si>
+  <si>
+    <t>176 - 199 Signal Mountain Rd</t>
+  </si>
+  <si>
+    <t>CHATTANOOGA</t>
   </si>
   <si>
     <t>SODDY DAISY</t>
   </si>
   <si>
-    <t>CHATTANOOGA</t>
-  </si>
-  <si>
-    <t>HAMILTON COUNTY</t>
-  </si>
-  <si>
-    <t>WALDEN</t>
+    <t>RED BANK</t>
+  </si>
+  <si>
+    <t>23</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>8</t>
+    <t>16</t>
   </si>
   <si>
     <t>7</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
 </sst>
 </file>
@@ -656,7 +599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA17"/>
+  <dimension ref="A1:BA9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -822,31 +765,31 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
       </c>
       <c r="D2">
-        <v>35.238912</v>
+        <v>35.040879</v>
       </c>
       <c r="E2">
-        <v>-85.157837</v>
+        <v>-85.27199</v>
       </c>
       <c r="F2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" t="s">
         <v>55</v>
       </c>
-      <c r="G2" t="s">
-        <v>56</v>
-      </c>
       <c r="H2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" t="s">
+        <v>69</v>
+      </c>
+      <c r="P2" t="s">
         <v>72</v>
-      </c>
-      <c r="K2" t="s">
-        <v>83</v>
-      </c>
-      <c r="P2" t="s">
-        <v>87</v>
       </c>
       <c r="Y2">
         <v>5</v>
@@ -854,31 +797,31 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>52</v>
       </c>
       <c r="D3">
-        <v>35.238912</v>
+        <v>35.040879</v>
       </c>
       <c r="E3">
-        <v>-85.157837</v>
+        <v>-85.27199</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" t="s">
+        <v>69</v>
+      </c>
+      <c r="P3" t="s">
         <v>72</v>
-      </c>
-      <c r="K3" t="s">
-        <v>83</v>
-      </c>
-      <c r="P3" t="s">
-        <v>87</v>
       </c>
       <c r="Y3">
         <v>5</v>
@@ -886,31 +829,31 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>52</v>
       </c>
       <c r="D4">
-        <v>35.027314</v>
+        <v>35.040879</v>
       </c>
       <c r="E4">
-        <v>-85.283592</v>
+        <v>-85.27199</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="P4" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="Y4">
         <v>5</v>
@@ -918,31 +861,31 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5">
-        <v>35.093487</v>
+        <v>35.049055</v>
       </c>
       <c r="E5">
-        <v>-85.06273</v>
+        <v>-85.144323</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H5" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="K5" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="P5" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="Y5">
         <v>5</v>
@@ -950,28 +893,31 @@
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6">
+        <v>35.202555</v>
+      </c>
+      <c r="E6">
+        <v>-85.20743</v>
+      </c>
+      <c r="F6" t="s">
         <v>54</v>
       </c>
-      <c r="D6">
-        <v>34.996081</v>
-      </c>
-      <c r="E6">
-        <v>-85.206737</v>
-      </c>
-      <c r="F6" t="s">
-        <v>55</v>
-      </c>
       <c r="G6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>75</v>
+        <v>66</v>
+      </c>
+      <c r="K6" t="s">
+        <v>70</v>
       </c>
       <c r="P6" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="Y6">
         <v>5</v>
@@ -979,31 +925,31 @@
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
         <v>52</v>
       </c>
       <c r="D7">
-        <v>35.027024</v>
+        <v>35.020581</v>
       </c>
       <c r="E7">
-        <v>-85.10110400000001</v>
+        <v>-85.36582</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H7" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="P7" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="Y7">
         <v>5</v>
@@ -1011,31 +957,31 @@
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
         <v>52</v>
       </c>
       <c r="D8">
-        <v>35.027024</v>
+        <v>35.020581</v>
       </c>
       <c r="E8">
-        <v>-85.10110400000001</v>
+        <v>-85.36582</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H8" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="K8" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="P8" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="Y8">
         <v>5</v>
@@ -1043,286 +989,33 @@
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
         <v>52</v>
       </c>
       <c r="D9">
-        <v>35.154608</v>
+        <v>35.084709</v>
       </c>
       <c r="E9">
-        <v>-85.317162</v>
+        <v>-85.322991</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H9" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="K9" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="P9" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="Y9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:53">
-      <c r="A10" s="1">
-        <v>45</v>
-      </c>
-      <c r="C10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10">
-        <v>35.154608</v>
-      </c>
-      <c r="E10">
-        <v>-85.317162</v>
-      </c>
-      <c r="F10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" t="s">
-        <v>78</v>
-      </c>
-      <c r="K10" t="s">
-        <v>86</v>
-      </c>
-      <c r="P10" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:53">
-      <c r="A11" s="1">
-        <v>47</v>
-      </c>
-      <c r="C11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11">
-        <v>35.153111</v>
-      </c>
-      <c r="E11">
-        <v>-85.31934099999999</v>
-      </c>
-      <c r="F11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" t="s">
-        <v>79</v>
-      </c>
-      <c r="K11" t="s">
-        <v>86</v>
-      </c>
-      <c r="P11" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:53">
-      <c r="A12" s="1">
-        <v>52</v>
-      </c>
-      <c r="C12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12">
-        <v>35.038841</v>
-      </c>
-      <c r="E12">
-        <v>-85.171139</v>
-      </c>
-      <c r="F12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" t="s">
-        <v>80</v>
-      </c>
-      <c r="K12" t="s">
-        <v>84</v>
-      </c>
-      <c r="P12" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:53">
-      <c r="A13" s="1">
-        <v>53</v>
-      </c>
-      <c r="C13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13">
-        <v>35.038841</v>
-      </c>
-      <c r="E13">
-        <v>-85.171139</v>
-      </c>
-      <c r="F13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" t="s">
-        <v>80</v>
-      </c>
-      <c r="K13" t="s">
-        <v>84</v>
-      </c>
-      <c r="P13" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:53">
-      <c r="A14" s="1">
-        <v>55</v>
-      </c>
-      <c r="C14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14">
-        <v>34.996081</v>
-      </c>
-      <c r="E14">
-        <v>-85.206737</v>
-      </c>
-      <c r="F14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" t="s">
-        <v>75</v>
-      </c>
-      <c r="P14" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:53">
-      <c r="A15" s="1">
-        <v>59</v>
-      </c>
-      <c r="C15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15">
-        <v>35.030034</v>
-      </c>
-      <c r="E15">
-        <v>-85.368026</v>
-      </c>
-      <c r="F15" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H15" t="s">
-        <v>81</v>
-      </c>
-      <c r="K15" t="s">
-        <v>84</v>
-      </c>
-      <c r="P15" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:53">
-      <c r="A16" s="1">
-        <v>60</v>
-      </c>
-      <c r="C16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16">
-        <v>35.030034</v>
-      </c>
-      <c r="E16">
-        <v>-85.368026</v>
-      </c>
-      <c r="F16" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" t="s">
-        <v>70</v>
-      </c>
-      <c r="H16" t="s">
-        <v>81</v>
-      </c>
-      <c r="K16" t="s">
-        <v>84</v>
-      </c>
-      <c r="P16" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25">
-      <c r="A17" s="1">
-        <v>71</v>
-      </c>
-      <c r="C17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17">
-        <v>35.265016</v>
-      </c>
-      <c r="E17">
-        <v>-85.21368200000001</v>
-      </c>
-      <c r="F17" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" t="s">
-        <v>71</v>
-      </c>
-      <c r="H17" t="s">
-        <v>82</v>
-      </c>
-      <c r="K17" t="s">
-        <v>85</v>
-      </c>
-      <c r="P17" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y17">
         <v>5</v>
       </c>
     </row>

--- a/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
@@ -925,7 +925,7 @@
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
         <v>52</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
         <v>52</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
         <v>52</v>

--- a/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="88">
   <si>
     <t>Accident</t>
   </si>
@@ -172,73 +172,109 @@
     <t>Pavement_Type</t>
   </si>
   <si>
+    <t>Entrapment</t>
+  </si>
+  <si>
+    <t>Mass Casualty</t>
+  </si>
+  <si>
     <t>Injuries</t>
   </si>
   <si>
-    <t>No Injuries</t>
-  </si>
-  <si>
-    <t>2019-05-14</t>
-  </si>
-  <si>
-    <t>23:15:58</t>
-  </si>
-  <si>
-    <t>23:15:57</t>
-  </si>
-  <si>
-    <t>23:15:35</t>
-  </si>
-  <si>
-    <t>20:28:28</t>
-  </si>
-  <si>
-    <t>16:13:15</t>
-  </si>
-  <si>
-    <t>07:34:29</t>
-  </si>
-  <si>
-    <t>07:32:53</t>
-  </si>
-  <si>
-    <t>07:12:32</t>
-  </si>
-  <si>
-    <t>N Orchard Knob Ave / E 3rd St</t>
-  </si>
-  <si>
-    <t>1900 E 3RD ST</t>
-  </si>
-  <si>
-    <t>7400 - 7469 Allemande Way</t>
-  </si>
-  <si>
-    <t>Thrasher Pike / Gann Rd</t>
-  </si>
-  <si>
-    <t>Kellys Ferry Rd / Browns Ferry Rd</t>
-  </si>
-  <si>
-    <t>176 - 199 Signal Mountain Rd</t>
+    <t>Unknown Injuries</t>
+  </si>
+  <si>
+    <t>2019-05-16</t>
+  </si>
+  <si>
+    <t>22:03:07</t>
+  </si>
+  <si>
+    <t>17:46:03</t>
+  </si>
+  <si>
+    <t>16:54:26</t>
+  </si>
+  <si>
+    <t>16:54:05</t>
+  </si>
+  <si>
+    <t>15:04:21</t>
+  </si>
+  <si>
+    <t>14:26:08</t>
+  </si>
+  <si>
+    <t>12:55:56</t>
+  </si>
+  <si>
+    <t>12:40:07</t>
+  </si>
+  <si>
+    <t>12:39:35</t>
+  </si>
+  <si>
+    <t>12:34:52</t>
+  </si>
+  <si>
+    <t>07:43:14</t>
+  </si>
+  <si>
+    <t>07:42:46</t>
+  </si>
+  <si>
+    <t>4608 Highway 58</t>
+  </si>
+  <si>
+    <t>926 Arcadia Ave</t>
+  </si>
+  <si>
+    <t>E 47th St / Dodds Ave</t>
+  </si>
+  <si>
+    <t>8615 Igou Gap Rd</t>
+  </si>
+  <si>
+    <t>3100-3199 RINGGOLD RD</t>
+  </si>
+  <si>
+    <t>7951 E Brainerd Rd</t>
+  </si>
+  <si>
+    <t>160 - 309 Interstate 75 Sb</t>
+  </si>
+  <si>
+    <t>865 E 3rd St</t>
+  </si>
+  <si>
+    <t>3600 JENKINS RD</t>
   </si>
   <si>
     <t>CHATTANOOGA</t>
   </si>
   <si>
-    <t>SODDY DAISY</t>
-  </si>
-  <si>
-    <t>RED BANK</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>20</t>
+    <t>EAST RIDGE</t>
+  </si>
+  <si>
+    <t>HAMILTON COUNTY</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>17</t>
   </si>
   <si>
     <t>16</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
   <si>
     <t>7</t>
@@ -599,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA9"/>
+  <dimension ref="A1:BA13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -771,25 +807,25 @@
         <v>52</v>
       </c>
       <c r="D2">
-        <v>35.040879</v>
+        <v>35.084843</v>
       </c>
       <c r="E2">
-        <v>-85.27199</v>
+        <v>-85.193451</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="K2" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="P2" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="Y2">
         <v>5</v>
@@ -797,31 +833,31 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D3">
-        <v>35.040879</v>
+        <v>35.040388</v>
       </c>
       <c r="E3">
-        <v>-85.27199</v>
+        <v>-85.238162</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H3" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="K3" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="Y3">
         <v>5</v>
@@ -829,31 +865,31 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
         <v>52</v>
       </c>
       <c r="D4">
-        <v>35.040879</v>
+        <v>34.988923</v>
       </c>
       <c r="E4">
-        <v>-85.27199</v>
+        <v>-85.287764</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H4" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="P4" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="Y4">
         <v>5</v>
@@ -861,31 +897,31 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D5">
-        <v>35.049055</v>
+        <v>34.988923</v>
       </c>
       <c r="E5">
-        <v>-85.144323</v>
+        <v>-85.287764</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H5" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="P5" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="Y5">
         <v>5</v>
@@ -893,31 +929,31 @@
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6">
-        <v>35.202555</v>
+        <v>35.016512</v>
       </c>
       <c r="E6">
-        <v>-85.20743</v>
+        <v>-85.126929</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H6" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K6" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="P6" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="Y6">
         <v>5</v>
@@ -925,31 +961,31 @@
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D7">
-        <v>35.020581</v>
+        <v>35.00825</v>
       </c>
       <c r="E7">
-        <v>-85.36582</v>
+        <v>-85.2655</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="K7" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="P7" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="Y7">
         <v>5</v>
@@ -957,31 +993,31 @@
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D8">
-        <v>35.020581</v>
+        <v>35.005782</v>
       </c>
       <c r="E8">
-        <v>-85.36582</v>
+        <v>-85.152794</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H8" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="K8" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="P8" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="Y8">
         <v>5</v>
@@ -989,33 +1025,161 @@
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
+        <v>70</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9">
+        <v>35.006562</v>
+      </c>
+      <c r="E9">
+        <v>-85.20648300000001</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" t="s">
+        <v>75</v>
+      </c>
+      <c r="K9" t="s">
+        <v>78</v>
+      </c>
+      <c r="P9" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:53">
+      <c r="A10" s="1">
+        <v>71</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10">
+        <v>35.006562</v>
+      </c>
+      <c r="E10">
+        <v>-85.20648300000001</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" t="s">
+        <v>78</v>
+      </c>
+      <c r="P10" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:53">
+      <c r="A11" s="1">
         <v>73</v>
       </c>
-      <c r="C9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9">
-        <v>35.084709</v>
-      </c>
-      <c r="E9">
-        <v>-85.322991</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="C11" t="s">
         <v>54</v>
       </c>
-      <c r="G9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="D11">
+        <v>35.050422</v>
+      </c>
+      <c r="E11">
+        <v>-85.294787</v>
+      </c>
+      <c r="F11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" t="s">
+        <v>76</v>
+      </c>
+      <c r="K11" t="s">
+        <v>78</v>
+      </c>
+      <c r="P11" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:53">
+      <c r="A12" s="1">
+        <v>93</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12">
+        <v>35.054025</v>
+      </c>
+      <c r="E12">
+        <v>-85.127399</v>
+      </c>
+      <c r="F12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" t="s">
+        <v>77</v>
+      </c>
+      <c r="K12" t="s">
+        <v>80</v>
+      </c>
+      <c r="P12" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:53">
+      <c r="A13" s="1">
+        <v>94</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13">
+        <v>35.054025</v>
+      </c>
+      <c r="E13">
+        <v>-85.127399</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" t="s">
         <v>68</v>
       </c>
-      <c r="K9" t="s">
-        <v>71</v>
-      </c>
-      <c r="P9" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y9">
+      <c r="H13" t="s">
+        <v>77</v>
+      </c>
+      <c r="K13" t="s">
+        <v>80</v>
+      </c>
+      <c r="P13" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y13">
         <v>5</v>
       </c>
     </row>

--- a/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="95">
   <si>
     <t>Accident</t>
   </si>
@@ -172,97 +172,121 @@
     <t>Pavement_Type</t>
   </si>
   <si>
+    <t>Injuries</t>
+  </si>
+  <si>
     <t>Entrapment</t>
   </si>
   <si>
-    <t>Mass Casualty</t>
-  </si>
-  <si>
-    <t>Injuries</t>
+    <t>No Injuries</t>
   </si>
   <si>
     <t>Unknown Injuries</t>
   </si>
   <si>
-    <t>2019-05-16</t>
-  </si>
-  <si>
-    <t>22:03:07</t>
-  </si>
-  <si>
-    <t>17:46:03</t>
-  </si>
-  <si>
-    <t>16:54:26</t>
-  </si>
-  <si>
-    <t>16:54:05</t>
-  </si>
-  <si>
-    <t>15:04:21</t>
-  </si>
-  <si>
-    <t>14:26:08</t>
-  </si>
-  <si>
-    <t>12:55:56</t>
-  </si>
-  <si>
-    <t>12:40:07</t>
-  </si>
-  <si>
-    <t>12:39:35</t>
-  </si>
-  <si>
-    <t>12:34:52</t>
-  </si>
-  <si>
-    <t>07:43:14</t>
-  </si>
-  <si>
-    <t>07:42:46</t>
-  </si>
-  <si>
-    <t>4608 Highway 58</t>
-  </si>
-  <si>
-    <t>926 Arcadia Ave</t>
-  </si>
-  <si>
-    <t>E 47th St / Dodds Ave</t>
-  </si>
-  <si>
-    <t>8615 Igou Gap Rd</t>
-  </si>
-  <si>
-    <t>3100-3199 RINGGOLD RD</t>
-  </si>
-  <si>
-    <t>7951 E Brainerd Rd</t>
-  </si>
-  <si>
-    <t>160 - 309 Interstate 75 Sb</t>
-  </si>
-  <si>
-    <t>865 E 3rd St</t>
-  </si>
-  <si>
-    <t>3600 JENKINS RD</t>
+    <t>2019-05-19</t>
+  </si>
+  <si>
+    <t>23:45:41</t>
+  </si>
+  <si>
+    <t>22:11:56</t>
+  </si>
+  <si>
+    <t>21:25:49</t>
+  </si>
+  <si>
+    <t>21:19:29</t>
+  </si>
+  <si>
+    <t>21:19:11</t>
+  </si>
+  <si>
+    <t>16:39:34</t>
+  </si>
+  <si>
+    <t>16:37:45</t>
+  </si>
+  <si>
+    <t>16:20:48</t>
+  </si>
+  <si>
+    <t>15:56:14</t>
+  </si>
+  <si>
+    <t>15:45:44</t>
+  </si>
+  <si>
+    <t>13:52:29</t>
+  </si>
+  <si>
+    <t>13:52:04</t>
+  </si>
+  <si>
+    <t>13:11:45</t>
+  </si>
+  <si>
+    <t>13:11:05</t>
+  </si>
+  <si>
+    <t>02:34:11</t>
+  </si>
+  <si>
+    <t>02:32:03</t>
+  </si>
+  <si>
+    <t>FRAWLEY RD / RINGGOLD RD</t>
+  </si>
+  <si>
+    <t>CENTRAL AVE / BAILEY AVE</t>
+  </si>
+  <si>
+    <t>6830 - 6879 E BRAINERD RD</t>
+  </si>
+  <si>
+    <t>900-998 Cherokee Blvd</t>
+  </si>
+  <si>
+    <t>17900 Interstate 24 Wb</t>
+  </si>
+  <si>
+    <t>600 HIGHWAY 153 NB</t>
+  </si>
+  <si>
+    <t>5724 Highway 153</t>
+  </si>
+  <si>
+    <t>10300 - 10699 Lee Hwy</t>
+  </si>
+  <si>
+    <t>50-119 Interstate 75 Nb</t>
+  </si>
+  <si>
+    <t>9800 LEE HWY</t>
+  </si>
+  <si>
+    <t>9800 - 10099 Lee Hwy</t>
+  </si>
+  <si>
+    <t>4513 Rogers Rd</t>
+  </si>
+  <si>
+    <t>EAST RIDGE</t>
   </si>
   <si>
     <t>CHATTANOOGA</t>
   </si>
   <si>
-    <t>EAST RIDGE</t>
-  </si>
-  <si>
-    <t>HAMILTON COUNTY</t>
+    <t>COLLEGEDALE</t>
+  </si>
+  <si>
+    <t>23</t>
   </si>
   <si>
     <t>22</t>
   </si>
   <si>
-    <t>17</t>
+    <t>21</t>
   </si>
   <si>
     <t>16</t>
@@ -271,13 +295,10 @@
     <t>15</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>7</t>
+    <t>13</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -635,7 +656,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA13"/>
+  <dimension ref="A1:BA18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -801,16 +822,16 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>52</v>
       </c>
       <c r="D2">
-        <v>35.084843</v>
+        <v>34.988345</v>
       </c>
       <c r="E2">
-        <v>-85.193451</v>
+        <v>-85.191565</v>
       </c>
       <c r="F2" t="s">
         <v>56</v>
@@ -819,13 +840,13 @@
         <v>57</v>
       </c>
       <c r="H2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="Y2">
         <v>5</v>
@@ -833,16 +854,16 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3">
-        <v>35.040388</v>
+        <v>35.039775</v>
       </c>
       <c r="E3">
-        <v>-85.238162</v>
+        <v>-85.292119</v>
       </c>
       <c r="F3" t="s">
         <v>56</v>
@@ -851,13 +872,13 @@
         <v>58</v>
       </c>
       <c r="H3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K3" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="Y3">
         <v>5</v>
@@ -865,16 +886,16 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D4">
-        <v>34.988923</v>
+        <v>35.016889</v>
       </c>
       <c r="E4">
-        <v>-85.287764</v>
+        <v>-85.181912</v>
       </c>
       <c r="F4" t="s">
         <v>56</v>
@@ -883,13 +904,13 @@
         <v>59</v>
       </c>
       <c r="H4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K4" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="Y4">
         <v>5</v>
@@ -897,16 +918,16 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D5">
-        <v>34.988923</v>
+        <v>35.0733</v>
       </c>
       <c r="E5">
-        <v>-85.287764</v>
+        <v>-85.31887999999999</v>
       </c>
       <c r="F5" t="s">
         <v>56</v>
@@ -915,13 +936,13 @@
         <v>60</v>
       </c>
       <c r="H5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="P5" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="Y5">
         <v>5</v>
@@ -929,16 +950,16 @@
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>54</v>
       </c>
       <c r="D6">
-        <v>35.016512</v>
+        <v>35.0733</v>
       </c>
       <c r="E6">
-        <v>-85.126929</v>
+        <v>-85.31887999999999</v>
       </c>
       <c r="F6" t="s">
         <v>56</v>
@@ -947,13 +968,13 @@
         <v>61</v>
       </c>
       <c r="H6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="Y6">
         <v>5</v>
@@ -961,16 +982,16 @@
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D7">
-        <v>35.00825</v>
+        <v>35.029438</v>
       </c>
       <c r="E7">
-        <v>-85.2655</v>
+        <v>-85.31139</v>
       </c>
       <c r="F7" t="s">
         <v>56</v>
@@ -979,13 +1000,13 @@
         <v>62</v>
       </c>
       <c r="H7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="Y7">
         <v>5</v>
@@ -993,16 +1014,16 @@
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D8">
-        <v>35.005782</v>
+        <v>35.029438</v>
       </c>
       <c r="E8">
-        <v>-85.152794</v>
+        <v>-85.31139</v>
       </c>
       <c r="F8" t="s">
         <v>56</v>
@@ -1011,13 +1032,13 @@
         <v>63</v>
       </c>
       <c r="H8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K8" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="P8" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Y8">
         <v>5</v>
@@ -1025,16 +1046,16 @@
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
         <v>54</v>
       </c>
       <c r="D9">
-        <v>35.006562</v>
+        <v>35.094661</v>
       </c>
       <c r="E9">
-        <v>-85.20648300000001</v>
+        <v>-85.225106</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>
@@ -1043,13 +1064,13 @@
         <v>64</v>
       </c>
       <c r="H9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K9" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Y9">
         <v>5</v>
@@ -1057,16 +1078,16 @@
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D10">
-        <v>35.006562</v>
+        <v>35.15336</v>
       </c>
       <c r="E10">
-        <v>-85.20648300000001</v>
+        <v>-85.24834</v>
       </c>
       <c r="F10" t="s">
         <v>56</v>
@@ -1075,13 +1096,13 @@
         <v>65</v>
       </c>
       <c r="H10" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K10" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="Y10">
         <v>5</v>
@@ -1089,16 +1110,16 @@
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D11">
-        <v>35.050422</v>
+        <v>35.084469</v>
       </c>
       <c r="E11">
-        <v>-85.294787</v>
+        <v>-85.024103</v>
       </c>
       <c r="F11" t="s">
         <v>56</v>
@@ -1107,13 +1128,13 @@
         <v>66</v>
       </c>
       <c r="H11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K11" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="Y11">
         <v>5</v>
@@ -1121,16 +1142,16 @@
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D12">
-        <v>35.054025</v>
+        <v>34.999205</v>
       </c>
       <c r="E12">
-        <v>-85.127399</v>
+        <v>-85.209816</v>
       </c>
       <c r="F12" t="s">
         <v>56</v>
@@ -1139,13 +1160,13 @@
         <v>67</v>
       </c>
       <c r="H12" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="Y12">
         <v>5</v>
@@ -1153,16 +1174,16 @@
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D13">
-        <v>35.054025</v>
+        <v>34.999205</v>
       </c>
       <c r="E13">
-        <v>-85.127399</v>
+        <v>-85.209816</v>
       </c>
       <c r="F13" t="s">
         <v>56</v>
@@ -1171,15 +1192,175 @@
         <v>68</v>
       </c>
       <c r="H13" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K13" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P13" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:53">
+      <c r="A14" s="1">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14">
+        <v>35.076678</v>
+      </c>
+      <c r="E14">
+        <v>-85.042866</v>
+      </c>
+      <c r="F14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" t="s">
+        <v>82</v>
+      </c>
+      <c r="K14" t="s">
         <v>87</v>
       </c>
-      <c r="Y13">
+      <c r="P14" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:53">
+      <c r="A15" s="1">
+        <v>63</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15">
+        <v>35.076678</v>
+      </c>
+      <c r="E15">
+        <v>-85.042866</v>
+      </c>
+      <c r="F15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" t="s">
+        <v>83</v>
+      </c>
+      <c r="K15" t="s">
+        <v>87</v>
+      </c>
+      <c r="P15" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:53">
+      <c r="A16" s="1">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16">
+        <v>35.076678</v>
+      </c>
+      <c r="E16">
+        <v>-85.042866</v>
+      </c>
+      <c r="F16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" t="s">
+        <v>83</v>
+      </c>
+      <c r="K16" t="s">
+        <v>87</v>
+      </c>
+      <c r="P16" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
+      <c r="A17" s="1">
+        <v>85</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17">
+        <v>35.02529</v>
+      </c>
+      <c r="E17">
+        <v>-85.22837</v>
+      </c>
+      <c r="F17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" t="s">
+        <v>86</v>
+      </c>
+      <c r="P17" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="A18" s="1">
+        <v>86</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18">
+        <v>35.02529</v>
+      </c>
+      <c r="E18">
+        <v>-85.22837</v>
+      </c>
+      <c r="F18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" t="s">
+        <v>84</v>
+      </c>
+      <c r="K18" t="s">
+        <v>86</v>
+      </c>
+      <c r="P18" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y18">
         <v>5</v>
       </c>
     </row>

--- a/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
+++ b/Excel & CSV Sheets/2019 Data/DailyReports/ToRemoveFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="101">
   <si>
     <t>Accident</t>
   </si>
@@ -172,121 +172,133 @@
     <t>Pavement_Type</t>
   </si>
   <si>
+    <t>Grid_Block</t>
+  </si>
+  <si>
     <t>Injuries</t>
   </si>
   <si>
-    <t>Entrapment</t>
-  </si>
-  <si>
     <t>No Injuries</t>
   </si>
   <si>
     <t>Unknown Injuries</t>
   </si>
   <si>
-    <t>2019-05-19</t>
-  </si>
-  <si>
-    <t>23:45:41</t>
-  </si>
-  <si>
-    <t>22:11:56</t>
-  </si>
-  <si>
-    <t>21:25:49</t>
-  </si>
-  <si>
-    <t>21:19:29</t>
-  </si>
-  <si>
-    <t>21:19:11</t>
-  </si>
-  <si>
-    <t>16:39:34</t>
-  </si>
-  <si>
-    <t>16:37:45</t>
-  </si>
-  <si>
-    <t>16:20:48</t>
-  </si>
-  <si>
-    <t>15:56:14</t>
-  </si>
-  <si>
-    <t>15:45:44</t>
-  </si>
-  <si>
-    <t>13:52:29</t>
-  </si>
-  <si>
-    <t>13:52:04</t>
-  </si>
-  <si>
-    <t>13:11:45</t>
-  </si>
-  <si>
-    <t>13:11:05</t>
-  </si>
-  <si>
-    <t>02:34:11</t>
-  </si>
-  <si>
-    <t>02:32:03</t>
-  </si>
-  <si>
-    <t>FRAWLEY RD / RINGGOLD RD</t>
-  </si>
-  <si>
-    <t>CENTRAL AVE / BAILEY AVE</t>
-  </si>
-  <si>
-    <t>6830 - 6879 E BRAINERD RD</t>
-  </si>
-  <si>
-    <t>900-998 Cherokee Blvd</t>
-  </si>
-  <si>
-    <t>17900 Interstate 24 Wb</t>
-  </si>
-  <si>
-    <t>600 HIGHWAY 153 NB</t>
-  </si>
-  <si>
-    <t>5724 Highway 153</t>
-  </si>
-  <si>
-    <t>10300 - 10699 Lee Hwy</t>
-  </si>
-  <si>
-    <t>50-119 Interstate 75 Nb</t>
-  </si>
-  <si>
-    <t>9800 LEE HWY</t>
-  </si>
-  <si>
-    <t>9800 - 10099 Lee Hwy</t>
-  </si>
-  <si>
-    <t>4513 Rogers Rd</t>
-  </si>
-  <si>
-    <t>EAST RIDGE</t>
+    <t>2019-05-22</t>
+  </si>
+  <si>
+    <t>20:50:03</t>
+  </si>
+  <si>
+    <t>20:49:30</t>
+  </si>
+  <si>
+    <t>18:51:50</t>
+  </si>
+  <si>
+    <t>17:40:10</t>
+  </si>
+  <si>
+    <t>17:21:07</t>
+  </si>
+  <si>
+    <t>16:56:57</t>
+  </si>
+  <si>
+    <t>16:42:14</t>
+  </si>
+  <si>
+    <t>16:41:17</t>
+  </si>
+  <si>
+    <t>16:11:09</t>
+  </si>
+  <si>
+    <t>15:40:29</t>
+  </si>
+  <si>
+    <t>12:24:22</t>
+  </si>
+  <si>
+    <t>12:20:56</t>
+  </si>
+  <si>
+    <t>12:18:19</t>
+  </si>
+  <si>
+    <t>10:37:56</t>
+  </si>
+  <si>
+    <t>10:36:25</t>
+  </si>
+  <si>
+    <t>10:30:04</t>
+  </si>
+  <si>
+    <t>08:12:09</t>
+  </si>
+  <si>
+    <t>07:27:18</t>
+  </si>
+  <si>
+    <t>8223 Old Lee Hwy</t>
+  </si>
+  <si>
+    <t>404 S Crest Rd</t>
+  </si>
+  <si>
+    <t>Williams St / W 16th St</t>
+  </si>
+  <si>
+    <t>400 - 499 W 33rd St</t>
+  </si>
+  <si>
+    <t>200 GEORGIA AVE</t>
+  </si>
+  <si>
+    <t>E 23rd St / Central Ave</t>
+  </si>
+  <si>
+    <t>3136 New York Ave</t>
+  </si>
+  <si>
+    <t>Dayton Blvd / E Midvale Ave</t>
+  </si>
+  <si>
+    <t>5518-5559 Highway 153</t>
+  </si>
+  <si>
+    <t>5110-5149 Highway 153</t>
+  </si>
+  <si>
+    <t>5110 Highway 153</t>
+  </si>
+  <si>
+    <t>518 - 599 Barton Ave</t>
+  </si>
+  <si>
+    <t>2133-2219 Hamill Rd</t>
+  </si>
+  <si>
+    <t>590 INTERSTATE 75 SB</t>
+  </si>
+  <si>
+    <t>170 INTERSTATE 75 SB</t>
   </si>
   <si>
     <t>CHATTANOOGA</t>
   </si>
   <si>
-    <t>COLLEGEDALE</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>21</t>
+    <t>RED BANK</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>17</t>
   </si>
   <si>
     <t>16</t>
@@ -295,10 +307,16 @@
     <t>15</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>12</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
 </sst>
 </file>
@@ -656,13 +674,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA18"/>
+  <dimension ref="A1:BB21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:54">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -819,19 +837,22 @@
       <c r="BA1" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:53">
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:54">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D2">
-        <v>34.988345</v>
+        <v>35.07167</v>
       </c>
       <c r="E2">
-        <v>-85.191565</v>
+        <v>-85.09801299999999</v>
       </c>
       <c r="F2" t="s">
         <v>56</v>
@@ -840,461 +861,461 @@
         <v>57</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="Y2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:54">
       <c r="A3" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D3">
-        <v>35.039775</v>
+        <v>35.07167</v>
       </c>
       <c r="E3">
-        <v>-85.292119</v>
+        <v>-85.09801299999999</v>
       </c>
       <c r="F3" t="s">
         <v>56</v>
       </c>
       <c r="G3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" t="s">
+        <v>90</v>
+      </c>
+      <c r="P3" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:54">
+      <c r="A4" s="1">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4">
+        <v>35.07167</v>
+      </c>
+      <c r="E4">
+        <v>-85.09801299999999</v>
+      </c>
+      <c r="F4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" t="s">
         <v>58</v>
-      </c>
-      <c r="H3" t="s">
-        <v>74</v>
-      </c>
-      <c r="K3" t="s">
-        <v>86</v>
-      </c>
-      <c r="P3" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:53">
-      <c r="A4" s="1">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4">
-        <v>35.016889</v>
-      </c>
-      <c r="E4">
-        <v>-85.181912</v>
-      </c>
-      <c r="F4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" t="s">
-        <v>59</v>
       </c>
       <c r="H4" t="s">
         <v>75</v>
       </c>
       <c r="K4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Y4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:54">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D5">
-        <v>35.0733</v>
+        <v>35.005669</v>
       </c>
       <c r="E5">
-        <v>-85.31887999999999</v>
+        <v>-85.270718</v>
       </c>
       <c r="F5" t="s">
         <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H5" t="s">
         <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="P5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Y5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:54">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6">
-        <v>35.0733</v>
+        <v>35.036</v>
       </c>
       <c r="E6">
-        <v>-85.31887999999999</v>
+        <v>-85.309719</v>
       </c>
       <c r="F6" t="s">
         <v>56</v>
       </c>
       <c r="G6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="Y6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:54">
       <c r="A7" s="1">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D7">
-        <v>35.029438</v>
+        <v>35.036</v>
       </c>
       <c r="E7">
-        <v>-85.31139</v>
+        <v>-85.309719</v>
       </c>
       <c r="F7" t="s">
         <v>56</v>
       </c>
       <c r="G7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H7" t="s">
         <v>77</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Y7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:54">
       <c r="A8" s="1">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D8">
-        <v>35.029438</v>
+        <v>35.013401</v>
       </c>
       <c r="E8">
-        <v>-85.31139</v>
+        <v>-85.311116</v>
       </c>
       <c r="F8" t="s">
         <v>56</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K8" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Y8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:54">
       <c r="A9" s="1">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
         <v>54</v>
       </c>
       <c r="D9">
-        <v>35.094661</v>
+        <v>35.057563</v>
       </c>
       <c r="E9">
-        <v>-85.225106</v>
+        <v>-85.302503</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>
       </c>
       <c r="G9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" t="s">
+        <v>90</v>
+      </c>
+      <c r="P9" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:54">
+      <c r="A10" s="1">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10">
+        <v>35.024811</v>
+      </c>
+      <c r="E10">
+        <v>-85.299691</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" t="s">
+        <v>90</v>
+      </c>
+      <c r="P10" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:54">
+      <c r="A11" s="1">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11">
+        <v>35.024811</v>
+      </c>
+      <c r="E11">
+        <v>-85.299691</v>
+      </c>
+      <c r="F11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" t="s">
         <v>64</v>
-      </c>
-      <c r="H9" t="s">
-        <v>78</v>
-      </c>
-      <c r="K9" t="s">
-        <v>86</v>
-      </c>
-      <c r="P9" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:53">
-      <c r="A10" s="1">
-        <v>44</v>
-      </c>
-      <c r="C10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10">
-        <v>35.15336</v>
-      </c>
-      <c r="E10">
-        <v>-85.24834</v>
-      </c>
-      <c r="F10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" t="s">
-        <v>79</v>
-      </c>
-      <c r="K10" t="s">
-        <v>86</v>
-      </c>
-      <c r="P10" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:53">
-      <c r="A11" s="1">
-        <v>49</v>
-      </c>
-      <c r="C11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11">
-        <v>35.084469</v>
-      </c>
-      <c r="E11">
-        <v>-85.024103</v>
-      </c>
-      <c r="F11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" t="s">
-        <v>66</v>
       </c>
       <c r="H11" t="s">
         <v>80</v>
       </c>
       <c r="K11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Y11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:54">
       <c r="A12" s="1">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D12">
-        <v>34.999205</v>
+        <v>35.06847</v>
       </c>
       <c r="E12">
-        <v>-85.209816</v>
+        <v>-85.23316800000001</v>
       </c>
       <c r="F12" t="s">
         <v>56</v>
       </c>
       <c r="G12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H12" t="s">
         <v>81</v>
       </c>
       <c r="K12" t="s">
+        <v>90</v>
+      </c>
+      <c r="P12" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:54">
+      <c r="A13" s="1">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13">
+        <v>35.08929</v>
+      </c>
+      <c r="E13">
+        <v>-85.312495</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" t="s">
+        <v>82</v>
+      </c>
+      <c r="K13" t="s">
+        <v>91</v>
+      </c>
+      <c r="P13" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:54">
+      <c r="A14" s="1">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14">
+        <v>35.145053</v>
+      </c>
+      <c r="E14">
+        <v>-85.249184</v>
+      </c>
+      <c r="F14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" t="s">
+        <v>83</v>
+      </c>
+      <c r="K14" t="s">
+        <v>90</v>
+      </c>
+      <c r="P14" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:54">
+      <c r="A15" s="1">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15">
+        <v>35.121571</v>
+      </c>
+      <c r="E15">
+        <v>-85.238322</v>
+      </c>
+      <c r="F15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" t="s">
+        <v>84</v>
+      </c>
+      <c r="K15" t="s">
+        <v>90</v>
+      </c>
+      <c r="P15" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:54">
+      <c r="A16" s="1">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16">
+        <v>35.12204</v>
+      </c>
+      <c r="E16">
+        <v>-85.238018</v>
+      </c>
+      <c r="F16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" t="s">
         <v>85</v>
       </c>
-      <c r="P12" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:53">
-      <c r="A13" s="1">
-        <v>56</v>
-      </c>
-      <c r="C13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13">
-        <v>34.999205</v>
-      </c>
-      <c r="E13">
-        <v>-85.209816</v>
-      </c>
-      <c r="F13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" t="s">
-        <v>81</v>
-      </c>
-      <c r="K13" t="s">
-        <v>85</v>
-      </c>
-      <c r="P13" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:53">
-      <c r="A14" s="1">
-        <v>62</v>
-      </c>
-      <c r="C14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14">
-        <v>35.076678</v>
-      </c>
-      <c r="E14">
-        <v>-85.042866</v>
-      </c>
-      <c r="F14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H14" t="s">
-        <v>82</v>
-      </c>
-      <c r="K14" t="s">
-        <v>87</v>
-      </c>
-      <c r="P14" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:53">
-      <c r="A15" s="1">
-        <v>63</v>
-      </c>
-      <c r="C15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15">
-        <v>35.076678</v>
-      </c>
-      <c r="E15">
-        <v>-85.042866</v>
-      </c>
-      <c r="F15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" t="s">
-        <v>83</v>
-      </c>
-      <c r="K15" t="s">
-        <v>87</v>
-      </c>
-      <c r="P15" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:53">
-      <c r="A16" s="1">
-        <v>63</v>
-      </c>
-      <c r="C16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16">
-        <v>35.076678</v>
-      </c>
-      <c r="E16">
-        <v>-85.042866</v>
-      </c>
-      <c r="F16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" t="s">
-        <v>70</v>
-      </c>
-      <c r="H16" t="s">
-        <v>83</v>
-      </c>
       <c r="K16" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="P16" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="Y16">
         <v>5</v>
@@ -1302,31 +1323,31 @@
     </row>
     <row r="17" spans="1:25">
       <c r="A17" s="1">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17">
-        <v>35.02529</v>
+        <v>35.064944</v>
       </c>
       <c r="E17">
-        <v>-85.22837</v>
+        <v>-85.295261</v>
       </c>
       <c r="F17" t="s">
         <v>56</v>
       </c>
       <c r="G17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K17" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="Y17">
         <v>5</v>
@@ -1334,33 +1355,129 @@
     </row>
     <row r="18" spans="1:25">
       <c r="A18" s="1">
+        <v>64</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18">
+        <v>35.064944</v>
+      </c>
+      <c r="E18">
+        <v>-85.295261</v>
+      </c>
+      <c r="F18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" t="s">
         <v>86</v>
       </c>
-      <c r="C18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18">
-        <v>35.02529</v>
-      </c>
-      <c r="E18">
-        <v>-85.22837</v>
-      </c>
-      <c r="F18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="K18" t="s">
+        <v>90</v>
+      </c>
+      <c r="P18" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="A19" s="1">
+        <v>70</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19">
+        <v>35.124376</v>
+      </c>
+      <c r="E19">
+        <v>-85.233897</v>
+      </c>
+      <c r="F19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" t="s">
         <v>72</v>
       </c>
-      <c r="H18" t="s">
-        <v>84</v>
-      </c>
-      <c r="K18" t="s">
-        <v>86</v>
-      </c>
-      <c r="P18" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y18">
+      <c r="H19" t="s">
+        <v>87</v>
+      </c>
+      <c r="K19" t="s">
+        <v>90</v>
+      </c>
+      <c r="P19" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="A20" s="1">
+        <v>85</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20">
+        <v>35.045852</v>
+      </c>
+      <c r="E20">
+        <v>-85.152462</v>
+      </c>
+      <c r="F20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" t="s">
+        <v>88</v>
+      </c>
+      <c r="K20" t="s">
+        <v>90</v>
+      </c>
+      <c r="P20" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
+      <c r="A21" s="1">
+        <v>97</v>
+      </c>
+      <c r="C21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21">
+        <v>35.006927</v>
+      </c>
+      <c r="E21">
+        <v>-85.205022</v>
+      </c>
+      <c r="F21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" t="s">
+        <v>89</v>
+      </c>
+      <c r="K21" t="s">
+        <v>90</v>
+      </c>
+      <c r="P21" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y21">
         <v>5</v>
       </c>
     </row>
